--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adevecseri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C2383F-DC55-4C8F-A4B5-B5DF7B2D432C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9027E6D-C7DF-4455-9627-170D48C809F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EDAE8D6-3623-45A2-8BFA-E85B6F6E859E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Days Since 1st Case</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>8,514 / 60,761 =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  257 / 16,650 =</t>
   </si>
   <si>
     <t>As of March 10, Italy reported 60761 tests, finding 8514 positive:</t>
@@ -155,15 +152,61 @@
   <si>
     <t>~28</t>
   </si>
+  <si>
+    <t>y=</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>est day</t>
+  </si>
+  <si>
+    <t># cases/day</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>Today is day:</t>
+  </si>
+  <si>
+    <t>If Ontario follows this average trend of 11 days, we can expect to see 1000 new cases/day starting around April 1st.</t>
+  </si>
+  <si>
+    <t>If Ontario follows Irans's ~17 days, we can expect to see new cases/day peak around April 6th.</t>
+  </si>
+  <si>
+    <t>hard to define because the peak is a big backlog spike and there was a slow start</t>
+  </si>
+  <si>
+    <t>April 2nd, in:</t>
+  </si>
+  <si>
+    <t>April 6th, in:</t>
+  </si>
+  <si>
+    <t>Exponential equation from trendline (update daily)</t>
+  </si>
+  <si>
+    <t>update manually</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +273,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +295,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -397,18 +454,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -424,7 +537,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -432,10 +545,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,19 +571,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -492,25 +598,74 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1008,6 +1163,9 @@
                 <c:pt idx="24">
                   <c:v>44</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1266,6 +1424,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1321,9 +1482,75 @@
             </c:spPr>
             <c:trendlineType val="exp"/>
             <c:forward val="1"/>
-            <c:backward val="3"/>
+            <c:backward val="2"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.1252501114044602E-2"/>
+                  <c:y val="-1.4028249225186433E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
+                      <a:t>y = 0.0001e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="1" baseline="30000"/>
+                      <a:t>0.2376x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1000" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1393,10 +1620,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$26</c:f>
+              <c:f>Sheet1!$D$18:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1423,6 +1650,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,6 +1862,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,7 +2018,7 @@
         <c:axId val="1674530703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60.1"/>
+          <c:max val="70.099999999999994"/>
           <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1837,8 +2070,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.84301942675210206"/>
-              <c:y val="0.49356806151739402"/>
+              <c:x val="0.89056312566578055"/>
+              <c:y val="0.46049206087386807"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1916,7 +2149,7 @@
         <c:axId val="2040377760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2820"/>
+          <c:max val="2980"/>
           <c:min val="2700"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1924,7 +2157,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1951,8 +2184,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.95500907730506368"/>
-              <c:y val="0.49525242402550923"/>
+              <c:x val="0.95173024165086195"/>
+              <c:y val="0.46217642309595536"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1964,7 +2197,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2024,7 +2257,7 @@
         <c:crossAx val="2040378176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2040378176"/>
@@ -2038,6 +2271,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2040377760"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2745,8 +2979,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="4995344"/>
-          <a:ext cx="1138908" cy="516853"/>
+          <a:off x="0" y="5011080"/>
+          <a:ext cx="1190489" cy="518481"/>
           <a:chOff x="-98425" y="0"/>
           <a:chExt cx="920752" cy="533400"/>
         </a:xfrm>
@@ -2908,8 +3142,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1635058" y="4985712"/>
-          <a:ext cx="1213536" cy="516854"/>
+          <a:off x="1709121" y="5001431"/>
+          <a:ext cx="1268497" cy="518481"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3071,8 +3305,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3265784" y="5004527"/>
-          <a:ext cx="1213535" cy="516910"/>
+          <a:off x="3413671" y="5020266"/>
+          <a:ext cx="1268498" cy="518539"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3234,8 +3468,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4131130" y="5007595"/>
-          <a:ext cx="1192710" cy="366647"/>
+          <a:off x="4318236" y="5023386"/>
+          <a:ext cx="1246729" cy="367802"/>
           <a:chOff x="35129" y="0"/>
           <a:chExt cx="964227" cy="378371"/>
         </a:xfrm>
@@ -3377,12 +3611,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.76201</cdr:x>
-      <cdr:y>0.87012</cdr:y>
+      <cdr:x>0.79751</cdr:x>
+      <cdr:y>0.8717</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.8852</cdr:x>
-      <cdr:y>0.96187</cdr:y>
+      <cdr:x>0.9207</cdr:x>
+      <cdr:y>0.96345</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
@@ -3397,8 +3631,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5647196" y="5011426"/>
-          <a:ext cx="912950" cy="528442"/>
+          <a:off x="6177949" y="5036328"/>
+          <a:ext cx="954298" cy="530094"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
         </a:xfrm>
@@ -3838,694 +4072,722 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:XFB69"/>
+  <dimension ref="A1:XFB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="18" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="19"/>
-    <col min="6" max="6" width="8.7109375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="17" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="18"/>
+    <col min="6" max="6" width="8.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="29" customWidth="1"/>
     <col min="10" max="10" width="5.85546875" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
     <col min="19" max="19" width="18.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="28"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:20" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>43885</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>30</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>0</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <f>C3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
         <v>43886</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>31</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <f t="shared" ref="D4:D25" si="0">C4</f>
         <v>1</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
         <v>43887</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>32</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>0</v>
       </c>
+      <c r="T5" s="78" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>43888</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>33</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>1</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>43889</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>34</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>43890</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>35</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>3</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>43891</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>36</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>4</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>0</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>43892</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>37</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>3</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>43893</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>38</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>2</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>43894</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>39</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>2</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>43895</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>40</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>3</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>43896</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>41</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>2</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>43897</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>42</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>2</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>43898</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>43</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>4</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>43899</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>44</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <v>4</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>43900</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>45</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>2</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>43901</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>46</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <v>5</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>43902</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>47</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <v>18</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>43903</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>48</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>19</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>43904</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>49</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <v>24</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>0</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>43905</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>50</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="18">
         <v>43</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>0</v>
       </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>43906</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>51</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <v>32</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <v>43907</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>52</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <v>12</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <v>1</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <v>11167</v>
       </c>
     </row>
     <row r="26" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="16">
         <v>43908</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>53</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>25</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <f>C26</f>
         <v>25</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <v>0</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <v>13897</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <f>F26-F25</f>
         <v>2730</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="30">
+      <c r="H26" s="15"/>
+      <c r="I26" s="29">
         <f>D26/G26</f>
         <v>9.1575091575091579E-3</v>
       </c>
-      <c r="J26" s="11"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="16">
         <v>43909</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <v>54</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <v>44</v>
       </c>
-      <c r="D27" s="19">
-        <f t="shared" ref="D27:D32" si="1">C27</f>
+      <c r="D27" s="18">
+        <f t="shared" ref="D27:D28" si="1">C27</f>
         <v>44</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <v>1</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="19">
         <v>16650</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="19">
         <f>F27-F26</f>
         <v>2753</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="15">
         <f>G27-G26</f>
         <v>23</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="29">
         <f>D27/G27</f>
         <v>1.5982564475118054E-2</v>
       </c>
     </row>
     <row r="28" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>43910</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <v>55</v>
       </c>
+      <c r="C28" s="18">
+        <v>50</v>
+      </c>
+      <c r="D28" s="18">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19">
+        <v>19511</v>
+      </c>
+      <c r="G28" s="19">
+        <f>F28-F27</f>
+        <v>2861</v>
+      </c>
+      <c r="H28" s="15">
+        <f>G28-G27</f>
+        <v>108</v>
+      </c>
+      <c r="I28" s="29">
+        <f>D28/G28</f>
+        <v>1.7476406850751487E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="16">
         <v>43911</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:20 16382:16382" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="16">
         <v>43912</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <v>57</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="27" t="str">
+      <c r="K30" s="9"/>
+      <c r="L30" s="26" t="str">
         <f ca="1">"Tests as of" &amp;  TEXT(TODAY()," mm-dd-yyyy")</f>
-        <v>Tests as of 03-19-2020</v>
-      </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
+        <v>Tests as of 03-20-2020</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
     </row>
     <row r="31" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="16">
         <v>43913</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <v>58</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="3">
-        <v>12421</v>
-      </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
+      <c r="L31" s="76">
+        <v>13718</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
     </row>
     <row r="32" spans="1:20 16382:16382" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="16">
         <v>43914</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="17">
         <v>59</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="3">
-        <v>3971</v>
-      </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="40" t="s">
+      <c r="L32" s="76">
+        <v>5485</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="O32" s="41">
+      <c r="O32" s="37">
         <f>8514/60761</f>
         <v>0.14012277612284196</v>
       </c>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
       <c r="XFB32">
         <f>SUM(B32:XFA32)</f>
-        <v>4030.140122776123</v>
+        <v>5544.1401227761226</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+      <c r="A33" s="16">
         <v>43915</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="17">
         <v>60</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="5">
-        <v>251</v>
-      </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="38" t="str">
-        <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;(F27)&amp;" tests, finding "&amp;(L33+L34+L35)&amp;" positive:"</f>
-        <v>As of March 19, Ontario reported 16650 tests, finding 258 positive:</v>
-      </c>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
+      <c r="L33" s="77">
+        <v>301</v>
+      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="55" t="str">
+        <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;L36&amp;" tests, finding "&amp;(L33+L34+L35)&amp;" positive:"</f>
+        <v>As of March 20, Ontario reported 19511 tests, finding 308 positive:</v>
+      </c>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="A34" s="16">
         <v>43916</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <v>61</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="76">
         <v>5</v>
       </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
     </row>
     <row r="35" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="A35" s="16">
         <v>43917</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>62</v>
       </c>
       <c r="K35" s="2" t="s">
@@ -4535,23 +4797,24 @@
         <f>SUM(E3:E69)</f>
         <v>2</v>
       </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="O35" s="44">
-        <f>($L33+$L34+$L35)/MAX(F3:F69)</f>
-        <v>1.5495495495495495E-2</v>
-      </c>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="39" t="str">
+        <f>(L33+L34+L35)&amp;" / "&amp;L36&amp;" ="</f>
+        <v>308 / 19511 =</v>
+      </c>
+      <c r="O35" s="40">
+        <f>($L33+$L34+$L35)/(L36)</f>
+        <v>1.5785966890472042E-2</v>
+      </c>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="A36" s="16">
         <v>43918</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="17">
         <v>63</v>
       </c>
       <c r="K36" s="2" t="s">
@@ -4559,66 +4822,66 @@
       </c>
       <c r="L36" s="3">
         <f>MAX(F3:F69)</f>
-        <v>16650</v>
-      </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="49" t="s">
+        <v>19511</v>
+      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+    </row>
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>43919</v>
+      </c>
+      <c r="B37" s="17">
+        <v>64</v>
+      </c>
+      <c r="K37" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="17">
+        <v>65</v>
+      </c>
+      <c r="K38" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="17">
+        <v>66</v>
+      </c>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="53" t="s">
         <v>37</v>
-      </c>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-    </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
-        <v>43919</v>
-      </c>
-      <c r="B37" s="18">
-        <v>64</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M37" s="9"/>
-      <c r="N37" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
-        <v>43920</v>
-      </c>
-      <c r="B38" s="18">
-        <v>65</v>
-      </c>
-      <c r="K38" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
-        <v>43921</v>
-      </c>
-      <c r="B39" s="18">
-        <v>66</v>
-      </c>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="53" t="s">
-        <v>38</v>
       </c>
       <c r="O39" s="53"/>
       <c r="P39" s="53"/>
@@ -4626,28 +4889,28 @@
       <c r="R39" s="53"/>
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+      <c r="A40" s="16">
         <v>43922</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="17">
         <v>67</v>
       </c>
       <c r="K40" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L40" s="54"/>
       <c r="M40" s="54"/>
       <c r="N40" s="54"/>
       <c r="O40" s="54"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
+      <c r="A41" s="16">
         <v>43923</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="17">
         <v>68</v>
       </c>
       <c r="K41" s="54"/>
@@ -4655,383 +4918,522 @@
       <c r="M41" s="54"/>
       <c r="N41" s="54"/>
       <c r="O41" s="54"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="A42" s="16">
         <v>43924</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="17">
         <v>69</v>
       </c>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="A43" s="16">
         <v>43925</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="17">
         <v>70</v>
       </c>
-      <c r="K43" s="31" t="s">
+      <c r="K43" s="48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>43926</v>
+      </c>
+      <c r="B44" s="17">
+        <v>71</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="35"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="17">
+        <v>72</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="17">
+        <v>73</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>43929</v>
+      </c>
+      <c r="B47" s="17">
+        <v>74</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>43930</v>
+      </c>
+      <c r="B48" s="17">
+        <v>75</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>43931</v>
+      </c>
+      <c r="B49" s="17">
+        <v>76</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>43932</v>
+      </c>
+      <c r="B50" s="17">
+        <v>77</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>43933</v>
+      </c>
+      <c r="B51" s="17">
+        <v>78</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>43934</v>
+      </c>
+      <c r="B52" s="17">
+        <v>79</v>
+      </c>
+      <c r="K52" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>43935</v>
+      </c>
+      <c r="B53" s="17">
+        <v>80</v>
+      </c>
+      <c r="K53" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>43936</v>
+      </c>
+      <c r="B54" s="17">
+        <v>81</v>
+      </c>
+      <c r="K54" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>43937</v>
+      </c>
+      <c r="B55" s="17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>43938</v>
+      </c>
+      <c r="B56" s="17">
+        <v>83</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56" s="35"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <v>43939</v>
+      </c>
+      <c r="B57" s="17">
+        <v>84</v>
+      </c>
+      <c r="K57" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="M57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>43940</v>
+      </c>
+      <c r="B58" s="17">
+        <v>85</v>
+      </c>
+      <c r="K58" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="75">
+        <v>26</v>
+      </c>
+      <c r="M58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <v>43941</v>
+      </c>
+      <c r="B59" s="17">
+        <v>86</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="14">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
-        <v>43926</v>
-      </c>
-      <c r="B44" s="18">
-        <v>71</v>
-      </c>
-      <c r="K44" s="36" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>43942</v>
+      </c>
+      <c r="B60" s="17">
+        <v>87</v>
+      </c>
+      <c r="K60" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="75">
+        <v>14</v>
+      </c>
+      <c r="M60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <v>43943</v>
+      </c>
+      <c r="B61" s="17">
+        <v>88</v>
+      </c>
+      <c r="K61" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="75">
+        <v>15</v>
+      </c>
+      <c r="M61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>43944</v>
+      </c>
+      <c r="B62" s="17">
+        <v>89</v>
+      </c>
+      <c r="K62" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L44" s="37"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
-        <v>43927</v>
-      </c>
-      <c r="B45" s="18">
-        <v>72</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
-        <v>43928</v>
-      </c>
-      <c r="B46" s="18">
-        <v>73</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="15">
+      <c r="L62" s="75">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
-        <v>43929</v>
-      </c>
-      <c r="B47" s="18">
-        <v>74</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
-        <v>43930</v>
-      </c>
-      <c r="B48" s="18">
-        <v>75</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" s="15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
-        <v>43931</v>
-      </c>
-      <c r="B49" s="18">
-        <v>76</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L49" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
-        <v>43932</v>
-      </c>
-      <c r="B50" s="18">
-        <v>77</v>
-      </c>
-      <c r="K50" s="19" t="s">
+      <c r="M62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>43945</v>
+      </c>
+      <c r="B63" s="17">
+        <v>90</v>
+      </c>
+      <c r="K63" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="L50" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
-        <v>43933</v>
-      </c>
-      <c r="B51" s="18">
-        <v>78</v>
-      </c>
-      <c r="K51" s="19" t="s">
+      <c r="L63" s="75">
+        <v>15</v>
+      </c>
+      <c r="M63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <v>43946</v>
+      </c>
+      <c r="B64" s="17">
+        <v>91</v>
+      </c>
+      <c r="K64" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L51" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
-        <v>43934</v>
-      </c>
-      <c r="B52" s="18">
-        <v>79</v>
-      </c>
-      <c r="K52" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L52" s="32" t="s">
+      <c r="L64" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>43947</v>
+      </c>
+      <c r="B65" s="17">
+        <v>92</v>
+      </c>
+      <c r="K65" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" s="31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
-        <v>43935</v>
-      </c>
-      <c r="B53" s="18">
-        <v>80</v>
-      </c>
-      <c r="K53" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L53" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
-        <v>43936</v>
-      </c>
-      <c r="B54" s="18">
-        <v>81</v>
-      </c>
-      <c r="K54" s="52"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
-        <v>43937</v>
-      </c>
-      <c r="B55" s="18">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
-        <v>43938</v>
-      </c>
-      <c r="B56" s="18">
-        <v>83</v>
-      </c>
-      <c r="K56" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="L56" s="37"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="17">
-        <v>43939</v>
-      </c>
-      <c r="B57" s="18">
-        <v>84</v>
-      </c>
-      <c r="K57" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="L57" s="15" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <v>43948</v>
+      </c>
+      <c r="B66" s="17">
+        <v>93</v>
+      </c>
+      <c r="K66" s="46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <v>43949</v>
+      </c>
+      <c r="B67" s="17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>43950</v>
+      </c>
+      <c r="B68" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
+        <v>43951</v>
+      </c>
+      <c r="B69" s="17">
+        <v>96</v>
+      </c>
+      <c r="K69" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="L69" s="60"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="60"/>
+      <c r="O69" s="60"/>
+      <c r="P69" s="61"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K70" s="62" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="17">
-        <v>43940</v>
-      </c>
-      <c r="B58" s="18">
-        <v>85</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" s="15">
-        <v>25</v>
-      </c>
-      <c r="M58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="17">
-        <v>43941</v>
-      </c>
-      <c r="B59" s="18">
-        <v>86</v>
-      </c>
-      <c r="K59" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59" s="15">
-        <v>17</v>
-      </c>
-      <c r="M59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
-        <v>43942</v>
-      </c>
-      <c r="B60" s="18">
-        <v>87</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" s="15">
-        <v>13</v>
-      </c>
-      <c r="M60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="17">
-        <v>43943</v>
-      </c>
-      <c r="B61" s="18">
-        <v>88</v>
-      </c>
-      <c r="K61" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L61" s="15">
-        <v>14</v>
-      </c>
-      <c r="M61" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
-        <v>43944</v>
-      </c>
-      <c r="B62" s="18">
-        <v>89</v>
-      </c>
-      <c r="K62" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L62" s="15">
-        <v>13</v>
-      </c>
-      <c r="M62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
-        <v>43945</v>
-      </c>
-      <c r="B63" s="18">
-        <v>90</v>
-      </c>
-      <c r="K63" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L63" s="15">
-        <v>14</v>
-      </c>
-      <c r="M63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
-        <v>43946</v>
-      </c>
-      <c r="B64" s="18">
-        <v>91</v>
-      </c>
-      <c r="K64" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L64" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
-        <v>43947</v>
-      </c>
-      <c r="B65" s="18">
-        <v>92</v>
-      </c>
-      <c r="K65" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L65" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
-        <v>43948</v>
-      </c>
-      <c r="B66" s="18">
-        <v>93</v>
-      </c>
-      <c r="K66" s="52"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
-        <v>43949</v>
-      </c>
-      <c r="B67" s="18">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
-        <v>43950</v>
-      </c>
-      <c r="B68" s="18">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="17">
-        <v>43951</v>
-      </c>
-      <c r="B69" s="18">
-        <v>96</v>
-      </c>
+      <c r="L70" s="71">
+        <v>0.23760000000000001</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="14"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K71" s="72">
+        <v>1E-4</v>
+      </c>
+      <c r="L71" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="14"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K72" s="62"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="14"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K73" s="62"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O73" s="71">
+        <v>55</v>
+      </c>
+      <c r="P73" s="14"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K74" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L74" s="12">
+        <v>1000</v>
+      </c>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="14"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K75" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L75" s="64">
+        <f>LN($L74/$K71)/$L70</f>
+        <v>67.837102908073732</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N75" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="O75" s="65">
+        <f>L75-O73</f>
+        <v>12.837102908073732</v>
+      </c>
+      <c r="P75" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K76" s="63"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="14"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K77" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L77" s="12">
+        <v>3000</v>
+      </c>
+      <c r="M77" s="5"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="14"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K78" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="L78" s="67">
+        <f>LN($L77/$K71)/$L70</f>
+        <v>72.460892001794733</v>
+      </c>
+      <c r="M78" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="N78" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="O78" s="69">
+        <f>L78-O73</f>
+        <v>17.460892001794733</v>
+      </c>
+      <c r="P78" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L81" s="51"/>
+      <c r="M81" s="50"/>
+      <c r="O81" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5042,8 +5444,13 @@
     <mergeCell ref="N37:R38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K43" r:id="rId1" xr:uid="{D9FE3E3F-3B3D-4910-B8C8-90D16F1DEDB7}"/>
+    <hyperlink ref="K38" r:id="rId2" location="countries" xr:uid="{05359A71-443E-4E09-9D24-219893588AB0}"/>
+    <hyperlink ref="K37" r:id="rId3" location="section-0" xr:uid="{5341AA84-F072-4992-A3ED-A4DB86D58BA6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adevecseri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9027E6D-C7DF-4455-9627-170D48C809F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBA4B81-7DD8-45BA-926C-C0D64D75E95E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EDAE8D6-3623-45A2-8BFA-E85B6F6E859E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Days Since 1st Case</t>
   </si>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t>8,514 / 60,761 =</t>
-  </si>
-  <si>
-    <t>As of March 10, Italy reported 60761 tests, finding 8514 positive:</t>
-  </si>
-  <si>
-    <t>https://www.worldometers.info/coronavirus/covid-19-testing/</t>
   </si>
   <si>
     <t>Italy has made 3.6x the tests, but has found 33x the positive cases compared to Ontario.</t>
@@ -196,6 +190,12 @@
   </si>
   <si>
     <t>update manually</t>
+  </si>
+  <si>
+    <t>As of March 10, Italy reported 60761 total tests, finding 8514 positive:</t>
+  </si>
+  <si>
+    <t>Peaked at 1,365 daily cases</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -553,9 +553,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -614,24 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -666,6 +645,30 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1164,7 +1167,7 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4074,8 +4077,8 @@
   </sheetPr>
   <dimension ref="A1:XFB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4086,7 +4089,7 @@
     <col min="6" max="6" width="8.7109375" style="19" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="18" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="28" customWidth="1"/>
     <col min="10" max="10" width="5.85546875" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" customWidth="1"/>
@@ -4107,7 +4110,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="27"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:20" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -4116,25 +4119,25 @@
       <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="G2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="11"/>
@@ -4192,8 +4195,8 @@
       <c r="E5" s="18">
         <v>0</v>
       </c>
-      <c r="T5" s="78" t="s">
-        <v>54</v>
+      <c r="T5" s="71" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -4590,7 +4593,7 @@
         <v>2730</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="29">
+      <c r="I26" s="28">
         <f>D26/G26</f>
         <v>9.1575091575091579E-3</v>
       </c>
@@ -4624,7 +4627,7 @@
         <f>G27-G26</f>
         <v>23</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="28">
         <f>D27/G27</f>
         <v>1.5982564475118054E-2</v>
       </c>
@@ -4637,11 +4640,11 @@
         <v>55</v>
       </c>
       <c r="C28" s="18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E28" s="18">
         <v>0</v>
@@ -4657,9 +4660,9 @@
         <f>G28-G27</f>
         <v>108</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="28">
         <f>D28/G28</f>
-        <v>1.7476406850751487E-2</v>
+        <v>2.0971688220901782E-2</v>
       </c>
     </row>
     <row r="29" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
@@ -4678,18 +4681,18 @@
         <v>57</v>
       </c>
       <c r="K30" s="9"/>
-      <c r="L30" s="26" t="str">
+      <c r="L30" s="25" t="str">
         <f ca="1">"Tests as of" &amp;  TEXT(TODAY()," mm-dd-yyyy")</f>
         <v>Tests as of 03-20-2020</v>
       </c>
       <c r="M30" s="8"/>
-      <c r="N30" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
+      <c r="N30" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
     </row>
     <row r="31" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
@@ -4701,15 +4704,15 @@
       <c r="K31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="76">
+      <c r="L31" s="69">
         <v>13718</v>
       </c>
       <c r="M31" s="8"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
     </row>
     <row r="32" spans="1:20 16382:16382" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
@@ -4721,23 +4724,23 @@
       <c r="K32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="76">
-        <v>5485</v>
+      <c r="L32" s="69">
+        <v>5475</v>
       </c>
       <c r="M32" s="8"/>
-      <c r="N32" s="36" t="s">
+      <c r="N32" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O32" s="37">
+      <c r="O32" s="36">
         <f>8514/60761</f>
         <v>0.14012277612284196</v>
       </c>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
       <c r="XFB32">
         <f>SUM(B32:XFA32)</f>
-        <v>5544.1401227761226</v>
+        <v>5534.1401227761226</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -4750,18 +4753,18 @@
       <c r="K33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="77">
-        <v>301</v>
+      <c r="L33" s="70">
+        <v>311</v>
       </c>
       <c r="M33" s="8"/>
-      <c r="N33" s="55" t="str">
-        <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;L36&amp;" tests, finding "&amp;(L33+L34+L35)&amp;" positive:"</f>
-        <v>As of March 20, Ontario reported 19511 tests, finding 308 positive:</v>
-      </c>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
+      <c r="N33" s="76" t="str">
+        <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;L36&amp;" total tests, finding "&amp;(L33+L34+L35)&amp;" positive:"</f>
+        <v>As of March 20, Ontario reported 19511 total tests, finding 318 positive:</v>
+      </c>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
@@ -4773,15 +4776,15 @@
       <c r="K34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="76">
+      <c r="L34" s="69">
         <v>5</v>
       </c>
       <c r="M34" s="8"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="77"/>
     </row>
     <row r="35" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
@@ -4798,17 +4801,17 @@
         <v>2</v>
       </c>
       <c r="M35" s="8"/>
-      <c r="N35" s="39" t="str">
+      <c r="N35" s="38" t="str">
         <f>(L33+L34+L35)&amp;" / "&amp;L36&amp;" ="</f>
-        <v>308 / 19511 =</v>
-      </c>
-      <c r="O35" s="40">
+        <v>318 / 19511 =</v>
+      </c>
+      <c r="O35" s="39">
         <f>($L33+$L34+$L35)/(L36)</f>
-        <v>1.5785966890472042E-2</v>
-      </c>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
+        <v>1.6298498283019835E-2</v>
+      </c>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
@@ -4825,13 +4828,13 @@
         <v>19511</v>
       </c>
       <c r="M36" s="8"/>
-      <c r="N36" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
+      <c r="N36" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
@@ -4840,17 +4843,17 @@
       <c r="B37" s="17">
         <v>64</v>
       </c>
-      <c r="K37" s="49" t="s">
+      <c r="K37" s="48" t="s">
         <v>10</v>
       </c>
       <c r="M37" s="8"/>
-      <c r="N37" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
+      <c r="N37" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
@@ -4859,16 +4862,16 @@
       <c r="B38" s="17">
         <v>65</v>
       </c>
-      <c r="K38" s="48" t="s">
-        <v>23</v>
+      <c r="K38" s="47" t="s">
+        <v>21</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
@@ -4877,16 +4880,16 @@
       <c r="B39" s="17">
         <v>66</v>
       </c>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
@@ -4895,16 +4898,16 @@
       <c r="B40" s="17">
         <v>67</v>
       </c>
-      <c r="K40" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
+      <c r="K40" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
@@ -4913,14 +4916,14 @@
       <c r="B41" s="17">
         <v>68</v>
       </c>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
@@ -4929,14 +4932,14 @@
       <c r="B42" s="17">
         <v>69</v>
       </c>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
@@ -4945,8 +4948,8 @@
       <c r="B43" s="17">
         <v>70</v>
       </c>
-      <c r="K43" s="48" t="s">
-        <v>16</v>
+      <c r="K43" s="47" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -4956,10 +4959,10 @@
       <c r="B44" s="17">
         <v>71</v>
       </c>
-      <c r="K44" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="35"/>
+      <c r="K44" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="34"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
@@ -4969,7 +4972,7 @@
         <v>72</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L45" s="14">
         <v>13</v>
@@ -4983,7 +4986,7 @@
         <v>73</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L46" s="14">
         <v>14</v>
@@ -4997,7 +5000,7 @@
         <v>74</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L47" s="14">
         <v>8</v>
@@ -5011,7 +5014,7 @@
         <v>75</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L48" s="14">
         <v>9</v>
@@ -5025,7 +5028,7 @@
         <v>76</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L49" s="14">
         <v>11</v>
@@ -5039,7 +5042,7 @@
         <v>77</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L50" s="14">
         <v>11</v>
@@ -5053,7 +5056,7 @@
         <v>78</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L51" s="14">
         <v>12</v>
@@ -5066,11 +5069,11 @@
       <c r="B52" s="17">
         <v>79</v>
       </c>
-      <c r="K52" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L52" s="30" t="s">
-        <v>28</v>
+      <c r="K52" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="29" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -5080,14 +5083,14 @@
       <c r="B53" s="17">
         <v>80</v>
       </c>
-      <c r="K53" s="33" t="s">
+      <c r="K53" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="L53" s="31" t="s">
-        <v>29</v>
-      </c>
       <c r="M53" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -5097,8 +5100,8 @@
       <c r="B54" s="17">
         <v>81</v>
       </c>
-      <c r="K54" s="46" t="s">
-        <v>48</v>
+      <c r="K54" s="45" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -5116,10 +5119,10 @@
       <c r="B56" s="17">
         <v>83</v>
       </c>
-      <c r="K56" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="L56" s="35"/>
+      <c r="K56" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="34"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
@@ -5128,14 +5131,14 @@
       <c r="B57" s="17">
         <v>84</v>
       </c>
-      <c r="K57" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="52" t="s">
-        <v>39</v>
+      <c r="K57" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="51" t="s">
+        <v>37</v>
       </c>
       <c r="M57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -5146,13 +5149,13 @@
         <v>85</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L58" s="75">
+        <v>17</v>
+      </c>
+      <c r="L58" s="68">
         <v>26</v>
       </c>
       <c r="M58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -5163,10 +5166,13 @@
         <v>86</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L59" s="14">
         <v>17</v>
+      </c>
+      <c r="M59" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -5177,13 +5183,13 @@
         <v>87</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" s="75">
+        <v>19</v>
+      </c>
+      <c r="L60" s="68">
         <v>14</v>
       </c>
       <c r="M60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -5194,13 +5200,13 @@
         <v>88</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" s="75">
+        <v>20</v>
+      </c>
+      <c r="L61" s="68">
         <v>15</v>
       </c>
       <c r="M61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -5211,13 +5217,13 @@
         <v>89</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L62" s="75">
+        <v>23</v>
+      </c>
+      <c r="L62" s="68">
         <v>14</v>
       </c>
       <c r="M62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -5228,13 +5234,13 @@
         <v>90</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L63" s="75">
+        <v>24</v>
+      </c>
+      <c r="L63" s="68">
         <v>15</v>
       </c>
       <c r="M63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -5244,11 +5250,11 @@
       <c r="B64" s="17">
         <v>91</v>
       </c>
-      <c r="K64" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L64" s="30" t="s">
-        <v>34</v>
+      <c r="K64" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" s="29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -5258,11 +5264,11 @@
       <c r="B65" s="17">
         <v>92</v>
       </c>
-      <c r="K65" s="33" t="s">
+      <c r="K65" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="30" t="s">
         <v>27</v>
-      </c>
-      <c r="L65" s="31" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -5272,8 +5278,8 @@
       <c r="B66" s="17">
         <v>93</v>
       </c>
-      <c r="K66" s="46" t="s">
-        <v>49</v>
+      <c r="K66" s="45" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -5299,35 +5305,35 @@
       <c r="B69" s="17">
         <v>96</v>
       </c>
-      <c r="K69" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="L69" s="60"/>
-      <c r="M69" s="60"/>
-      <c r="N69" s="60"/>
-      <c r="O69" s="60"/>
-      <c r="P69" s="61"/>
+      <c r="K69" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="54"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K70" s="62" t="s">
+      <c r="K70" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="L70" s="64">
+        <v>0.23760000000000001</v>
+      </c>
+      <c r="M70" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="L70" s="71">
-        <v>0.23760000000000001</v>
-      </c>
-      <c r="M70" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="14"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K71" s="72">
+      <c r="K71" s="65">
         <v>1E-4</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -5335,7 +5341,7 @@
       <c r="P71" s="14"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K72" s="62"/>
+      <c r="K72" s="55"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -5343,20 +5349,20 @@
       <c r="P72" s="14"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K73" s="62"/>
+      <c r="K73" s="55"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O73" s="71">
+        <v>45</v>
+      </c>
+      <c r="O73" s="64">
         <v>55</v>
       </c>
       <c r="P73" s="14"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K74" s="63" t="s">
-        <v>44</v>
+      <c r="K74" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="L74" s="12">
         <v>1000</v>
@@ -5367,29 +5373,29 @@
       <c r="P74" s="14"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K75" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="L75" s="64">
+      <c r="K75" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="L75" s="57">
         <f>LN($L74/$K71)/$L70</f>
         <v>67.837102908073732</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N75" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="O75" s="65">
+        <v>43</v>
+      </c>
+      <c r="N75" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="O75" s="58">
         <f>L75-O73</f>
         <v>12.837102908073732</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K76" s="63"/>
+      <c r="K76" s="56"/>
       <c r="L76" s="12"/>
       <c r="M76" s="5"/>
       <c r="N76" s="12"/>
@@ -5397,8 +5403,8 @@
       <c r="P76" s="14"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K77" s="63" t="s">
-        <v>44</v>
+      <c r="K77" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="L77" s="12">
         <v>3000</v>
@@ -5409,31 +5415,31 @@
       <c r="P77" s="14"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K78" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="L78" s="67">
+      <c r="K78" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="L78" s="60">
         <f>LN($L77/$K71)/$L70</f>
         <v>72.460892001794733</v>
       </c>
-      <c r="M78" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="N78" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="O78" s="69">
+      <c r="M78" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="N78" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="O78" s="62">
         <f>L78-O73</f>
         <v>17.460892001794733</v>
       </c>
-      <c r="P78" s="70" t="s">
-        <v>46</v>
+      <c r="P78" s="63" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L81" s="51"/>
-      <c r="M81" s="50"/>
-      <c r="O81" s="51"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="49"/>
+      <c r="O81" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5445,9 +5451,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K43" r:id="rId1" xr:uid="{D9FE3E3F-3B3D-4910-B8C8-90D16F1DEDB7}"/>
-    <hyperlink ref="K38" r:id="rId2" location="countries" xr:uid="{05359A71-443E-4E09-9D24-219893588AB0}"/>
-    <hyperlink ref="K37" r:id="rId3" location="section-0" xr:uid="{5341AA84-F072-4992-A3ED-A4DB86D58BA6}"/>
+    <hyperlink ref="K38" r:id="rId1" location="countries" xr:uid="{05359A71-443E-4E09-9D24-219893588AB0}"/>
+    <hyperlink ref="K37" r:id="rId2" location="section-0" xr:uid="{5341AA84-F072-4992-A3ED-A4DB86D58BA6}"/>
+    <hyperlink ref="K43" r:id="rId3" location="countries" xr:uid="{515FCB43-9788-417A-AF51-08C5BF469382}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId4"/>

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adevecseri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBA4B81-7DD8-45BA-926C-C0D64D75E95E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD558CF9-9ED2-4ADB-951A-9B9130746841}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EDAE8D6-3623-45A2-8BFA-E85B6F6E859E}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="12165" windowHeight="14025" xr2:uid="{7EDAE8D6-3623-45A2-8BFA-E85B6F6E859E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Days Since 1st Case</t>
   </si>
@@ -67,15 +67,6 @@
   </si>
   <si>
     <t>Trend Series</t>
-  </si>
-  <si>
-    <t>Test Increase</t>
-  </si>
-  <si>
-    <t>Cases per Test</t>
-  </si>
-  <si>
-    <t>8,514 / 60,761 =</t>
   </si>
   <si>
     <t>Italy has made 3.6x the tests, but has found 33x the positive cases compared to Ontario.</t>
@@ -123,12 +114,6 @@
     <t>~Days between ~50 cases/day to peak</t>
   </si>
   <si>
-    <t>hasn’t peaked</t>
-  </si>
-  <si>
-    <t>hasn't peaked</t>
-  </si>
-  <si>
     <t>11 days, peaked @ 851</t>
   </si>
   <si>
@@ -139,9 +124,6 @@
   </si>
   <si>
     <t>South Korea has made ~5200 tests/million, Ontario ~1140 tests/million.</t>
-  </si>
-  <si>
-    <t>Daily New Test Results</t>
   </si>
   <si>
     <t>~28</t>
@@ -180,12 +162,6 @@
     <t>hard to define because the peak is a big backlog spike and there was a slow start</t>
   </si>
   <si>
-    <t>April 2nd, in:</t>
-  </si>
-  <si>
-    <t>April 6th, in:</t>
-  </si>
-  <si>
     <t>Exponential equation from trendline (update daily)</t>
   </si>
   <si>
@@ -195,16 +171,35 @@
     <t>As of March 10, Italy reported 60761 total tests, finding 8514 positive:</t>
   </si>
   <si>
-    <t>Peaked at 1,365 daily cases</t>
+    <t>8514 / 60761 =</t>
+  </si>
+  <si>
+    <t>Tests +/-</t>
+  </si>
+  <si>
+    <t>Peaked at 6,577 daily cases</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Positive per Test</t>
+  </si>
+  <si>
+    <t>Daily New Tests</t>
+  </si>
+  <si>
+    <t>Trying to predict when Ontario will peak:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -282,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -545,9 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,14 +631,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -669,6 +659,39 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -742,7 +765,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1600" baseline="0"/>
-              <a:t>03/19/2020</a:t>
+              <a:t>03/23/2020</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" sz="2000" baseline="0"/>
@@ -833,14 +856,14 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -877,7 +900,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$69</c:f>
+              <c:f>Sheet1!$B$4:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -1087,7 +1110,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$69</c:f>
+              <c:f>Sheet1!$C$4:$C$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -1169,10 +1192,19 @@
                 <c:pt idx="25">
                   <c:v>60</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9ABE-453D-90F4-BD091619B5BE}"/>
@@ -1211,173 +1243,209 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$B$69</c:f>
+              <c:f>Sheet1!$B$4:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="13">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="16">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="20">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="23">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="24">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="26">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="27">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="29">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="30">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="31">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="32">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="33">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="34">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="35">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="36">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="37">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="38">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="39">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="40">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="41">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="42">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="43">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="44">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="45">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="46">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="47">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="48">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="49">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="50">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="51">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="52">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="53">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="54">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="55">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="56">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="57">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="58">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="59">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="60">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="61">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="62">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="63">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="64">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="65">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="66">
                   <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
@@ -1385,10 +1453,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$15:$E$69</c:f>
+              <c:f>Sheet1!$E$4:$E$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="67"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1420,21 +1488,66 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DA02-4DE1-8CAE-C0FEDE2A2A7A}"/>
@@ -1495,36 +1608,6 @@
                   <c:y val="-1.4028249225186433E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000" b="1" baseline="0"/>
-                      <a:t>y = 0.0001e</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1000" b="1" baseline="30000"/>
-                      <a:t>0.2376x</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1000" b="1"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1557,10 +1640,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$B$36</c:f>
+              <c:f>Sheet1!$B$19:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>45</c:v>
                 </c:pt>
@@ -1617,16 +1700,115 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$27</c:f>
+              <c:f>Sheet1!$D$19:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1656,11 +1838,20 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-9ABE-453D-90F4-BD091619B5BE}"/>
@@ -1679,7 +1870,7 @@
         <c:axId val="1674530703"/>
       </c:scatterChart>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
@@ -1715,7 +1906,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$69</c:f>
+              <c:f>Sheet1!$B$27:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -1856,7 +2047,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$26:$G$69</c:f>
+              <c:f>Sheet1!$G$27:$G$70</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="44"/>
@@ -1869,10 +2060,19 @@
                 <c:pt idx="2">
                   <c:v>2861</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2086</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F9E-4CA3-B26E-7E17F3938924}"/>
@@ -1887,15 +2087,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2040378176"/>
-        <c:axId val="2040377760"/>
+        <c:axId val="5509216"/>
+        <c:axId val="5516288"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1677644591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="57"/>
-          <c:min val="34"/>
+          <c:max val="62"/>
+          <c:min val="38"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2021,7 +2221,7 @@
         <c:axId val="1674530703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="70.099999999999994"/>
+          <c:max val="100.1"/>
           <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2146,21 +2346,21 @@
         <c:crossAx val="1677644591"/>
         <c:crossesAt val="10000"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2040377760"/>
+        <c:axId val="5516288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2980"/>
-          <c:min val="2700"/>
+          <c:max val="5900"/>
+          <c:min val="1900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2187,8 +2387,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.95173024165086195"/>
-              <c:y val="0.46217642309595536"/>
+              <c:x val="0.95532288212441396"/>
+              <c:y val="0.46412011340976089"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2200,7 +2400,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2257,13 +2457,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040378176"/>
+        <c:crossAx val="5509216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="50"/>
+        <c:majorUnit val="400"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2040378176"/>
+        <c:axId val="5509216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2273,7 +2473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2040377760"/>
+        <c:crossAx val="5516288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2921,15 +3121,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>453</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>8504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>179954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2982,8 +3182,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="5011080"/>
-          <a:ext cx="1190489" cy="518481"/>
+          <a:off x="0" y="5179847"/>
+          <a:ext cx="1241235" cy="535943"/>
           <a:chOff x="-98425" y="0"/>
           <a:chExt cx="920752" cy="533400"/>
         </a:xfrm>
@@ -3078,7 +3278,7 @@
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
               <a:rPr lang="en-CA" sz="1100"/>
-              <a:t>28-Feb-2020</a:t>
+              <a:t>03-Mar-2020</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -3125,12 +3325,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.22063</cdr:x>
-      <cdr:y>0.86566</cdr:y>
+      <cdr:x>0.21243</cdr:x>
+      <cdr:y>0.8688</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.38438</cdr:x>
-      <cdr:y>0.9554</cdr:y>
+      <cdr:x>0.37618</cdr:x>
+      <cdr:y>0.95854</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
@@ -3145,8 +3345,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1709121" y="5001431"/>
-          <a:ext cx="1268497" cy="518481"/>
+          <a:off x="1715766" y="5188627"/>
+          <a:ext cx="1322568" cy="535943"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3241,7 +3441,7 @@
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
               <a:rPr lang="en-CA" sz="1100"/>
-              <a:t>05-Mar-2020</a:t>
+              <a:t>09-Mar-2020</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -3288,11 +3488,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.44067</cdr:x>
+      <cdr:x>0.42193</cdr:x>
       <cdr:y>0.86892</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.60442</cdr:x>
+      <cdr:x>0.58568</cdr:x>
       <cdr:y>0.95867</cdr:y>
     </cdr:to>
     <cdr:grpSp>
@@ -3308,8 +3508,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3413671" y="5020266"/>
-          <a:ext cx="1268498" cy="518539"/>
+          <a:off x="3407850" y="5189342"/>
+          <a:ext cx="1322569" cy="536003"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3404,7 +3604,7 @@
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
               <a:rPr lang="en-CA" sz="1100"/>
-              <a:t>11-Mar-2020</a:t>
+              <a:t>15-Mar-2020</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -3451,175 +3651,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.55744</cdr:x>
-      <cdr:y>0.86946</cdr:y>
+      <cdr:x>0.73076</cdr:x>
+      <cdr:y>0.86856</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.71838</cdr:x>
-      <cdr:y>0.93312</cdr:y>
-    </cdr:to>
-    <cdr:grpSp>
-      <cdr:nvGrpSpPr>
-        <cdr:cNvPr id="16" name="Group 15">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EB03B8-0ADB-463B-A6A7-693E7F7998A4}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvGrpSpPr/>
-      </cdr:nvGrpSpPr>
-      <cdr:grpSpPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4318236" y="5023386"/>
-          <a:ext cx="1246729" cy="367802"/>
-          <a:chOff x="35129" y="0"/>
-          <a:chExt cx="964227" cy="378371"/>
-        </a:xfrm>
-      </cdr:grpSpPr>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="17" name="TextBox 2">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F05131-A94D-49DA-B8A9-4008AFAB07CA}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvSpPr txBox="1"/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="35129" y="27686"/>
-            <a:ext cx="964227" cy="350685"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </cdr:spPr>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-CA" sz="1100"/>
-              <a:t>100th Case</a:t>
-            </a:r>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-CA" sz="1100"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:cxnSp macro="">
-        <cdr:nvCxnSpPr>
-          <cdr:cNvPr id="18" name="Straight Connector 17">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48F4FC7-383A-411F-AA02-B6BECECA2D87}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvCxnSpPr/>
-        </cdr:nvCxnSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="349493" y="0"/>
-            <a:ext cx="3122" cy="98438"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </cdr:style>
-      </cdr:cxnSp>
-    </cdr:grpSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.79751</cdr:x>
-      <cdr:y>0.8717</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.9207</cdr:x>
-      <cdr:y>0.96345</cdr:y>
+      <cdr:x>0.85395</cdr:x>
+      <cdr:y>0.96031</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
@@ -3634,8 +3671,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6177949" y="5036328"/>
-          <a:ext cx="954298" cy="530094"/>
+          <a:off x="5902175" y="5187191"/>
+          <a:ext cx="994976" cy="547947"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
         </a:xfrm>
@@ -4075,104 +4112,107 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:XFB81"/>
+  <dimension ref="A1:XFB82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P66" sqref="P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="16" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="17" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="18"/>
+    <col min="3" max="3" width="10.140625" style="18" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="18"/>
     <col min="6" max="6" width="8.7109375" style="19" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="18" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="27" customWidth="1"/>
     <col min="10" max="10" width="5.85546875" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" customWidth="1"/>
     <col min="14" max="14" width="18.5703125" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
     <col min="19" max="19" width="18.42578125" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="5"/>
+      <c r="A1" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="87">
+        <f ca="1">TODAY()-43855</f>
+        <v>58</v>
+      </c>
+      <c r="C1" s="85">
+        <f ca="1">TODAY()</f>
+        <v>43913</v>
+      </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="13"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:20" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="82"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:20" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="G3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>43885</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B4" s="17">
         <v>30</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C4" s="18">
         <v>0</v>
       </c>
-      <c r="D3" s="18">
-        <f>C3</f>
+      <c r="D4" s="18">
+        <f>C4</f>
         <v>0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
-        <v>43886</v>
-      </c>
-      <c r="B4" s="17">
-        <v>31</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18">
-        <f t="shared" ref="D4:D25" si="0">C4</f>
-        <v>1</v>
       </c>
       <c r="E4" s="18">
         <v>0</v>
@@ -4180,31 +4220,28 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
-        <v>43887</v>
+        <v>43886</v>
       </c>
       <c r="B5" s="17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="18">
         <v>1</v>
       </c>
       <c r="D5" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D26" si="0">C5</f>
         <v>1</v>
       </c>
       <c r="E5" s="18">
         <v>0</v>
       </c>
-      <c r="T5" s="71" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="B6" s="17">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="18">
         <v>1</v>
@@ -4216,13 +4253,16 @@
       <c r="E6" s="18">
         <v>0</v>
       </c>
+      <c r="T6" s="66" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="B7" s="17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="18">
         <v>1</v>
@@ -4237,17 +4277,17 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <v>43890</v>
+        <v>43889</v>
       </c>
       <c r="B8" s="17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="18">
         <v>0</v>
@@ -4255,55 +4295,55 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
-        <v>43891</v>
+        <v>43890</v>
       </c>
       <c r="B9" s="17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="18">
         <v>0</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
-        <v>43892</v>
+        <v>43891</v>
       </c>
       <c r="B10" s="17">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="18">
         <v>0</v>
       </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="B11" s="17">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="18">
         <v>0</v>
@@ -4311,10 +4351,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="B12" s="17">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="18">
         <v>2</v>
@@ -4329,17 +4369,17 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="B13" s="17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="18">
         <v>0</v>
@@ -4347,17 +4387,17 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="B14" s="17">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="18">
         <v>0</v>
@@ -4365,10 +4405,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="B15" s="17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="18">
         <v>2</v>
@@ -4383,28 +4423,28 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="B16" s="17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B17" s="17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="18">
         <v>4</v>
@@ -4417,952 +4457,1060 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="B18" s="17">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B19" s="17">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B20" s="17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="18">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E20" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B21" s="17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B22" s="17">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="18">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E22" s="18">
         <v>0</v>
       </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B23" s="17">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="18">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D23" s="18">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E23" s="18">
         <v>0</v>
       </c>
-      <c r="S23" s="6"/>
+      <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B24" s="17">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="18">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D24" s="18">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E24" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+      <c r="S24" s="6"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B25" s="17">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="18">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>43907</v>
+      </c>
+      <c r="B26" s="17">
+        <v>52</v>
+      </c>
+      <c r="C26" s="18">
         <v>12</v>
       </c>
-      <c r="E25" s="18">
+      <c r="D26" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E26" s="18">
         <v>1</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F26" s="19">
         <v>11167</v>
       </c>
     </row>
-    <row r="26" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
         <v>43908</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B27" s="17">
         <v>53</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C27" s="18">
         <v>25</v>
       </c>
-      <c r="D26" s="18">
-        <f>C26</f>
+      <c r="D27" s="18">
+        <f>C27</f>
         <v>25</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E27" s="18">
         <v>0</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F27" s="19">
         <v>13897</v>
-      </c>
-      <c r="G26" s="19">
-        <f>F26-F25</f>
-        <v>2730</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="28">
-        <f>D26/G26</f>
-        <v>9.1575091575091579E-3</v>
-      </c>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
-        <v>43909</v>
-      </c>
-      <c r="B27" s="17">
-        <v>54</v>
-      </c>
-      <c r="C27" s="18">
-        <v>44</v>
-      </c>
-      <c r="D27" s="18">
-        <f t="shared" ref="D27:D28" si="1">C27</f>
-        <v>44</v>
-      </c>
-      <c r="E27" s="18">
-        <v>1</v>
-      </c>
-      <c r="F27" s="19">
-        <v>16650</v>
       </c>
       <c r="G27" s="19">
         <f>F27-F26</f>
+        <v>2730</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="27">
+        <f>D27/G27</f>
+        <v>9.1575091575091579E-3</v>
+      </c>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>43909</v>
+      </c>
+      <c r="B28" s="17">
+        <v>54</v>
+      </c>
+      <c r="C28" s="18">
+        <v>44</v>
+      </c>
+      <c r="D28" s="18">
+        <f t="shared" ref="D28:D32" si="1">C28</f>
+        <v>44</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="19">
+        <v>16650</v>
+      </c>
+      <c r="G28" s="19">
+        <f>F28-F27</f>
         <v>2753</v>
       </c>
-      <c r="H27" s="15">
-        <f>G27-G26</f>
+      <c r="H28" s="15">
+        <f>G28-G27</f>
         <v>23</v>
       </c>
-      <c r="I27" s="28">
-        <f>D27/G27</f>
+      <c r="I28" s="27">
+        <f>D28/G28</f>
         <v>1.5982564475118054E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
         <v>43910</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B29" s="17">
         <v>55</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C29" s="18">
         <v>60</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D29" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E29" s="18">
         <v>0</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F29" s="19">
         <v>19511</v>
       </c>
-      <c r="G28" s="19">
-        <f>F28-F27</f>
+      <c r="G29" s="19">
+        <f>F29-F28</f>
         <v>2861</v>
       </c>
-      <c r="H28" s="15">
-        <f>G28-G27</f>
+      <c r="H29" s="15">
+        <f>G29-G28</f>
         <v>108</v>
       </c>
-      <c r="I28" s="28">
-        <f>D28/G28</f>
+      <c r="I29" s="27">
+        <f>D29/G29</f>
         <v>2.0971688220901782E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
         <v>43911</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B30" s="17">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:20 16382:16382" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="C30" s="18">
+        <v>59</v>
+      </c>
+      <c r="D30" s="18">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="19">
+        <v>23384</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" ref="G30:H32" si="2">F30-F29</f>
+        <v>3873</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="2"/>
+        <v>1012</v>
+      </c>
+      <c r="I30" s="27">
+        <f t="shared" ref="I30:I32" si="3">D30/G30</f>
+        <v>1.5233668990446682E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
         <v>43912</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B31" s="17">
         <v>57</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="25" t="str">
+      <c r="C31" s="18">
+        <v>48</v>
+      </c>
+      <c r="D31" s="18">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="E31" s="18">
+        <v>2</v>
+      </c>
+      <c r="F31" s="19">
+        <v>26420</v>
+      </c>
+      <c r="G31" s="19">
+        <f t="shared" si="2"/>
+        <v>3036</v>
+      </c>
+      <c r="H31" s="15">
+        <f t="shared" si="2"/>
+        <v>-837</v>
+      </c>
+      <c r="I31" s="27">
+        <f t="shared" si="3"/>
+        <v>1.5810276679841896E-2</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="24" t="str">
         <f ca="1">"Tests as of" &amp;  TEXT(TODAY()," mm-dd-yyyy")</f>
-        <v>Tests as of 03-20-2020</v>
-      </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-    </row>
-    <row r="31" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+        <v>Tests as of 03-23-2020</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
         <v>43913</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B32" s="17">
         <v>58</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="C32" s="18">
+        <v>78</v>
+      </c>
+      <c r="D32" s="18">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1</v>
+      </c>
+      <c r="F32" s="19">
+        <v>28506</v>
+      </c>
+      <c r="G32" s="19">
+        <f t="shared" si="2"/>
+        <v>2086</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="2"/>
+        <v>-950</v>
+      </c>
+      <c r="I32" s="27">
+        <f t="shared" si="3"/>
+        <v>3.7392138063279005E-2</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="69">
-        <v>13718</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-    </row>
-    <row r="32" spans="1:20 16382:16382" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="L32" s="64">
+        <v>19586</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+    </row>
+    <row r="33" spans="1:20 16382:16382" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
         <v>43914</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B33" s="17">
         <v>59</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="69">
-        <v>5475</v>
-      </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="O32" s="36">
+      <c r="L33" s="64">
+        <v>8417</v>
+      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" s="35">
         <f>8514/60761</f>
         <v>0.14012277612284196</v>
       </c>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="XFB32">
-        <f>SUM(B32:XFA32)</f>
-        <v>5534.1401227761226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="XFB33">
+        <f>SUM(B33:XFA33)</f>
+        <v>8476.1401227761235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
         <v>43915</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B34" s="17">
         <v>60</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="70">
-        <v>311</v>
-      </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="76" t="str">
-        <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;L36&amp;" total tests, finding "&amp;(L33+L34+L35)&amp;" positive:"</f>
-        <v>As of March 20, Ontario reported 19511 total tests, finding 318 positive:</v>
-      </c>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="L34" s="65">
+        <v>489</v>
+      </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="71" t="str">
+        <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;L37&amp;" total tests, finding "&amp;(L34+L35+L36)&amp;" positive:"</f>
+        <v>As of March 23, Ontario reported 28506 total tests, finding 503 positive:</v>
+      </c>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+    </row>
+    <row r="35" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
         <v>43916</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B35" s="17">
         <v>61</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="69">
-        <v>5</v>
-      </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="77"/>
-    </row>
-    <row r="35" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="L35" s="64">
+        <v>8</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+    </row>
+    <row r="36" spans="1:20 16382:16382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
         <v>43917</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B36" s="17">
         <v>62</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="3">
-        <f>SUM(E3:E69)</f>
-        <v>2</v>
-      </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="38" t="str">
-        <f>(L33+L34+L35)&amp;" / "&amp;L36&amp;" ="</f>
-        <v>318 / 19511 =</v>
-      </c>
-      <c r="O35" s="39">
-        <f>($L33+$L34+$L35)/(L36)</f>
-        <v>1.6298498283019835E-2</v>
-      </c>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="L36" s="3">
+        <f>SUM(E4:E70)</f>
+        <v>6</v>
+      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="37" t="str">
+        <f>(L34+L35+L36)&amp;" / "&amp;L37&amp;" ="</f>
+        <v>503 / 28506 =</v>
+      </c>
+      <c r="O36" s="38">
+        <f>($L34+$L35+$L36)/(L37)</f>
+        <v>1.764540798428401E-2</v>
+      </c>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+    </row>
+    <row r="37" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
         <v>43918</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B37" s="17">
         <v>63</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L36" s="3">
-        <f>MAX(F3:F69)</f>
-        <v>19511</v>
-      </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-    </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+      <c r="L37" s="3">
+        <f>MAX(F4:F70)</f>
+        <v>28506</v>
+      </c>
+      <c r="M37" s="8"/>
+      <c r="N37" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+    </row>
+    <row r="38" spans="1:20 16382:16382" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
         <v>43919</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B38" s="17">
         <v>64</v>
       </c>
-      <c r="K37" s="48" t="s">
+      <c r="K38" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="M38" s="8"/>
+      <c r="N38" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+    </row>
+    <row r="39" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
         <v>43920</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B39" s="17">
         <v>65</v>
       </c>
-      <c r="K38" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
-        <v>43921</v>
-      </c>
-      <c r="B39" s="17">
-        <v>66</v>
-      </c>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="K39" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="73"/>
       <c r="O39" s="74"/>
       <c r="P39" s="74"/>
       <c r="Q39" s="74"/>
       <c r="R39" s="74"/>
-    </row>
-    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S39" s="76">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
+        <v>43921</v>
+      </c>
+      <c r="B40" s="17">
+        <v>66</v>
+      </c>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="69"/>
+      <c r="S40">
+        <v>6568</v>
+      </c>
+      <c r="T40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20 16382:16382" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
         <v>43922</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B41" s="17">
         <v>67</v>
       </c>
-      <c r="K40" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="K41" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="75">
+        <f>26420/14.57</f>
+        <v>1813.3150308853808</v>
+      </c>
+      <c r="T41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
         <v>43923</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B42" s="17">
         <v>68</v>
       </c>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="70"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+    </row>
+    <row r="43" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
         <v>43924</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B43" s="17">
         <v>69</v>
       </c>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+    </row>
+    <row r="44" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
         <v>43925</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B44" s="17">
         <v>70</v>
       </c>
-      <c r="K43" s="47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="K44" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
         <v>43926</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B45" s="17">
         <v>71</v>
       </c>
-      <c r="K44" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" s="34"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="K45" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="33"/>
+    </row>
+    <row r="46" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
         <v>43927</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B46" s="17">
         <v>72</v>
       </c>
-      <c r="K45" s="18" t="s">
+      <c r="K46" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>43928</v>
+      </c>
+      <c r="B47" s="17">
+        <v>73</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>43929</v>
+      </c>
+      <c r="B48" s="17">
+        <v>74</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>43930</v>
+      </c>
+      <c r="B49" s="17">
+        <v>75</v>
+      </c>
+      <c r="K49" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L45" s="14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
-        <v>43928</v>
-      </c>
-      <c r="B46" s="17">
-        <v>73</v>
-      </c>
-      <c r="K46" s="18" t="s">
+      <c r="L49" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>43931</v>
+      </c>
+      <c r="B50" s="17">
+        <v>76</v>
+      </c>
+      <c r="K50" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="L46" s="14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
-        <v>43929</v>
-      </c>
-      <c r="B47" s="17">
-        <v>74</v>
-      </c>
-      <c r="K47" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
-        <v>43930</v>
-      </c>
-      <c r="B48" s="17">
-        <v>75</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L48" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
-        <v>43931</v>
-      </c>
-      <c r="B49" s="17">
-        <v>76</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
-        <v>43932</v>
-      </c>
-      <c r="B50" s="17">
-        <v>77</v>
-      </c>
-      <c r="K50" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="L50" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
+        <v>43932</v>
+      </c>
+      <c r="B51" s="17">
+        <v>77</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
         <v>43933</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B52" s="17">
         <v>78</v>
       </c>
-      <c r="K51" s="18" t="s">
+      <c r="K52" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>43934</v>
+      </c>
+      <c r="B53" s="17">
+        <v>79</v>
+      </c>
+      <c r="K53" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>43935</v>
+      </c>
+      <c r="B54" s="17">
+        <v>80</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L51" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
-        <v>43934</v>
-      </c>
-      <c r="B52" s="17">
-        <v>79</v>
-      </c>
-      <c r="K52" s="31" t="s">
+      <c r="M54" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="29" t="s">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>43936</v>
+      </c>
+      <c r="B55" s="17">
+        <v>81</v>
+      </c>
+      <c r="K55" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>43937</v>
+      </c>
+      <c r="B56" s="17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <v>43938</v>
+      </c>
+      <c r="B57" s="17">
+        <v>83</v>
+      </c>
+      <c r="K57" s="32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
-        <v>43935</v>
-      </c>
-      <c r="B53" s="17">
-        <v>80</v>
-      </c>
-      <c r="K53" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="L53" s="30" t="s">
+      <c r="L57" s="33"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>43939</v>
+      </c>
+      <c r="B58" s="17">
+        <v>84</v>
+      </c>
+      <c r="K58" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <v>43940</v>
+      </c>
+      <c r="B59" s="17">
+        <v>85</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="63">
         <v>27</v>
       </c>
-      <c r="M53" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
-        <v>43936</v>
-      </c>
-      <c r="B54" s="17">
-        <v>81</v>
-      </c>
-      <c r="K54" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
-        <v>43937</v>
-      </c>
-      <c r="B55" s="17">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
-        <v>43938</v>
-      </c>
-      <c r="B56" s="17">
-        <v>83</v>
-      </c>
-      <c r="K56" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L56" s="34"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
-        <v>43939</v>
-      </c>
-      <c r="B57" s="17">
-        <v>84</v>
-      </c>
-      <c r="K57" s="43" t="s">
+      <c r="M59" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="N59" s="90"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>43941</v>
+      </c>
+      <c r="B60" s="17">
+        <v>86</v>
+      </c>
+      <c r="K60" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" s="63">
+        <v>17</v>
+      </c>
+      <c r="M60" s="91">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <v>43942</v>
+      </c>
+      <c r="B61" s="17">
+        <v>87</v>
+      </c>
+      <c r="K61" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L57" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="M57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
-        <v>43940</v>
-      </c>
-      <c r="B58" s="17">
-        <v>85</v>
-      </c>
-      <c r="K58" s="18" t="s">
+      <c r="L61" s="63">
+        <v>16</v>
+      </c>
+      <c r="M61" s="91">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>43943</v>
+      </c>
+      <c r="B62" s="17">
+        <v>88</v>
+      </c>
+      <c r="K62" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L58" s="68">
-        <v>26</v>
-      </c>
-      <c r="M58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
-        <v>43941</v>
-      </c>
-      <c r="B59" s="17">
-        <v>86</v>
-      </c>
-      <c r="K59" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" s="14">
+      <c r="L62" s="63">
+        <v>16</v>
+      </c>
+      <c r="M62" s="91">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>43944</v>
+      </c>
+      <c r="B63" s="17">
+        <v>89</v>
+      </c>
+      <c r="K63" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="63">
         <v>17</v>
       </c>
-      <c r="M59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
-        <v>43942</v>
-      </c>
-      <c r="B60" s="17">
-        <v>87</v>
-      </c>
-      <c r="K60" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L60" s="68">
-        <v>14</v>
-      </c>
-      <c r="M60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="16">
-        <v>43943</v>
-      </c>
-      <c r="B61" s="17">
-        <v>88</v>
-      </c>
-      <c r="K61" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L61" s="68">
-        <v>15</v>
-      </c>
-      <c r="M61" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
-        <v>43944</v>
-      </c>
-      <c r="B62" s="17">
-        <v>89</v>
-      </c>
-      <c r="K62" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L62" s="68">
-        <v>14</v>
-      </c>
-      <c r="M62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="16">
+      <c r="M63" s="91">
+        <v>9399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
         <v>43945</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B64" s="17">
         <v>90</v>
       </c>
-      <c r="K63" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L63" s="68">
-        <v>15</v>
-      </c>
-      <c r="M63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
-        <v>43946</v>
-      </c>
-      <c r="B64" s="17">
-        <v>91</v>
-      </c>
-      <c r="K64" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="L64" s="29" t="s">
-        <v>32</v>
+      <c r="K64" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="63">
+        <v>17</v>
+      </c>
+      <c r="M64" s="91">
+        <v>1861</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B65" s="17">
-        <v>92</v>
-      </c>
-      <c r="K65" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="L65" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B66" s="17">
-        <v>93</v>
-      </c>
-      <c r="K66" s="45" t="s">
-        <v>47</v>
+        <v>92</v>
+      </c>
+      <c r="K66" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="29" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B67" s="17">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="K67" s="44" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B68" s="17">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
+        <v>43950</v>
+      </c>
+      <c r="B69" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
         <v>43951</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B70" s="17">
         <v>96</v>
       </c>
-      <c r="K69" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="54"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K70" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="L70" s="64">
-        <v>0.23760000000000001</v>
-      </c>
-      <c r="M70" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="14"/>
+      <c r="K70" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="52"/>
+      <c r="P70" s="53"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K71" s="65">
-        <v>1E-4</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M71" s="5"/>
+      <c r="K71" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="L71" s="79">
+        <v>0.20630000000000001</v>
+      </c>
+      <c r="M71" s="80" t="s">
+        <v>34</v>
+      </c>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="14"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K72" s="55"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
+      <c r="K72" s="81">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="L72" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="M72" s="80"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="14"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K73" s="55"/>
+      <c r="K73" s="54" t="s">
+        <v>52</v>
+      </c>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="O73" s="64">
-        <v>55</v>
-      </c>
-      <c r="P73" s="14"/>
+      <c r="N73" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="O73" s="84">
+        <f ca="1">TODAY()-43855</f>
+        <v>58</v>
+      </c>
+      <c r="P73" s="83">
+        <f ca="1">TODAY()</f>
+        <v>43913</v>
+      </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K74" s="56" t="s">
-        <v>42</v>
+      <c r="K74" s="55" t="s">
+        <v>36</v>
       </c>
       <c r="L74" s="12">
         <v>1000</v>
@@ -5373,38 +5521,38 @@
       <c r="P74" s="14"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K75" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="L75" s="57">
-        <f>LN($L74/$K71)/$L70</f>
-        <v>67.837102908073732</v>
+      <c r="K75" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="L75" s="56">
+        <f>LN($L74/$K72)/$L71</f>
+        <v>69.444188956520904</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N75" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="O75" s="58">
-        <f>L75-O73</f>
-        <v>12.837102908073732</v>
+        <v>37</v>
+      </c>
+      <c r="N75" s="88">
+        <f ca="1">TODAY()+O75</f>
+        <v>43924.444188956521</v>
+      </c>
+      <c r="O75" s="57">
+        <f ca="1">L75-O73</f>
+        <v>11.444188956520904</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K76" s="56"/>
+      <c r="K76" s="55"/>
       <c r="L76" s="12"/>
       <c r="M76" s="5"/>
-      <c r="N76" s="12"/>
       <c r="O76" s="5"/>
       <c r="P76" s="14"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K77" s="56" t="s">
-        <v>42</v>
+      <c r="K77" s="55" t="s">
+        <v>36</v>
       </c>
       <c r="L77" s="12">
         <v>3000</v>
@@ -5415,45 +5563,54 @@
       <c r="P77" s="14"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K78" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="L78" s="60">
-        <f>LN($L77/$K71)/$L70</f>
-        <v>72.460892001794733</v>
-      </c>
-      <c r="M78" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="N78" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="O78" s="62">
-        <f>L78-O73</f>
-        <v>17.460892001794733</v>
-      </c>
-      <c r="P78" s="63" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L81" s="50"/>
-      <c r="M81" s="49"/>
-      <c r="O81" s="50"/>
+      <c r="K78" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="L78" s="56">
+        <f>LN($L77/$K72)/$L71</f>
+        <v>74.769503007263083</v>
+      </c>
+      <c r="M78" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N78" s="88">
+        <f ca="1">TODAY()+O78</f>
+        <v>43929.769503007265</v>
+      </c>
+      <c r="O78" s="57">
+        <f ca="1">L78-O73</f>
+        <v>16.769503007263083</v>
+      </c>
+      <c r="P78" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K79" s="58"/>
+      <c r="L79" s="59"/>
+      <c r="M79" s="60"/>
+      <c r="N79" s="89"/>
+      <c r="O79" s="61"/>
+      <c r="P79" s="62"/>
+    </row>
+    <row r="82" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L82" s="49"/>
+      <c r="M82" s="48"/>
+      <c r="O82" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="K40:O41"/>
-    <mergeCell ref="N30:R31"/>
-    <mergeCell ref="N33:R34"/>
-    <mergeCell ref="N37:R38"/>
+    <mergeCell ref="N40:R40"/>
+    <mergeCell ref="K41:O42"/>
+    <mergeCell ref="N31:R32"/>
+    <mergeCell ref="N34:R35"/>
+    <mergeCell ref="N38:R39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K38" r:id="rId1" location="countries" xr:uid="{05359A71-443E-4E09-9D24-219893588AB0}"/>
-    <hyperlink ref="K37" r:id="rId2" location="section-0" xr:uid="{5341AA84-F072-4992-A3ED-A4DB86D58BA6}"/>
-    <hyperlink ref="K43" r:id="rId3" location="countries" xr:uid="{515FCB43-9788-417A-AF51-08C5BF469382}"/>
+    <hyperlink ref="K39" r:id="rId1" location="countries" xr:uid="{05359A71-443E-4E09-9D24-219893588AB0}"/>
+    <hyperlink ref="K38" r:id="rId2" location="section-0" xr:uid="{5341AA84-F072-4992-A3ED-A4DB86D58BA6}"/>
+    <hyperlink ref="K44" r:id="rId3" location="countries" xr:uid="{515FCB43-9788-417A-AF51-08C5BF469382}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId4"/>

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adevecseri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD558CF9-9ED2-4ADB-951A-9B9130746841}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49C3819-E66D-4374-B36C-BA2DACA65F39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="12165" windowHeight="14025" xr2:uid="{7EDAE8D6-3623-45A2-8BFA-E85B6F6E859E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EDAE8D6-3623-45A2-8BFA-E85B6F6E859E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -641,6 +641,39 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -659,39 +692,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -765,7 +765,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1600" baseline="0"/>
-              <a:t>03/23/2020</a:t>
+              <a:t>03/24/2020</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" sz="2000" baseline="0"/>
@@ -1201,6 +1201,9 @@
                 <c:pt idx="28">
                   <c:v>78</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>85</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1542,6 +1545,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1805,10 +1811,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$19:$D$31</c:f>
+              <c:f>Sheet1!$D$19:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1847,6 +1853,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,7 +1890,9 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="76000"/>
+                </a:srgbClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2068,6 +2079,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2221,7 +2235,7 @@
         <c:axId val="1674530703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.1"/>
+          <c:max val="120.1"/>
           <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2352,15 +2366,15 @@
         <c:axId val="5516288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5900"/>
-          <c:min val="1900"/>
+          <c:max val="7000"/>
+          <c:min val="1800"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2400,7 +2414,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3345,8 +3359,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1715766" y="5188627"/>
-          <a:ext cx="1322568" cy="535943"/>
+          <a:off x="1715744" y="5188626"/>
+          <a:ext cx="1322567" cy="535943"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3508,8 +3522,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3407850" y="5189342"/>
-          <a:ext cx="1322569" cy="536003"/>
+          <a:off x="3407822" y="5189342"/>
+          <a:ext cx="1322568" cy="536003"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3651,12 +3665,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.73076</cdr:x>
-      <cdr:y>0.86856</cdr:y>
+      <cdr:x>0.76496</cdr:x>
+      <cdr:y>0.87015</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.85395</cdr:x>
-      <cdr:y>0.96031</cdr:y>
+      <cdr:x>0.88815</cdr:x>
+      <cdr:y>0.9619</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
@@ -3671,8 +3685,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5902175" y="5187191"/>
-          <a:ext cx="994976" cy="547947"/>
+          <a:off x="6178389" y="5196717"/>
+          <a:ext cx="994975" cy="547947"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
         </a:xfrm>
@@ -4114,8 +4128,8 @@
   </sheetPr>
   <dimension ref="A1:XFB82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P66" sqref="P66"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4141,16 +4155,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="87">
+      <c r="B1" s="81">
         <f ca="1">TODAY()-43855</f>
-        <v>58</v>
-      </c>
-      <c r="C1" s="85">
+        <v>59</v>
+      </c>
+      <c r="C1" s="79">
         <f ca="1">TODAY()</f>
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -4160,9 +4174,9 @@
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="83"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="13"/>
@@ -4180,7 +4194,7 @@
       <c r="C3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="71" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="67" t="s">
@@ -4668,7 +4682,7 @@
         <v>44</v>
       </c>
       <c r="D28" s="18">
-        <f t="shared" ref="D28:D32" si="1">C28</f>
+        <f t="shared" ref="D28:D33" si="1">C28</f>
         <v>44</v>
       </c>
       <c r="E28" s="18">
@@ -4744,7 +4758,7 @@
         <v>23384</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" ref="G30:H32" si="2">F30-F29</f>
+        <f t="shared" ref="G30:H33" si="2">F30-F29</f>
         <v>3873</v>
       </c>
       <c r="H30" s="15">
@@ -4752,7 +4766,7 @@
         <v>1012</v>
       </c>
       <c r="I30" s="27">
-        <f t="shared" ref="I30:I32" si="3">D30/G30</f>
+        <f t="shared" ref="I30:I33" si="3">D30/G30</f>
         <v>1.5233668990446682E-2</v>
       </c>
     </row>
@@ -4791,16 +4805,16 @@
       <c r="K31" s="9"/>
       <c r="L31" s="24" t="str">
         <f ca="1">"Tests as of" &amp;  TEXT(TODAY()," mm-dd-yyyy")</f>
-        <v>Tests as of 03-23-2020</v>
+        <v>Tests as of 03-24-2020</v>
       </c>
       <c r="M31" s="8"/>
-      <c r="N31" s="71" t="s">
+      <c r="N31" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="89"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
@@ -4838,14 +4852,14 @@
         <v>6</v>
       </c>
       <c r="L32" s="64">
-        <v>19586</v>
+        <v>21795</v>
       </c>
       <c r="M32" s="8"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
     </row>
     <row r="33" spans="1:20 16382:16382" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
@@ -4854,11 +4868,36 @@
       <c r="B33" s="17">
         <v>59</v>
       </c>
+      <c r="C33" s="18">
+        <v>85</v>
+      </c>
+      <c r="D33" s="18">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="E33" s="18">
+        <v>1</v>
+      </c>
+      <c r="F33" s="19">
+        <v>32457</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" si="2"/>
+        <v>3951</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="2"/>
+        <v>1865</v>
+      </c>
+      <c r="I33" s="27">
+        <f t="shared" si="3"/>
+        <v>2.1513540875727665E-2</v>
+      </c>
       <c r="K33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L33" s="64">
-        <v>8417</v>
+        <v>10074</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="34" t="s">
@@ -4873,7 +4912,7 @@
       <c r="R33" s="36"/>
       <c r="XFB33">
         <f>SUM(B33:XFA33)</f>
-        <v>8476.1401227761235</v>
+        <v>48577.161636316996</v>
       </c>
     </row>
     <row r="34" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
@@ -4887,17 +4926,17 @@
         <v>4</v>
       </c>
       <c r="L34" s="65">
-        <v>489</v>
+        <v>573</v>
       </c>
       <c r="M34" s="8"/>
-      <c r="N34" s="71" t="str">
+      <c r="N34" s="88" t="str">
         <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;L37&amp;" total tests, finding "&amp;(L34+L35+L36)&amp;" positive:"</f>
-        <v>As of March 23, Ontario reported 28506 total tests, finding 503 positive:</v>
-      </c>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
+        <v>As of March 24, Ontario reported 32457 total tests, finding 588 positive:</v>
+      </c>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
     </row>
     <row r="35" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
@@ -4913,11 +4952,11 @@
         <v>8</v>
       </c>
       <c r="M35" s="8"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="89"/>
     </row>
     <row r="36" spans="1:20 16382:16382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
@@ -4931,16 +4970,16 @@
       </c>
       <c r="L36" s="3">
         <f>SUM(E4:E70)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="37" t="str">
         <f>(L34+L35+L36)&amp;" / "&amp;L37&amp;" ="</f>
-        <v>503 / 28506 =</v>
+        <v>588 / 32457 =</v>
       </c>
       <c r="O36" s="38">
         <f>($L34+$L35+$L36)/(L37)</f>
-        <v>1.764540798428401E-2</v>
+        <v>1.8116276920232925E-2</v>
       </c>
       <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
@@ -4958,7 +4997,7 @@
       </c>
       <c r="L37" s="3">
         <f>MAX(F4:F70)</f>
-        <v>28506</v>
+        <v>32457</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="41" t="s">
@@ -4980,13 +5019,13 @@
         <v>10</v>
       </c>
       <c r="M38" s="8"/>
-      <c r="N38" s="73" t="s">
+      <c r="N38" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="91"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="91"/>
     </row>
     <row r="39" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
@@ -5000,12 +5039,12 @@
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="76">
+      <c r="N39" s="90"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="91"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="91"/>
+      <c r="S39" s="70">
         <v>43913</v>
       </c>
     </row>
@@ -5019,13 +5058,13 @@
       <c r="K40" s="43"/>
       <c r="L40" s="43"/>
       <c r="M40" s="43"/>
-      <c r="N40" s="69" t="s">
+      <c r="N40" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="69"/>
-      <c r="R40" s="69"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86"/>
       <c r="S40">
         <v>6568</v>
       </c>
@@ -5040,17 +5079,17 @@
       <c r="B41" s="17">
         <v>67</v>
       </c>
-      <c r="K41" s="70" t="s">
+      <c r="K41" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="70"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
       <c r="P41" s="45"/>
       <c r="Q41" s="45"/>
       <c r="R41" s="45"/>
-      <c r="S41" s="75">
+      <c r="S41" s="69">
         <f>26420/14.57</f>
         <v>1813.3150308853808</v>
       </c>
@@ -5065,11 +5104,11 @@
       <c r="B42" s="17">
         <v>68</v>
       </c>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="45"/>
       <c r="R42" s="45"/>
@@ -5303,10 +5342,10 @@
       <c r="L59" s="63">
         <v>27</v>
       </c>
-      <c r="M59" s="90" t="s">
+      <c r="M59" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="N59" s="90"/>
+      <c r="N59" s="84"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
@@ -5321,7 +5360,7 @@
       <c r="L60" s="63">
         <v>17</v>
       </c>
-      <c r="M60" s="91">
+      <c r="M60" s="85">
         <v>1365</v>
       </c>
     </row>
@@ -5336,10 +5375,10 @@
         <v>16</v>
       </c>
       <c r="L61" s="63">
-        <v>16</v>
-      </c>
-      <c r="M61" s="91">
-        <v>3925</v>
+        <v>17</v>
+      </c>
+      <c r="M61" s="85">
+        <v>6368</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -5355,7 +5394,7 @@
       <c r="L62" s="63">
         <v>16</v>
       </c>
-      <c r="M62" s="91">
+      <c r="M62" s="85">
         <v>4528</v>
       </c>
     </row>
@@ -5372,7 +5411,7 @@
       <c r="L63" s="63">
         <v>17</v>
       </c>
-      <c r="M63" s="91">
+      <c r="M63" s="85">
         <v>9399</v>
       </c>
     </row>
@@ -5387,10 +5426,10 @@
         <v>21</v>
       </c>
       <c r="L64" s="63">
-        <v>17</v>
-      </c>
-      <c r="M64" s="91">
-        <v>1861</v>
+        <v>18</v>
+      </c>
+      <c r="M64" s="85">
+        <v>3838</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -5465,13 +5504,13 @@
       <c r="P70" s="53"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K71" s="78" t="s">
+      <c r="K71" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="L71" s="79">
-        <v>0.20630000000000001</v>
-      </c>
-      <c r="M71" s="80" t="s">
+      <c r="L71" s="73">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="M71" s="74" t="s">
         <v>34</v>
       </c>
       <c r="N71" s="5"/>
@@ -5479,13 +5518,13 @@
       <c r="P71" s="14"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K72" s="81">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="L72" s="82" t="s">
+      <c r="K72" s="75">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="L72" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="M72" s="80"/>
+      <c r="M72" s="74"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="14"/>
@@ -5496,16 +5535,16 @@
       </c>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="82" t="s">
+      <c r="N73" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="O73" s="84">
+      <c r="O73" s="78">
         <f ca="1">TODAY()-43855</f>
-        <v>58</v>
-      </c>
-      <c r="P73" s="83">
+        <v>59</v>
+      </c>
+      <c r="P73" s="77">
         <f ca="1">TODAY()</f>
-        <v>43913</v>
+        <v>43914</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -5526,18 +5565,18 @@
       </c>
       <c r="L75" s="56">
         <f>LN($L74/$K72)/$L71</f>
-        <v>69.444188956520904</v>
+        <v>70.333426808451648</v>
       </c>
       <c r="M75" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="N75" s="88">
+      <c r="N75" s="82">
         <f ca="1">TODAY()+O75</f>
-        <v>43924.444188956521</v>
+        <v>43925.333426808451</v>
       </c>
       <c r="O75" s="57">
         <f ca="1">L75-O73</f>
-        <v>11.444188956520904</v>
+        <v>11.333426808451648</v>
       </c>
       <c r="P75" s="14" t="s">
         <v>38</v>
@@ -5568,18 +5607,18 @@
       </c>
       <c r="L78" s="56">
         <f>LN($L77/$K72)/$L71</f>
-        <v>74.769503007263083</v>
+        <v>75.785596975539036</v>
       </c>
       <c r="M78" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="N78" s="88">
+      <c r="N78" s="82">
         <f ca="1">TODAY()+O78</f>
-        <v>43929.769503007265</v>
+        <v>43930.78559697554</v>
       </c>
       <c r="O78" s="57">
         <f ca="1">L78-O73</f>
-        <v>16.769503007263083</v>
+        <v>16.785596975539036</v>
       </c>
       <c r="P78" s="14" t="s">
         <v>38</v>
@@ -5589,7 +5628,7 @@
       <c r="K79" s="58"/>
       <c r="L79" s="59"/>
       <c r="M79" s="60"/>
-      <c r="N79" s="89"/>
+      <c r="N79" s="83"/>
       <c r="O79" s="61"/>
       <c r="P79" s="62"/>
     </row>

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adevecseri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49C3819-E66D-4374-B36C-BA2DACA65F39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADB2C4D-D44B-49BB-A1EA-8CD696E4E909}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EDAE8D6-3623-45A2-8BFA-E85B6F6E859E}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>~28</t>
   </si>
   <si>
-    <t>y=</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
   </si>
   <si>
     <t>If Ontario follows this average trend of 11 days, we can expect to see 1000 new cases/day starting around April 1st.</t>
-  </si>
-  <si>
-    <t>If Ontario follows Irans's ~17 days, we can expect to see new cases/day peak around April 6th.</t>
   </si>
   <si>
     <t>hard to define because the peak is a big backlog spike and there was a slow start</t>
@@ -190,6 +184,12 @@
   </si>
   <si>
     <t>Trying to predict when Ontario will peak:</t>
+  </si>
+  <si>
+    <t>If Ontario follows Spain/Irans's ~17 days, we can expect to see new cases/day peak around April 6th.</t>
+  </si>
+  <si>
+    <t>y =</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -646,7 +646,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -692,6 +691,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -701,6 +704,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF324D1F"/>
       <color rgb="FF4F4F4F"/>
       <color rgb="FF5E913B"/>
       <color rgb="FF83A2D9"/>
@@ -891,7 +895,7 @@
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -1548,7 +1552,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,7 +1608,7 @@
             </c:spPr>
             <c:trendlineType val="exp"/>
             <c:forward val="1"/>
-            <c:backward val="2"/>
+            <c:backward val="10"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1907,9 +1911,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="324D1F"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2235,7 +2237,7 @@
         <c:axId val="1674530703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120.1"/>
+          <c:max val="110.1"/>
           <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2366,7 +2368,7 @@
         <c:axId val="5516288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7000"/>
+          <c:max val="7300"/>
           <c:min val="1800"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2474,7 +2476,7 @@
         <c:crossAx val="5509216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="400"/>
+        <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="5509216"/>
@@ -3823,6 +3825,169 @@
       </cdr:cxnSp>
     </cdr:grpSp>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63421</cdr:x>
+      <cdr:y>0.86892</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79796</cdr:x>
+      <cdr:y>0.95867</cdr:y>
+    </cdr:to>
+    <cdr:grpSp>
+      <cdr:nvGrpSpPr>
+        <cdr:cNvPr id="16" name="Group 15">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1A4C6E-3C6F-4025-B829-0C68F16F5033}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvGrpSpPr/>
+      </cdr:nvGrpSpPr>
+      <cdr:grpSpPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5122322" y="5189342"/>
+          <a:ext cx="1322568" cy="536003"/>
+          <a:chOff x="-98426" y="0"/>
+          <a:chExt cx="981077" cy="533400"/>
+        </a:xfrm>
+      </cdr:grpSpPr>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="17" name="TextBox 2">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4CC128-501F-4C41-8146-7E7DDCFCE59F}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="-98426" y="171450"/>
+            <a:ext cx="981077" cy="361950"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-CA" sz="1100"/>
+              <a:t>21-Mar-2020</a:t>
+            </a:r>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-CA" sz="1100"/>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+      <cdr:cxnSp macro="">
+        <cdr:nvCxnSpPr>
+          <cdr:cNvPr id="18" name="Straight Connector 17">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1089D6-9659-4320-8079-62E08D3CA16D}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvCxnSpPr/>
+        </cdr:nvCxnSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="257174" y="0"/>
+            <a:ext cx="0" cy="219075"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+      </cdr:cxnSp>
+    </cdr:grpSp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -4126,10 +4291,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:XFB82"/>
+  <dimension ref="A1:XFB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4155,14 +4320,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="81">
+      <c r="A1" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="80">
         <f ca="1">TODAY()-43855</f>
         <v>59</v>
       </c>
-      <c r="C1" s="79">
+      <c r="C1" s="78">
         <f ca="1">TODAY()</f>
         <v>43914</v>
       </c>
@@ -4174,9 +4339,9 @@
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="77"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="13"/>
@@ -4204,13 +4369,13 @@
         <v>8</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -4268,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -4808,13 +4973,13 @@
         <v>Tests as of 03-24-2020</v>
       </c>
       <c r="M31" s="8"/>
-      <c r="N31" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
+      <c r="N31" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
@@ -4855,11 +5020,11 @@
         <v>21795</v>
       </c>
       <c r="M32" s="8"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
     </row>
     <row r="33" spans="1:20 16382:16382" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
@@ -4876,7 +5041,7 @@
         <v>85</v>
       </c>
       <c r="E33" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="19">
         <v>32457</v>
@@ -4901,7 +5066,7 @@
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O33" s="35">
         <f>8514/60761</f>
@@ -4912,7 +5077,7 @@
       <c r="R33" s="36"/>
       <c r="XFB33">
         <f>SUM(B33:XFA33)</f>
-        <v>48577.161636316996</v>
+        <v>48578.161636316996</v>
       </c>
     </row>
     <row r="34" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
@@ -4926,17 +5091,17 @@
         <v>4</v>
       </c>
       <c r="L34" s="65">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M34" s="8"/>
-      <c r="N34" s="88" t="str">
+      <c r="N34" s="87" t="str">
         <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;L37&amp;" total tests, finding "&amp;(L34+L35+L36)&amp;" positive:"</f>
         <v>As of March 24, Ontario reported 32457 total tests, finding 588 positive:</v>
       </c>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88"/>
     </row>
     <row r="35" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
@@ -4952,11 +5117,11 @@
         <v>8</v>
       </c>
       <c r="M35" s="8"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="89"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
     </row>
     <row r="36" spans="1:20 16382:16382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
@@ -4970,7 +5135,7 @@
       </c>
       <c r="L36" s="3">
         <f>SUM(E4:E70)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="37" t="str">
@@ -5019,13 +5184,13 @@
         <v>10</v>
       </c>
       <c r="M38" s="8"/>
-      <c r="N38" s="90" t="s">
+      <c r="N38" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="O38" s="91"/>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="91"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
     </row>
     <row r="39" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
@@ -5039,11 +5204,11 @@
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="91"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
       <c r="S39" s="70">
         <v>43913</v>
       </c>
@@ -5058,13 +5223,13 @@
       <c r="K40" s="43"/>
       <c r="L40" s="43"/>
       <c r="M40" s="43"/>
-      <c r="N40" s="86" t="s">
+      <c r="N40" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="O40" s="86"/>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="86"/>
-      <c r="R40" s="86"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85"/>
       <c r="S40">
         <v>6568</v>
       </c>
@@ -5079,13 +5244,13 @@
       <c r="B41" s="17">
         <v>67</v>
       </c>
-      <c r="K41" s="87" t="s">
+      <c r="K41" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="86"/>
       <c r="P41" s="45"/>
       <c r="Q41" s="45"/>
       <c r="R41" s="45"/>
@@ -5094,7 +5259,7 @@
         <v>1813.3150308853808</v>
       </c>
       <c r="T41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
@@ -5104,11 +5269,11 @@
       <c r="B42" s="17">
         <v>68</v>
       </c>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="45"/>
       <c r="R42" s="45"/>
@@ -5289,7 +5454,7 @@
         <v>81</v>
       </c>
       <c r="K55" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -5326,7 +5491,7 @@
         <v>31</v>
       </c>
       <c r="M58" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -5342,10 +5507,10 @@
       <c r="L59" s="63">
         <v>27</v>
       </c>
-      <c r="M59" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="N59" s="84"/>
+      <c r="M59" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="N59" s="83"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
@@ -5360,7 +5525,7 @@
       <c r="L60" s="63">
         <v>17</v>
       </c>
-      <c r="M60" s="85">
+      <c r="M60" s="84">
         <v>1365</v>
       </c>
     </row>
@@ -5377,7 +5542,7 @@
       <c r="L61" s="63">
         <v>17</v>
       </c>
-      <c r="M61" s="85">
+      <c r="M61" s="84">
         <v>6368</v>
       </c>
     </row>
@@ -5394,7 +5559,7 @@
       <c r="L62" s="63">
         <v>16</v>
       </c>
-      <c r="M62" s="85">
+      <c r="M62" s="84">
         <v>4528</v>
       </c>
     </row>
@@ -5411,7 +5576,7 @@
       <c r="L63" s="63">
         <v>17</v>
       </c>
-      <c r="M63" s="85">
+      <c r="M63" s="84">
         <v>9399</v>
       </c>
     </row>
@@ -5428,7 +5593,7 @@
       <c r="L64" s="63">
         <v>18</v>
       </c>
-      <c r="M64" s="85">
+      <c r="M64" s="84">
         <v>3838</v>
       </c>
     </row>
@@ -5468,7 +5633,7 @@
         <v>93</v>
       </c>
       <c r="K67" s="44" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -5495,7 +5660,7 @@
         <v>96</v>
       </c>
       <c r="K70" s="51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L70" s="52"/>
       <c r="M70" s="52"/>
@@ -5504,100 +5669,96 @@
       <c r="P70" s="53"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K71" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="L71" s="73">
+      <c r="K71" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="L71" s="72">
         <v>0.20150000000000001</v>
       </c>
-      <c r="M71" s="74" t="s">
-        <v>34</v>
+      <c r="M71" s="73" t="s">
+        <v>33</v>
       </c>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="14"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K72" s="75">
+      <c r="K72" s="74">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="L72" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="M72" s="74"/>
+      <c r="L72" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="M72" s="73"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="14"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K73" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="O73" s="78">
+      <c r="K73" s="92"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="14"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K74" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="O74" s="77">
         <f ca="1">TODAY()-43855</f>
         <v>59</v>
       </c>
-      <c r="P73" s="77">
+      <c r="P74" s="76">
         <f ca="1">TODAY()</f>
         <v>43914</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K74" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="L74" s="12">
-        <v>1000</v>
-      </c>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="14"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K75" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="L75" s="56">
-        <f>LN($L74/$K72)/$L71</f>
+      <c r="L75" s="12">
+        <v>1000</v>
+      </c>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="14"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K76" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="L76" s="56">
+        <f>LN($L75/$K72)/$L71</f>
         <v>70.333426808451648</v>
       </c>
-      <c r="M75" s="12" t="s">
+      <c r="M76" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N76" s="81">
+        <f ca="1">TODAY()+O76</f>
+        <v>43925.333426808451</v>
+      </c>
+      <c r="O76" s="57">
+        <f ca="1">L76-O74</f>
+        <v>11.333426808451648</v>
+      </c>
+      <c r="P76" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N75" s="82">
-        <f ca="1">TODAY()+O75</f>
-        <v>43925.333426808451</v>
-      </c>
-      <c r="O75" s="57">
-        <f ca="1">L75-O73</f>
-        <v>11.333426808451648</v>
-      </c>
-      <c r="P75" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K76" s="55"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="14"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K77" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="L77" s="12">
-        <v>3000</v>
-      </c>
+      <c r="K77" s="55"/>
+      <c r="L77" s="12"/>
       <c r="M77" s="5"/>
-      <c r="N77" s="12"/>
       <c r="O77" s="5"/>
       <c r="P77" s="14"/>
     </row>
@@ -5605,37 +5766,49 @@
       <c r="K78" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="L78" s="56">
-        <f>LN($L77/$K72)/$L71</f>
+      <c r="L78" s="12">
+        <v>3000</v>
+      </c>
+      <c r="M78" s="5"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="14"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K79" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="L79" s="56">
+        <f>LN($L78/$K72)/$L71</f>
         <v>75.785596975539036</v>
       </c>
-      <c r="M78" s="12" t="s">
+      <c r="M79" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N79" s="81">
+        <f ca="1">TODAY()+O79</f>
+        <v>43930.78559697554</v>
+      </c>
+      <c r="O79" s="57">
+        <f ca="1">L79-O74</f>
+        <v>16.785596975539036</v>
+      </c>
+      <c r="P79" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N78" s="82">
-        <f ca="1">TODAY()+O78</f>
-        <v>43930.78559697554</v>
-      </c>
-      <c r="O78" s="57">
-        <f ca="1">L78-O73</f>
-        <v>16.785596975539036</v>
-      </c>
-      <c r="P78" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K79" s="58"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="60"/>
-      <c r="N79" s="83"/>
-      <c r="O79" s="61"/>
-      <c r="P79" s="62"/>
-    </row>
-    <row r="82" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L82" s="49"/>
-      <c r="M82" s="48"/>
-      <c r="O82" s="49"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K80" s="58"/>
+      <c r="L80" s="59"/>
+      <c r="M80" s="60"/>
+      <c r="N80" s="82"/>
+      <c r="O80" s="61"/>
+      <c r="P80" s="62"/>
+    </row>
+    <row r="83" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L83" s="49"/>
+      <c r="M83" s="48"/>
+      <c r="O83" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adevecseri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADB2C4D-D44B-49BB-A1EA-8CD696E4E909}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD73D98A-9312-4822-889E-4544078ADF87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EDAE8D6-3623-45A2-8BFA-E85B6F6E859E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Days Since 1st Case</t>
   </si>
@@ -114,9 +114,6 @@
     <t>~Days between ~50 cases/day to peak</t>
   </si>
   <si>
-    <t>11 days, peaked @ 851</t>
-  </si>
-  <si>
     <t>On February 22, Italy reported 58 new cases, this is roughly the magnitude of Ontario's daily cases on Mar 19. This places Ontario ~26 days behind Italy in terms of daily confirmed cases.</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
   </si>
   <si>
     <t>Today is day:</t>
-  </si>
-  <si>
-    <t>If Ontario follows this average trend of 11 days, we can expect to see 1000 new cases/day starting around April 1st.</t>
   </si>
   <si>
     <t>hard to define because the peak is a big backlog spike and there was a slow start</t>
@@ -186,10 +180,13 @@
     <t>Trying to predict when Ontario will peak:</t>
   </si>
   <si>
-    <t>If Ontario follows Spain/Irans's ~17 days, we can expect to see new cases/day peak around April 6th.</t>
+    <t>y =</t>
   </si>
   <si>
-    <t>y =</t>
+    <t>Ontario was at ~50 cases/day on Mar 19, + 27 days = Apr 15</t>
+  </si>
+  <si>
+    <t>Ontario was at ~50 cases/day on Mar 19, + 9 to 14 days = Mar 28 - Apr 2</t>
   </si>
 </sst>
 </file>
@@ -517,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -673,6 +670,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -691,10 +692,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -769,7 +767,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1600" baseline="0"/>
-              <a:t>03/24/2020</a:t>
+              <a:t>03/25/2020</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" sz="2000" baseline="0"/>
@@ -1208,6 +1206,9 @@
                 <c:pt idx="29">
                   <c:v>85</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1554,6 +1555,9 @@
                 <c:pt idx="29">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1567,9 +1571,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>Trendline Data</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
@@ -1614,8 +1615,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.1252501114044602E-2"/>
-                  <c:y val="-1.4028249225186433E-2"/>
+                  <c:x val="-1.4261804379683506E-2"/>
+                  <c:y val="1.047273397045465E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1650,164 +1651,191 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$B$70</c:f>
+              <c:f>Sheet1!$B$10:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="24">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="26">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="27">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="28">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="29">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="30">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="31">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="32">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="33">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="34">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="35">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="36">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="37">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="38">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="39">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="40">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="41">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="42">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="43">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="44">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="45">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="46">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="47">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="48">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="49">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="50">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="51">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="52">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="53">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="54">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="55">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="56">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="57">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="58">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="59">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="60">
                   <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
@@ -1815,51 +1843,84 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$19:$D$32</c:f>
+              <c:f>Sheet1!$D$10:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2085,6 +2146,9 @@
                 <c:pt idx="6">
                   <c:v>3951</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>3178</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2111,7 +2175,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="62"/>
-          <c:min val="38"/>
+          <c:min val="33"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2237,7 +2301,7 @@
         <c:axId val="1674530703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="110.1"/>
+          <c:max val="120.1"/>
           <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2368,8 +2432,8 @@
         <c:axId val="5516288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7300"/>
-          <c:min val="1800"/>
+          <c:max val="13000"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2476,7 +2540,7 @@
         <c:crossAx val="5509216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="500"/>
+        <c:majorUnit val="1000"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="5509216"/>
@@ -3294,7 +3358,7 @@
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
               <a:rPr lang="en-CA" sz="1100"/>
-              <a:t>03-Mar-2020</a:t>
+              <a:t>27-Feb-2020</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -3341,174 +3405,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.21243</cdr:x>
-      <cdr:y>0.8688</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.37618</cdr:x>
-      <cdr:y>0.95854</cdr:y>
-    </cdr:to>
-    <cdr:grpSp>
-      <cdr:nvGrpSpPr>
-        <cdr:cNvPr id="10" name="Group 9">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433B1B01-774E-4FB2-9C89-052BF48E537B}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvGrpSpPr/>
-      </cdr:nvGrpSpPr>
-      <cdr:grpSpPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1715744" y="5188626"/>
-          <a:ext cx="1322567" cy="535943"/>
-          <a:chOff x="-98426" y="0"/>
-          <a:chExt cx="981077" cy="533400"/>
-        </a:xfrm>
-      </cdr:grpSpPr>
-      <cdr:sp macro="" textlink="">
-        <cdr:nvSpPr>
-          <cdr:cNvPr id="11" name="TextBox 2">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB173EF4-38B8-4048-B2F7-B6C5E9CC5940}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvSpPr txBox="1"/>
-        </cdr:nvSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="-98426" y="171450"/>
-            <a:ext cx="981077" cy="361950"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </cdr:spPr>
-        <cdr:txBody>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-CA" sz="1100"/>
-              <a:t>09-Mar-2020</a:t>
-            </a:r>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-CA" sz="1100"/>
-          </a:p>
-        </cdr:txBody>
-      </cdr:sp>
-      <cdr:cxnSp macro="">
-        <cdr:nvCxnSpPr>
-          <cdr:cNvPr id="12" name="Straight Connector 11">
-            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766CB728-FF82-47BE-8E5C-59EAF98F3593}"/>
-              </a:ext>
-            </a:extLst>
-          </cdr:cNvPr>
-          <cdr:cNvCxnSpPr/>
-        </cdr:nvCxnSpPr>
-        <cdr:spPr>
-          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="257174" y="0"/>
-            <a:ext cx="0" cy="219075"/>
-          </a:xfrm>
-          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </cdr:spPr>
-        <cdr:style>
-          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </cdr:style>
-      </cdr:cxnSp>
-    </cdr:grpSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.42193</cdr:x>
+      <cdr:x>0.40778</cdr:x>
       <cdr:y>0.86892</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.58568</cdr:x>
+      <cdr:x>0.57153</cdr:x>
       <cdr:y>0.95867</cdr:y>
     </cdr:to>
     <cdr:grpSp>
@@ -3524,7 +3425,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3407822" y="5189342"/>
+          <a:off x="3293522" y="5189342"/>
           <a:ext cx="1322568" cy="536003"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
@@ -3620,7 +3521,7 @@
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
               <a:rPr lang="en-CA" sz="1100"/>
-              <a:t>15-Mar-2020</a:t>
+              <a:t>12-Mar-2020</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -3667,12 +3568,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.76496</cdr:x>
-      <cdr:y>0.87015</cdr:y>
+      <cdr:x>0.81213</cdr:x>
+      <cdr:y>0.86856</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.88815</cdr:x>
-      <cdr:y>0.9619</cdr:y>
+      <cdr:x>0.93532</cdr:x>
+      <cdr:y>0.96031</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
@@ -3687,7 +3588,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6178389" y="5196717"/>
+          <a:off x="6559389" y="5187163"/>
           <a:ext cx="994975" cy="547947"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
@@ -3827,12 +3728,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.63421</cdr:x>
-      <cdr:y>0.86892</cdr:y>
+      <cdr:x>0.61062</cdr:x>
+      <cdr:y>0.86733</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.79796</cdr:x>
-      <cdr:y>0.95867</cdr:y>
+      <cdr:x>0.77437</cdr:x>
+      <cdr:y>0.95708</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
@@ -3847,7 +3748,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5122322" y="5189342"/>
+          <a:off x="4931854" y="5179817"/>
           <a:ext cx="1322568" cy="536003"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
@@ -3943,7 +3844,7 @@
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
               <a:rPr lang="en-CA" sz="1100"/>
-              <a:t>21-Mar-2020</a:t>
+              <a:t>19-Mar-2020</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -4294,14 +4195,14 @@
   <dimension ref="A1:XFB83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="16" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="30" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="18"/>
     <col min="6" max="6" width="8.7109375" style="19" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="18" customWidth="1"/>
@@ -4321,15 +4222,15 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="80">
         <f ca="1">TODAY()-43855</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="78">
         <f ca="1">TODAY()</f>
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -4369,13 +4270,13 @@
         <v>8</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J3" s="11"/>
     </row>
@@ -4386,7 +4287,7 @@
       <c r="B4" s="17">
         <v>30</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="30">
         <v>0</v>
       </c>
       <c r="D4" s="18">
@@ -4404,11 +4305,11 @@
       <c r="B5" s="17">
         <v>31</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="30">
         <v>1</v>
       </c>
       <c r="D5" s="18">
-        <f t="shared" ref="D5:D26" si="0">C5</f>
+        <f t="shared" ref="D5:D33" si="0">C5</f>
         <v>1</v>
       </c>
       <c r="E5" s="18">
@@ -4422,7 +4323,7 @@
       <c r="B6" s="17">
         <v>32</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="30">
         <v>1</v>
       </c>
       <c r="D6" s="18">
@@ -4433,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -4443,7 +4344,7 @@
       <c r="B7" s="17">
         <v>33</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="30">
         <v>1</v>
       </c>
       <c r="D7" s="18">
@@ -4461,7 +4362,7 @@
       <c r="B8" s="17">
         <v>34</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="30">
         <v>1</v>
       </c>
       <c r="D8" s="18">
@@ -4479,7 +4380,7 @@
       <c r="B9" s="17">
         <v>35</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="30">
         <v>3</v>
       </c>
       <c r="D9" s="18">
@@ -4497,7 +4398,7 @@
       <c r="B10" s="17">
         <v>36</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="30">
         <v>4</v>
       </c>
       <c r="D10" s="18">
@@ -4517,7 +4418,7 @@
       <c r="B11" s="17">
         <v>37</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="30">
         <v>3</v>
       </c>
       <c r="D11" s="18">
@@ -4535,7 +4436,7 @@
       <c r="B12" s="17">
         <v>38</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="30">
         <v>2</v>
       </c>
       <c r="D12" s="18">
@@ -4553,7 +4454,7 @@
       <c r="B13" s="17">
         <v>39</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="30">
         <v>2</v>
       </c>
       <c r="D13" s="18">
@@ -4571,7 +4472,7 @@
       <c r="B14" s="17">
         <v>40</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="30">
         <v>3</v>
       </c>
       <c r="D14" s="18">
@@ -4589,7 +4490,7 @@
       <c r="B15" s="17">
         <v>41</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="30">
         <v>2</v>
       </c>
       <c r="D15" s="18">
@@ -4607,7 +4508,7 @@
       <c r="B16" s="17">
         <v>42</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="30">
         <v>2</v>
       </c>
       <c r="D16" s="18">
@@ -4625,7 +4526,7 @@
       <c r="B17" s="17">
         <v>43</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="30">
         <v>4</v>
       </c>
       <c r="D17" s="18">
@@ -4643,7 +4544,7 @@
       <c r="B18" s="17">
         <v>44</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="30">
         <v>4</v>
       </c>
       <c r="D18" s="18">
@@ -4661,7 +4562,7 @@
       <c r="B19" s="17">
         <v>45</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="30">
         <v>2</v>
       </c>
       <c r="D19" s="18">
@@ -4679,7 +4580,7 @@
       <c r="B20" s="17">
         <v>46</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="30">
         <v>5</v>
       </c>
       <c r="D20" s="18">
@@ -4697,7 +4598,7 @@
       <c r="B21" s="17">
         <v>47</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="30">
         <v>18</v>
       </c>
       <c r="D21" s="18">
@@ -4715,7 +4616,7 @@
       <c r="B22" s="17">
         <v>48</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="30">
         <v>19</v>
       </c>
       <c r="D22" s="18">
@@ -4733,7 +4634,7 @@
       <c r="B23" s="17">
         <v>49</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="30">
         <v>24</v>
       </c>
       <c r="D23" s="18">
@@ -4753,7 +4654,7 @@
       <c r="B24" s="17">
         <v>50</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="30">
         <v>43</v>
       </c>
       <c r="D24" s="18">
@@ -4773,7 +4674,7 @@
       <c r="B25" s="17">
         <v>51</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="30">
         <v>32</v>
       </c>
       <c r="D25" s="18">
@@ -4791,7 +4692,7 @@
       <c r="B26" s="17">
         <v>52</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="30">
         <v>12</v>
       </c>
       <c r="D26" s="18">
@@ -4812,11 +4713,11 @@
       <c r="B27" s="17">
         <v>53</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="30">
         <v>25</v>
       </c>
       <c r="D27" s="18">
-        <f>C27</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E27" s="18">
@@ -4843,11 +4744,11 @@
       <c r="B28" s="17">
         <v>54</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="30">
         <v>44</v>
       </c>
       <c r="D28" s="18">
-        <f t="shared" ref="D28:D33" si="1">C28</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="E28" s="18">
@@ -4876,11 +4777,11 @@
       <c r="B29" s="17">
         <v>55</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="30">
         <v>60</v>
       </c>
       <c r="D29" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E29" s="18">
@@ -4909,11 +4810,11 @@
       <c r="B30" s="17">
         <v>56</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="30">
         <v>59</v>
       </c>
       <c r="D30" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="E30" s="18">
@@ -4923,15 +4824,15 @@
         <v>23384</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" ref="G30:H33" si="2">F30-F29</f>
+        <f t="shared" ref="G30:H34" si="1">F30-F29</f>
         <v>3873</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1012</v>
       </c>
       <c r="I30" s="27">
-        <f t="shared" ref="I30:I33" si="3">D30/G30</f>
+        <f t="shared" ref="I30:I34" si="2">D30/G30</f>
         <v>1.5233668990446682E-2</v>
       </c>
     </row>
@@ -4942,11 +4843,11 @@
       <c r="B31" s="17">
         <v>57</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="30">
         <v>48</v>
       </c>
       <c r="D31" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="E31" s="18">
@@ -4956,30 +4857,30 @@
         <v>26420</v>
       </c>
       <c r="G31" s="19">
+        <f t="shared" si="1"/>
+        <v>3036</v>
+      </c>
+      <c r="H31" s="15">
+        <f t="shared" si="1"/>
+        <v>-837</v>
+      </c>
+      <c r="I31" s="27">
         <f t="shared" si="2"/>
-        <v>3036</v>
-      </c>
-      <c r="H31" s="15">
-        <f t="shared" si="2"/>
-        <v>-837</v>
-      </c>
-      <c r="I31" s="27">
-        <f t="shared" si="3"/>
         <v>1.5810276679841896E-2</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="24" t="str">
         <f ca="1">"Tests as of" &amp;  TEXT(TODAY()," mm-dd-yyyy")</f>
-        <v>Tests as of 03-24-2020</v>
+        <v>Tests as of 03-25-2020</v>
       </c>
       <c r="M31" s="8"/>
-      <c r="N31" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="88"/>
+      <c r="N31" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="90"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="90"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
@@ -4988,11 +4889,11 @@
       <c r="B32" s="17">
         <v>58</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="30">
         <v>78</v>
       </c>
       <c r="D32" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="E32" s="18">
@@ -5002,29 +4903,29 @@
         <v>28506</v>
       </c>
       <c r="G32" s="19">
+        <f t="shared" si="1"/>
+        <v>2086</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="1"/>
+        <v>-950</v>
+      </c>
+      <c r="I32" s="27">
         <f t="shared" si="2"/>
-        <v>2086</v>
-      </c>
-      <c r="H32" s="15">
-        <f t="shared" si="2"/>
-        <v>-950</v>
-      </c>
-      <c r="I32" s="27">
-        <f t="shared" si="3"/>
         <v>3.7392138063279005E-2</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L32" s="64">
-        <v>21795</v>
+        <v>24458</v>
       </c>
       <c r="M32" s="8"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="88"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="90"/>
     </row>
     <row r="33" spans="1:20 16382:16382" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
@@ -5033,11 +4934,11 @@
       <c r="B33" s="17">
         <v>59</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="30">
         <v>85</v>
       </c>
       <c r="D33" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="E33" s="18">
@@ -5047,26 +4948,26 @@
         <v>32457</v>
       </c>
       <c r="G33" s="19">
+        <f t="shared" si="1"/>
+        <v>3951</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="1"/>
+        <v>1865</v>
+      </c>
+      <c r="I33" s="27">
         <f t="shared" si="2"/>
-        <v>3951</v>
-      </c>
-      <c r="H33" s="15">
-        <f t="shared" si="2"/>
-        <v>1865</v>
-      </c>
-      <c r="I33" s="27">
-        <f t="shared" si="3"/>
         <v>2.1513540875727665E-2</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L33" s="64">
-        <v>10074</v>
+        <v>10489</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O33" s="35">
         <f>8514/60761</f>
@@ -5077,7 +4978,7 @@
       <c r="R33" s="36"/>
       <c r="XFB33">
         <f>SUM(B33:XFA33)</f>
-        <v>48578.161636316996</v>
+        <v>48993.161636316996</v>
       </c>
     </row>
     <row r="34" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
@@ -5087,21 +4988,46 @@
       <c r="B34" s="17">
         <v>60</v>
       </c>
+      <c r="C34" s="30">
+        <v>100</v>
+      </c>
+      <c r="D34" s="18">
+        <f t="shared" ref="D28:D34" si="3">C34</f>
+        <v>100</v>
+      </c>
+      <c r="E34" s="18">
+        <v>1</v>
+      </c>
+      <c r="F34" s="19">
+        <v>35635</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="1"/>
+        <v>3178</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="1"/>
+        <v>-773</v>
+      </c>
+      <c r="I34" s="27">
+        <f t="shared" si="2"/>
+        <v>3.1466331025802388E-2</v>
+      </c>
       <c r="K34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L34" s="65">
-        <v>572</v>
+        <v>671</v>
       </c>
       <c r="M34" s="8"/>
-      <c r="N34" s="87" t="str">
+      <c r="N34" s="89" t="str">
         <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;L37&amp;" total tests, finding "&amp;(L34+L35+L36)&amp;" positive:"</f>
-        <v>As of March 24, Ontario reported 32457 total tests, finding 588 positive:</v>
-      </c>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="88"/>
+        <v>As of March 25, Ontario reported 35635 total tests, finding 688 positive:</v>
+      </c>
+      <c r="O34" s="90"/>
+      <c r="P34" s="90"/>
+      <c r="Q34" s="90"/>
+      <c r="R34" s="90"/>
     </row>
     <row r="35" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
@@ -5117,11 +5043,11 @@
         <v>8</v>
       </c>
       <c r="M35" s="8"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="90"/>
+      <c r="R35" s="90"/>
     </row>
     <row r="36" spans="1:20 16382:16382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
@@ -5134,17 +5060,17 @@
         <v>9</v>
       </c>
       <c r="L36" s="3">
-        <f>SUM(E4:E70)</f>
-        <v>8</v>
+        <f>SUM(E4:E424)</f>
+        <v>9</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="37" t="str">
         <f>(L34+L35+L36)&amp;" / "&amp;L37&amp;" ="</f>
-        <v>588 / 32457 =</v>
+        <v>688 / 35635 =</v>
       </c>
       <c r="O36" s="38">
         <f>($L34+$L35+$L36)/(L37)</f>
-        <v>1.8116276920232925E-2</v>
+        <v>1.9306861231934896E-2</v>
       </c>
       <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
@@ -5162,11 +5088,11 @@
       </c>
       <c r="L37" s="3">
         <f>MAX(F4:F70)</f>
-        <v>32457</v>
+        <v>35635</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O37" s="40"/>
       <c r="P37" s="40"/>
@@ -5184,13 +5110,13 @@
         <v>10</v>
       </c>
       <c r="M38" s="8"/>
-      <c r="N38" s="89" t="s">
+      <c r="N38" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
     </row>
     <row r="39" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
@@ -5204,11 +5130,11 @@
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="90"/>
-      <c r="R39" s="90"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
       <c r="S39" s="70">
         <v>43913</v>
       </c>
@@ -5223,13 +5149,13 @@
       <c r="K40" s="43"/>
       <c r="L40" s="43"/>
       <c r="M40" s="43"/>
-      <c r="N40" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="O40" s="85"/>
-      <c r="P40" s="85"/>
-      <c r="Q40" s="85"/>
-      <c r="R40" s="85"/>
+      <c r="N40" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
       <c r="S40">
         <v>6568</v>
       </c>
@@ -5244,13 +5170,13 @@
       <c r="B41" s="17">
         <v>67</v>
       </c>
-      <c r="K41" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
-      <c r="N41" s="86"/>
-      <c r="O41" s="86"/>
+      <c r="K41" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
       <c r="P41" s="45"/>
       <c r="Q41" s="45"/>
       <c r="R41" s="45"/>
@@ -5259,7 +5185,7 @@
         <v>1813.3150308853808</v>
       </c>
       <c r="T41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
@@ -5269,11 +5195,11 @@
       <c r="B42" s="17">
         <v>68</v>
       </c>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="86"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="45"/>
       <c r="R42" s="45"/>
@@ -5454,7 +5380,7 @@
         <v>81</v>
       </c>
       <c r="K55" s="44" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -5488,10 +5414,10 @@
         <v>13</v>
       </c>
       <c r="L58" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -5508,7 +5434,7 @@
         <v>27</v>
       </c>
       <c r="M59" s="83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N59" s="83"/>
     </row>
@@ -5523,10 +5449,10 @@
         <v>15</v>
       </c>
       <c r="L60" s="63">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M60" s="84">
-        <v>1365</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -5540,10 +5466,10 @@
         <v>16</v>
       </c>
       <c r="L61" s="63">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M61" s="84">
-        <v>6368</v>
+        <v>6922</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -5574,10 +5500,10 @@
         <v>20</v>
       </c>
       <c r="L63" s="63">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M63" s="84">
-        <v>9399</v>
+        <v>11075</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -5607,8 +5533,11 @@
       <c r="K65" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="L65" s="28" t="s">
-        <v>27</v>
+      <c r="L65" s="28">
+        <v>11</v>
+      </c>
+      <c r="M65" s="93">
+        <v>851</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -5633,7 +5562,7 @@
         <v>93</v>
       </c>
       <c r="K67" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -5660,7 +5589,7 @@
         <v>96</v>
       </c>
       <c r="K70" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L70" s="52"/>
       <c r="M70" s="52"/>
@@ -5669,25 +5598,37 @@
       <c r="P70" s="53"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K71" s="91" t="s">
-        <v>52</v>
+      <c r="A71" s="16">
+        <v>43952</v>
+      </c>
+      <c r="B71" s="17">
+        <v>97</v>
+      </c>
+      <c r="K71" s="85" t="s">
+        <v>49</v>
       </c>
       <c r="L71" s="72">
-        <v>0.20150000000000001</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="M71" s="73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="14"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <v>43953</v>
+      </c>
+      <c r="B72" s="17">
+        <v>98</v>
+      </c>
       <c r="K72" s="74">
-        <v>6.9999999999999999E-4</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="L72" s="75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M72" s="73"/>
       <c r="N72" s="5"/>
@@ -5695,7 +5636,13 @@
       <c r="P72" s="14"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K73" s="92"/>
+      <c r="A73" s="16">
+        <v>43954</v>
+      </c>
+      <c r="B73" s="17">
+        <v>99</v>
+      </c>
+      <c r="K73" s="86"/>
       <c r="L73" s="75"/>
       <c r="M73" s="73"/>
       <c r="N73" s="5"/>
@@ -5703,26 +5650,32 @@
       <c r="P73" s="14"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>43955</v>
+      </c>
+      <c r="B74" s="17">
+        <v>100</v>
+      </c>
       <c r="K74" s="54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O74" s="77">
         <f ca="1">TODAY()-43855</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P74" s="76">
         <f ca="1">TODAY()</f>
-        <v>43914</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K75" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L75" s="12">
         <v>1000</v>
@@ -5734,25 +5687,25 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K76" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L76" s="56">
         <f>LN($L75/$K72)/$L71</f>
-        <v>70.333426808451648</v>
+        <v>72.574112521448498</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N76" s="81">
         <f ca="1">TODAY()+O76</f>
-        <v>43925.333426808451</v>
+        <v>43927.574112521448</v>
       </c>
       <c r="O76" s="57">
         <f ca="1">L76-O74</f>
-        <v>11.333426808451648</v>
+        <v>12.574112521448498</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -5764,7 +5717,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K78" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L78" s="12">
         <v>3000</v>
@@ -5776,25 +5729,25 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K79" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L79" s="56">
         <f>LN($L78/$K72)/$L71</f>
-        <v>75.785596975539036</v>
+        <v>78.694515243833507</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N79" s="81">
         <f ca="1">TODAY()+O79</f>
-        <v>43930.78559697554</v>
+        <v>43933.694515243835</v>
       </c>
       <c r="O79" s="57">
         <f ca="1">L79-O74</f>
-        <v>16.785596975539036</v>
+        <v>18.694515243833507</v>
       </c>
       <c r="P79" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adevecseri\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD73D98A-9312-4822-889E-4544078ADF87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="21405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EDAE8D6-3623-45A2-8BFA-E85B6F6E859E}"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -192,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -310,59 +307,59 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -371,10 +368,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -383,7 +380,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -391,54 +388,54 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -447,18 +444,18 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -466,22 +463,22 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,22 +487,22 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,6 +671,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -692,7 +690,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -720,7 +717,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -763,7 +760,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1600" baseline="0"/>
@@ -776,7 +783,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -785,7 +802,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -794,7 +821,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -807,8 +844,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18250214094560693"/>
-          <c:y val="1.1298729799243323E-2"/>
+          <c:x val="0.182502140945607"/>
+          <c:y val="0.0112987297992433"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -823,26 +860,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -851,10 +868,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.0731299281432671E-2"/>
-          <c:y val="0.24471071550838749"/>
-          <c:w val="0.84378313532091209"/>
-          <c:h val="0.58952273106329933"/>
+          <c:x val="0.0607312992814327"/>
+          <c:y val="0.244710715508387"/>
+          <c:w val="0.843783135320912"/>
+          <c:h val="0.589522731063299"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -907,205 +924,205 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>71</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1117,103 +1134,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>170.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9ABE-453D-90F4-BD091619B5BE}"/>
             </c:ext>
@@ -1256,205 +1276,205 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>71</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,103 +1486,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DA02-4DE1-8CAE-C0FEDE2A2A7A}"/>
             </c:ext>
@@ -1608,15 +1631,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:forward val="1"/>
-            <c:backward val="10"/>
+            <c:forward val="1.0"/>
+            <c:backward val="10.0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.4261804379683506E-2"/>
-                  <c:y val="1.047273397045465E-2"/>
+                  <c:x val="-0.0142618043796835"/>
+                  <c:y val="0.0104727339704546"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1632,7 +1655,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1651,282 +1674,267 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$B$70</c:f>
+              <c:f>Sheet1!$B$12:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>52</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>56</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>57</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>58</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>59</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>60</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>61</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>63</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>64</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>65</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>66</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>67</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>68</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>69</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>71</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>72</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>73</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>74</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>75</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>76</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>77</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>78</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>79</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>80</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>81</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>82</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>83</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>84</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>85</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>86</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>87</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>88</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>89</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>90</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>91</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>92</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>93</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$10:$D$34</c:f>
+              <c:f>Sheet1!$D$12:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>60</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>78</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>100</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-9ABE-453D-90F4-BD091619B5BE}"/>
             </c:ext>
@@ -1940,8 +1948,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1677644591"/>
-        <c:axId val="1674530703"/>
+        <c:axId val="2127811800"/>
+        <c:axId val="2126634600"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1985,136 +1993,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>71</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,34 +2134,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>2730</c:v>
+                  <c:v>2730.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2753</c:v>
+                  <c:v>2753.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2861</c:v>
+                  <c:v>2861.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3873</c:v>
+                  <c:v>3873.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3036</c:v>
+                  <c:v>3036.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2086</c:v>
+                  <c:v>2086.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3951</c:v>
+                  <c:v>3951.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3178</c:v>
+                  <c:v>3178.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2915.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F9E-4CA3-B26E-7E17F3938924}"/>
             </c:ext>
@@ -2167,15 +2178,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="5509216"/>
-        <c:axId val="5516288"/>
+        <c:axId val="2126628712"/>
+        <c:axId val="2126636856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1677644591"/>
+        <c:axId val="2127811800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="62"/>
-          <c:min val="33"/>
+          <c:max val="65.0"/>
+          <c:min val="33.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2222,8 +2233,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.5652000792486093E-2"/>
-              <c:y val="0.87129629009499387"/>
+              <c:x val="0.0656520007924861"/>
+              <c:y val="0.871296290094994"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2234,26 +2245,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -2292,16 +2283,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1674530703"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="2126634600"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1674530703"/>
+        <c:axId val="2126634600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120.1"/>
+          <c:max val="200.1"/>
           <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2353,8 +2344,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.89056312566578055"/>
-              <c:y val="0.46049206087386807"/>
+              <c:x val="0.89056312566578"/>
+              <c:y val="0.460492060873868"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2365,26 +2356,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -2423,17 +2394,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1677644591"/>
-        <c:crossesAt val="10000"/>
+        <c:crossAx val="2127811800"/>
+        <c:crossesAt val="10000.0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="5516288"/>
+        <c:axId val="2126636856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="13000"/>
-          <c:min val="1000"/>
+          <c:max val="13000.0"/>
+          <c:min val="1000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2467,8 +2438,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.95532288212441396"/>
-              <c:y val="0.46412011340976089"/>
+              <c:x val="0.955322882124414"/>
+              <c:y val="0.464120113409761"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2479,26 +2450,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2537,13 +2488,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5509216"/>
+        <c:crossAx val="2126628712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1000"/>
+        <c:majorUnit val="1000.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="5509216"/>
+        <c:axId val="2126628712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,7 +2504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="5516288"/>
+        <c:crossAx val="2126636856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2567,6 +2518,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2598,14 +2550,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2637,7 +2589,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -3217,7 +3169,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE214DC-0EE4-40AE-B9B8-4B3DD3AB7269}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE214DC-0EE4-40AE-B9B8-4B3DD3AB7269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3254,7 +3206,7 @@
         <cdr:cNvPr id="7" name="Group 6">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F107B8-46BB-4401-AC67-1A91B962BB66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25F107B8-46BB-4401-AC67-1A91B962BB66}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3262,8 +3214,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="5179847"/>
-          <a:ext cx="1241235" cy="535943"/>
+          <a:off x="0" y="4885193"/>
+          <a:ext cx="1457227" cy="505456"/>
           <a:chOff x="-98425" y="0"/>
           <a:chExt cx="920752" cy="533400"/>
         </a:xfrm>
@@ -3273,7 +3225,7 @@
           <cdr:cNvPr id="8" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9AC2C2-927E-460A-8D4E-51108B1586E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D9AC2C2-927E-460A-8D4E-51108B1586E6}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3371,7 +3323,7 @@
           <cdr:cNvPr id="9" name="Straight Connector 8">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3827D673-01B5-4B4A-BD1E-55B47915711F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3827D673-01B5-4B4A-BD1E-55B47915711F}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3417,7 +3369,7 @@
         <cdr:cNvPr id="13" name="Group 12">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0824A2B-C99A-46CE-8BC3-444E1092098C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0824A2B-C99A-46CE-8BC3-444E1092098C}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3425,8 +3377,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3293522" y="5189342"/>
-          <a:ext cx="1322568" cy="536003"/>
+          <a:off x="3866658" y="4894148"/>
+          <a:ext cx="1552712" cy="505513"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3436,7 +3388,7 @@
           <cdr:cNvPr id="14" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EA23D1-4581-4012-A558-92CC0C465CD9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33EA23D1-4581-4012-A558-92CC0C465CD9}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3534,7 +3486,7 @@
           <cdr:cNvPr id="15" name="Straight Connector 14">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D264BD3-4391-4C3D-91CE-20FA038FA4A7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D264BD3-4391-4C3D-91CE-20FA038FA4A7}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3580,7 +3532,7 @@
         <cdr:cNvPr id="22" name="Group 21">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC43EB90-B5A7-4C7C-8658-B6AA0D39751F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC43EB90-B5A7-4C7C-8658-B6AA0D39751F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3588,8 +3540,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6559389" y="5187163"/>
-          <a:ext cx="994975" cy="547947"/>
+          <a:off x="7700791" y="4892121"/>
+          <a:ext cx="1168114" cy="516777"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
         </a:xfrm>
@@ -3599,7 +3551,7 @@
           <cdr:cNvPr id="23" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07120820-EFB4-4B27-8139-703BA371CAB9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07120820-EFB4-4B27-8139-703BA371CAB9}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3694,7 +3646,7 @@
           <cdr:cNvPr id="24" name="Straight Connector 23">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6850518F-1263-43CF-8C42-21A1BACE3201}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6850518F-1263-43CF-8C42-21A1BACE3201}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3740,7 +3692,7 @@
         <cdr:cNvPr id="16" name="Group 15">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1A4C6E-3C6F-4025-B829-0C68F16F5033}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC1A4C6E-3C6F-4025-B829-0C68F16F5033}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3748,8 +3700,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4931854" y="5179817"/>
-          <a:ext cx="1322568" cy="536003"/>
+          <a:off x="5790030" y="4885193"/>
+          <a:ext cx="1552713" cy="505512"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3759,7 +3711,7 @@
           <cdr:cNvPr id="17" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4CC128-501F-4C41-8146-7E7DDCFCE59F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA4CC128-501F-4C41-8146-7E7DDCFCE59F}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3857,7 +3809,7 @@
           <cdr:cNvPr id="18" name="Straight Connector 17">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1089D6-9659-4320-8079-62E08D3CA16D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E1089D6-9659-4320-8079-62E08D3CA16D}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3935,7 +3887,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3987,7 +3939,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4181,56 +4133,56 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FB88F2-ABE8-4DA7-90E5-1A631925DBBE}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:XFB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="Q73" sqref="Q73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="30" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="18"/>
-    <col min="6" max="6" width="8.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="27" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="30" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="18"/>
+    <col min="6" max="6" width="8.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="27" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="13" max="13" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.5" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="79" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="80">
         <f ca="1">TODAY()-43855</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="78">
         <f ca="1">TODAY()</f>
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -4239,7 +4191,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="25"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="75"/>
       <c r="B2" s="77"/>
       <c r="C2" s="76"/>
@@ -4250,7 +4202,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="25"/>
     </row>
-    <row r="3" spans="1:20" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="35.25" customHeight="1" thickBot="1">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
@@ -4280,7 +4232,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="16">
         <v>43885</v>
       </c>
@@ -4298,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="16">
         <v>43886</v>
       </c>
@@ -4316,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15" thickBot="1">
       <c r="A6" s="16">
         <v>43887</v>
       </c>
@@ -4337,7 +4289,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="16">
         <v>43888</v>
       </c>
@@ -4355,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="16">
         <v>43889</v>
       </c>
@@ -4373,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="16">
         <v>43890</v>
       </c>
@@ -4391,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="16">
         <v>43891</v>
       </c>
@@ -4411,7 +4363,7 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="16">
         <v>43892</v>
       </c>
@@ -4429,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="16">
         <v>43893</v>
       </c>
@@ -4447,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="16">
         <v>43894</v>
       </c>
@@ -4465,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="16">
         <v>43895</v>
       </c>
@@ -4483,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="16">
         <v>43896</v>
       </c>
@@ -4501,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="16">
         <v>43897</v>
       </c>
@@ -4519,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="16">
         <v>43898</v>
       </c>
@@ -4537,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="16">
         <v>43899</v>
       </c>
@@ -4555,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="16">
         <v>43900</v>
       </c>
@@ -4573,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="16">
         <v>43901</v>
       </c>
@@ -4591,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="16">
         <v>43902</v>
       </c>
@@ -4609,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="16">
         <v>43903</v>
       </c>
@@ -4627,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="16">
         <v>43904</v>
       </c>
@@ -4647,7 +4599,7 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="16">
         <v>43905</v>
       </c>
@@ -4667,7 +4619,7 @@
       <c r="S24" s="6"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="16">
         <v>43906</v>
       </c>
@@ -4685,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="16">
         <v>43907</v>
       </c>
@@ -4695,10 +4647,6 @@
       <c r="C26" s="30">
         <v>12</v>
       </c>
-      <c r="D26" s="18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
       <c r="E26" s="18">
         <v>1</v>
       </c>
@@ -4706,7 +4654,7 @@
         <v>11167</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="16">
         <v>43908</v>
       </c>
@@ -4737,7 +4685,7 @@
       </c>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="16">
         <v>43909</v>
       </c>
@@ -4770,7 +4718,7 @@
         <v>1.5982564475118054E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="16">
         <v>43910</v>
       </c>
@@ -4803,7 +4751,7 @@
         <v>2.0971688220901782E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="16">
         <v>43911</v>
       </c>
@@ -4824,7 +4772,7 @@
         <v>23384</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" ref="G30:H34" si="1">F30-F29</f>
+        <f t="shared" ref="G30:H35" si="1">F30-F29</f>
         <v>3873</v>
       </c>
       <c r="H30" s="15">
@@ -4832,11 +4780,11 @@
         <v>1012</v>
       </c>
       <c r="I30" s="27">
-        <f t="shared" ref="I30:I34" si="2">D30/G30</f>
+        <f t="shared" ref="I30:I35" si="2">D30/G30</f>
         <v>1.5233668990446682E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15" customHeight="1">
       <c r="A31" s="16">
         <v>43912</v>
       </c>
@@ -4844,10 +4792,6 @@
         <v>57</v>
       </c>
       <c r="C31" s="30">
-        <v>48</v>
-      </c>
-      <c r="D31" s="18">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="E31" s="18">
@@ -4866,23 +4810,23 @@
       </c>
       <c r="I31" s="27">
         <f t="shared" si="2"/>
-        <v>1.5810276679841896E-2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="24" t="str">
         <f ca="1">"Tests as of" &amp;  TEXT(TODAY()," mm-dd-yyyy")</f>
-        <v>Tests as of 03-25-2020</v>
+        <v>Tests as of 03-27-2020</v>
       </c>
       <c r="M31" s="8"/>
-      <c r="N31" s="89" t="s">
+      <c r="N31" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="16">
         <v>43913</v>
       </c>
@@ -4918,16 +4862,16 @@
         <v>6</v>
       </c>
       <c r="L32" s="64">
-        <v>24458</v>
+        <v>26727</v>
       </c>
       <c r="M32" s="8"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-    </row>
-    <row r="33" spans="1:20 16382:16382" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="90"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="91"/>
+    </row>
+    <row r="33" spans="1:20 16382:16382" ht="15" customHeight="1">
       <c r="A33" s="16">
         <v>43914</v>
       </c>
@@ -4963,7 +4907,7 @@
         <v>5</v>
       </c>
       <c r="L33" s="64">
-        <v>10489</v>
+        <v>10965</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="34" t="s">
@@ -4978,10 +4922,10 @@
       <c r="R33" s="36"/>
       <c r="XFB33">
         <f>SUM(B33:XFA33)</f>
-        <v>48993.161636316996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+        <v>49469.161636316996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20 16382:16382">
       <c r="A34" s="16">
         <v>43915</v>
       </c>
@@ -4992,7 +4936,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="18">
-        <f t="shared" ref="D28:D34" si="3">C34</f>
+        <f t="shared" ref="D34:D35" si="3">C34</f>
         <v>100</v>
       </c>
       <c r="E34" s="18">
@@ -5017,25 +4961,50 @@
         <v>4</v>
       </c>
       <c r="L34" s="65">
-        <v>671</v>
+        <v>835</v>
       </c>
       <c r="M34" s="8"/>
-      <c r="N34" s="89" t="str">
+      <c r="N34" s="90" t="str">
         <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;L37&amp;" total tests, finding "&amp;(L34+L35+L36)&amp;" positive:"</f>
-        <v>As of March 25, Ontario reported 35635 total tests, finding 688 positive:</v>
-      </c>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
-    </row>
-    <row r="35" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+        <v>As of March 27, Ontario reported 38550 total tests, finding 858 positive:</v>
+      </c>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+    </row>
+    <row r="35" spans="1:20 16382:16382">
       <c r="A35" s="16">
         <v>43916</v>
       </c>
       <c r="B35" s="17">
         <v>61</v>
       </c>
+      <c r="C35" s="30">
+        <v>170</v>
+      </c>
+      <c r="D35" s="18">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="E35" s="18">
+        <v>6</v>
+      </c>
+      <c r="F35" s="19">
+        <v>38550</v>
+      </c>
+      <c r="G35" s="19">
+        <f t="shared" si="1"/>
+        <v>2915</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" si="1"/>
+        <v>-263</v>
+      </c>
+      <c r="I35" s="27">
+        <f t="shared" si="2"/>
+        <v>5.8319039451114926E-2</v>
+      </c>
       <c r="K35" s="2" t="s">
         <v>7</v>
       </c>
@@ -5043,13 +5012,13 @@
         <v>8</v>
       </c>
       <c r="M35" s="8"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
-    </row>
-    <row r="36" spans="1:20 16382:16382" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="90"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="91"/>
+    </row>
+    <row r="36" spans="1:20 16382:16382" ht="14.25" customHeight="1">
       <c r="A36" s="16">
         <v>43917</v>
       </c>
@@ -5061,22 +5030,22 @@
       </c>
       <c r="L36" s="3">
         <f>SUM(E4:E424)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="37" t="str">
         <f>(L34+L35+L36)&amp;" / "&amp;L37&amp;" ="</f>
-        <v>688 / 35635 =</v>
+        <v>858 / 38550 =</v>
       </c>
       <c r="O36" s="38">
         <f>($L34+$L35+$L36)/(L37)</f>
-        <v>1.9306861231934896E-2</v>
+        <v>2.2256809338521401E-2</v>
       </c>
       <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
       <c r="R36" s="39"/>
     </row>
-    <row r="37" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20 16382:16382">
       <c r="A37" s="16">
         <v>43918</v>
       </c>
@@ -5088,7 +5057,7 @@
       </c>
       <c r="L37" s="3">
         <f>MAX(F4:F70)</f>
-        <v>35635</v>
+        <v>38550</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="41" t="s">
@@ -5099,7 +5068,7 @@
       <c r="Q37" s="40"/>
       <c r="R37" s="40"/>
     </row>
-    <row r="38" spans="1:20 16382:16382" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20 16382:16382" ht="15" customHeight="1">
       <c r="A38" s="16">
         <v>43919</v>
       </c>
@@ -5110,15 +5079,15 @@
         <v>10</v>
       </c>
       <c r="M38" s="8"/>
-      <c r="N38" s="91" t="s">
+      <c r="N38" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92"/>
-    </row>
-    <row r="39" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
+    </row>
+    <row r="39" spans="1:20 16382:16382">
       <c r="A39" s="16">
         <v>43920</v>
       </c>
@@ -5130,16 +5099,16 @@
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
       <c r="S39" s="70">
         <v>43913</v>
       </c>
     </row>
-    <row r="40" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20 16382:16382">
       <c r="A40" s="16">
         <v>43921</v>
       </c>
@@ -5149,13 +5118,13 @@
       <c r="K40" s="43"/>
       <c r="L40" s="43"/>
       <c r="M40" s="43"/>
-      <c r="N40" s="87" t="s">
+      <c r="N40" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
       <c r="S40">
         <v>6568</v>
       </c>
@@ -5163,20 +5132,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:20 16382:16382" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20 16382:16382" ht="15" customHeight="1">
       <c r="A41" s="16">
         <v>43922</v>
       </c>
       <c r="B41" s="17">
         <v>67</v>
       </c>
-      <c r="K41" s="88" t="s">
+      <c r="K41" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
       <c r="P41" s="45"/>
       <c r="Q41" s="45"/>
       <c r="R41" s="45"/>
@@ -5188,23 +5157,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20 16382:16382">
       <c r="A42" s="16">
         <v>43923</v>
       </c>
       <c r="B42" s="17">
         <v>68</v>
       </c>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="89"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="45"/>
       <c r="R42" s="45"/>
     </row>
-    <row r="43" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20 16382:16382">
       <c r="A43" s="16">
         <v>43924</v>
       </c>
@@ -5220,7 +5189,7 @@
       <c r="Q43" s="45"/>
       <c r="R43" s="45"/>
     </row>
-    <row r="44" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20 16382:16382">
       <c r="A44" s="16">
         <v>43925</v>
       </c>
@@ -5231,7 +5200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20 16382:16382">
       <c r="A45" s="16">
         <v>43926</v>
       </c>
@@ -5243,7 +5212,7 @@
       </c>
       <c r="L45" s="33"/>
     </row>
-    <row r="46" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20 16382:16382">
       <c r="A46" s="16">
         <v>43927</v>
       </c>
@@ -5257,7 +5226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20 16382:16382">
       <c r="A47" s="16">
         <v>43928</v>
       </c>
@@ -5271,7 +5240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:20 16382:16382" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20 16382:16382">
       <c r="A48" s="16">
         <v>43929</v>
       </c>
@@ -5285,7 +5254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="16">
         <v>43930</v>
       </c>
@@ -5299,7 +5268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" s="16">
         <v>43931</v>
       </c>
@@ -5313,7 +5282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" s="16">
         <v>43932</v>
       </c>
@@ -5327,7 +5296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="16">
         <v>43933</v>
       </c>
@@ -5341,7 +5310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" s="16">
         <v>43934</v>
       </c>
@@ -5355,7 +5324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" s="16">
         <v>43935</v>
       </c>
@@ -5372,7 +5341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" s="16">
         <v>43936</v>
       </c>
@@ -5383,7 +5352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" s="16">
         <v>43937</v>
       </c>
@@ -5391,7 +5360,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" s="16">
         <v>43938</v>
       </c>
@@ -5403,7 +5372,7 @@
       </c>
       <c r="L57" s="33"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" s="16">
         <v>43939</v>
       </c>
@@ -5420,7 +5389,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" s="16">
         <v>43940</v>
       </c>
@@ -5438,7 +5407,7 @@
       </c>
       <c r="N59" s="83"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" s="16">
         <v>43941</v>
       </c>
@@ -5455,7 +5424,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" s="16">
         <v>43942</v>
       </c>
@@ -5472,7 +5441,7 @@
         <v>6922</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" s="16">
         <v>43943</v>
       </c>
@@ -5489,7 +5458,7 @@
         <v>4528</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" s="16">
         <v>43944</v>
       </c>
@@ -5506,7 +5475,7 @@
         <v>11075</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" s="16">
         <v>43945</v>
       </c>
@@ -5523,7 +5492,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="16">
         <v>43946</v>
       </c>
@@ -5536,11 +5505,11 @@
       <c r="L65" s="28">
         <v>11</v>
       </c>
-      <c r="M65" s="93">
+      <c r="M65" s="87">
         <v>851</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="16">
         <v>43947</v>
       </c>
@@ -5554,7 +5523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" s="16">
         <v>43948</v>
       </c>
@@ -5565,7 +5534,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" s="16">
         <v>43949</v>
       </c>
@@ -5573,7 +5542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" s="16">
         <v>43950</v>
       </c>
@@ -5581,7 +5550,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" s="16">
         <v>43951</v>
       </c>
@@ -5597,7 +5566,7 @@
       <c r="O70" s="52"/>
       <c r="P70" s="53"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" s="16">
         <v>43952</v>
       </c>
@@ -5608,7 +5577,7 @@
         <v>49</v>
       </c>
       <c r="L71" s="72">
-        <v>0.17949999999999999</v>
+        <v>0.2054</v>
       </c>
       <c r="M71" s="73" t="s">
         <v>32</v>
@@ -5617,7 +5586,7 @@
       <c r="O71" s="5"/>
       <c r="P71" s="14"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" s="16">
         <v>43953</v>
       </c>
@@ -5625,7 +5594,7 @@
         <v>98</v>
       </c>
       <c r="K72" s="74">
-        <v>2.2000000000000001E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="L72" s="75" t="s">
         <v>31</v>
@@ -5635,7 +5604,7 @@
       <c r="O72" s="5"/>
       <c r="P72" s="14"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" s="16">
         <v>43954</v>
       </c>
@@ -5649,7 +5618,7 @@
       <c r="O73" s="5"/>
       <c r="P73" s="14"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" s="16">
         <v>43955</v>
       </c>
@@ -5666,14 +5635,14 @@
       </c>
       <c r="O74" s="77">
         <f ca="1">TODAY()-43855</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P74" s="76">
         <f ca="1">TODAY()</f>
-        <v>43915</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="K75" s="55" t="s">
         <v>34</v>
       </c>
@@ -5685,37 +5654,37 @@
       <c r="O75" s="5"/>
       <c r="P75" s="14"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="K76" s="55" t="s">
         <v>33</v>
       </c>
       <c r="L76" s="56">
         <f>LN($L75/$K72)/$L71</f>
-        <v>72.574112521448498</v>
+        <v>69.748472160322606</v>
       </c>
       <c r="M76" s="12" t="s">
         <v>35</v>
       </c>
       <c r="N76" s="81">
         <f ca="1">TODAY()+O76</f>
-        <v>43927.574112521448</v>
+        <v>43924.748472160325</v>
       </c>
       <c r="O76" s="57">
         <f ca="1">L76-O74</f>
-        <v>12.574112521448498</v>
+        <v>7.7484721603226063</v>
       </c>
       <c r="P76" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="K77" s="55"/>
       <c r="L77" s="12"/>
       <c r="M77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="14"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="K78" s="55" t="s">
         <v>34</v>
       </c>
@@ -5727,30 +5696,30 @@
       <c r="O78" s="5"/>
       <c r="P78" s="14"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="K79" s="55" t="s">
         <v>33</v>
       </c>
       <c r="L79" s="56">
         <f>LN($L78/$K72)/$L71</f>
-        <v>78.694515243833507</v>
+        <v>75.097120109047594</v>
       </c>
       <c r="M79" s="12" t="s">
         <v>35</v>
       </c>
       <c r="N79" s="81">
         <f ca="1">TODAY()+O79</f>
-        <v>43933.694515243835</v>
+        <v>43930.097120109051</v>
       </c>
       <c r="O79" s="57">
         <f ca="1">L79-O74</f>
-        <v>18.694515243833507</v>
+        <v>13.097120109047594</v>
       </c>
       <c r="P79" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="K80" s="58"/>
       <c r="L80" s="59"/>
       <c r="M80" s="60"/>
@@ -5758,7 +5727,7 @@
       <c r="O80" s="61"/>
       <c r="P80" s="62"/>
     </row>
-    <row r="83" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="12:15">
       <c r="L83" s="49"/>
       <c r="M83" s="48"/>
       <c r="O83" s="49"/>
@@ -5773,12 +5742,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K39" r:id="rId1" location="countries" xr:uid="{05359A71-443E-4E09-9D24-219893588AB0}"/>
-    <hyperlink ref="K38" r:id="rId2" location="section-0" xr:uid="{5341AA84-F072-4992-A3ED-A4DB86D58BA6}"/>
-    <hyperlink ref="K44" r:id="rId3" location="countries" xr:uid="{515FCB43-9788-417A-AF51-08C5BF469382}"/>
+    <hyperlink ref="K39" r:id="rId1" location="countries"/>
+    <hyperlink ref="K38" r:id="rId2" location="section-0"/>
+    <hyperlink ref="K44" r:id="rId3" location="countries"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId4"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="21405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="14900"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="27220" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,10 +190,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -511,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -690,6 +691,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -774,7 +776,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1600" baseline="0"/>
-              <a:t>03/25/2020</a:t>
+              <a:t>03/27/2020</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" sz="2000" baseline="0"/>
@@ -3215,7 +3217,7 @@
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="4885193"/>
-          <a:ext cx="1457227" cy="505456"/>
+          <a:ext cx="1344026" cy="505456"/>
           <a:chOff x="-98425" y="0"/>
           <a:chExt cx="920752" cy="533400"/>
         </a:xfrm>
@@ -3377,8 +3379,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3866658" y="4894148"/>
-          <a:ext cx="1552712" cy="505513"/>
+          <a:off x="3566287" y="4894148"/>
+          <a:ext cx="1432094" cy="505513"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3540,8 +3542,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7700791" y="4892121"/>
-          <a:ext cx="1168114" cy="516777"/>
+          <a:off x="7102576" y="4892121"/>
+          <a:ext cx="1077373" cy="516777"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
         </a:xfrm>
@@ -3700,8 +3702,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5790030" y="4885193"/>
-          <a:ext cx="1552713" cy="505512"/>
+          <a:off x="5340247" y="4885193"/>
+          <a:ext cx="1432095" cy="505512"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -4146,8 +4148,8 @@
   </sheetPr>
   <dimension ref="A1:XFB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="Q73" sqref="Q73"/>
+    <sheetView tabSelected="1" topLeftCell="I39" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4164,10 +4166,10 @@
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
     <col min="13" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" customWidth="1"/>
     <col min="15" max="15" width="10.5" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
     <col min="19" max="19" width="18.5" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
   </cols>
@@ -5637,7 +5639,7 @@
         <f ca="1">TODAY()-43855</f>
         <v>62</v>
       </c>
-      <c r="P74" s="76">
+      <c r="P74" s="94">
         <f ca="1">TODAY()</f>
         <v>43917</v>
       </c>

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="21405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="27220" windowHeight="14900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -660,9 +660,6 @@
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -691,7 +688,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1231,6 +1231,9 @@
                 <c:pt idx="31">
                   <c:v>170.0</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>132.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1582,6 +1585,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1908,6 +1914,9 @@
                 <c:pt idx="13">
                   <c:v>32.0</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.0</c:v>
+                </c:pt>
                 <c:pt idx="15">
                   <c:v>25.0</c:v>
                 </c:pt>
@@ -1919,6 +1928,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>78.0</c:v>
@@ -1950,8 +1962,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2127811800"/>
-        <c:axId val="2126634600"/>
+        <c:axId val="2085156360"/>
+        <c:axId val="2083299704"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2162,6 +2174,9 @@
                 <c:pt idx="8">
                   <c:v>2915.0</c:v>
                 </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2482.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2180,11 +2195,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126628712"/>
-        <c:axId val="2126636856"/>
+        <c:axId val="2083312680"/>
+        <c:axId val="2083306424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2127811800"/>
+        <c:axId val="2085156360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="65.0"/>
@@ -2285,16 +2300,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126634600"/>
+        <c:crossAx val="2083299704"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126634600"/>
+        <c:axId val="2083299704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="200.1"/>
+          <c:max val="220.1"/>
           <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2396,13 +2411,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127811800"/>
+        <c:crossAx val="2085156360"/>
         <c:crossesAt val="10000.0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126636856"/>
+        <c:axId val="2083306424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13000.0"/>
@@ -2490,13 +2505,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126628712"/>
+        <c:crossAx val="2083312680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1000.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126628712"/>
+        <c:axId val="2083312680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2506,7 +2521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126636856"/>
+        <c:crossAx val="2083306424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3171,7 +3186,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE214DC-0EE4-40AE-B9B8-4B3DD3AB7269}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE214DC-0EE4-40AE-B9B8-4B3DD3AB7269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3197,18 +3212,18 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0</cdr:x>
-      <cdr:y>0.86733</cdr:y>
+      <cdr:y>0.87485</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.15368</cdr:x>
-      <cdr:y>0.95707</cdr:y>
+      <cdr:y>0.96459</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
         <cdr:cNvPr id="7" name="Group 6">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25F107B8-46BB-4401-AC67-1A91B962BB66}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F107B8-46BB-4401-AC67-1A91B962BB66}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3216,8 +3231,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="4885193"/>
-          <a:ext cx="1344026" cy="505456"/>
+          <a:off x="0" y="5038631"/>
+          <a:ext cx="1378637" cy="516853"/>
           <a:chOff x="-98425" y="0"/>
           <a:chExt cx="920752" cy="533400"/>
         </a:xfrm>
@@ -3227,7 +3242,7 @@
           <cdr:cNvPr id="8" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D9AC2C2-927E-460A-8D4E-51108B1586E6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9AC2C2-927E-460A-8D4E-51108B1586E6}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3325,7 +3340,7 @@
           <cdr:cNvPr id="9" name="Straight Connector 8">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3827D673-01B5-4B4A-BD1E-55B47915711F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3827D673-01B5-4B4A-BD1E-55B47915711F}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3359,19 +3374,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.40778</cdr:x>
-      <cdr:y>0.86892</cdr:y>
+      <cdr:x>0.37002</cdr:x>
+      <cdr:y>0.87493</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.57153</cdr:x>
-      <cdr:y>0.95867</cdr:y>
+      <cdr:x>0.53377</cdr:x>
+      <cdr:y>0.96468</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
         <cdr:cNvPr id="13" name="Group 12">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0824A2B-C99A-46CE-8BC3-444E1092098C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0824A2B-C99A-46CE-8BC3-444E1092098C}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3379,8 +3394,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3566287" y="4894148"/>
-          <a:ext cx="1432094" cy="505513"/>
+          <a:off x="3319421" y="5039130"/>
+          <a:ext cx="1468973" cy="516912"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3390,7 +3405,7 @@
           <cdr:cNvPr id="14" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33EA23D1-4581-4012-A558-92CC0C465CD9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EA23D1-4581-4012-A558-92CC0C465CD9}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3488,7 +3503,7 @@
           <cdr:cNvPr id="15" name="Straight Connector 14">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D264BD3-4391-4C3D-91CE-20FA038FA4A7}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D264BD3-4391-4C3D-91CE-20FA038FA4A7}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3522,19 +3537,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.81213</cdr:x>
-      <cdr:y>0.86856</cdr:y>
+      <cdr:x>0.78986</cdr:x>
+      <cdr:y>0.87457</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.93532</cdr:x>
-      <cdr:y>0.96031</cdr:y>
+      <cdr:x>0.91305</cdr:x>
+      <cdr:y>0.96632</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
         <cdr:cNvPr id="22" name="Group 21">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC43EB90-B5A7-4C7C-8658-B6AA0D39751F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC43EB90-B5A7-4C7C-8658-B6AA0D39751F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3542,8 +3557,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7102576" y="4892121"/>
-          <a:ext cx="1077373" cy="516777"/>
+          <a:off x="7085731" y="5037059"/>
+          <a:ext cx="1105117" cy="528429"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
         </a:xfrm>
@@ -3553,7 +3568,7 @@
           <cdr:cNvPr id="23" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07120820-EFB4-4B27-8139-703BA371CAB9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07120820-EFB4-4B27-8139-703BA371CAB9}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3648,7 +3663,7 @@
           <cdr:cNvPr id="24" name="Straight Connector 23">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6850518F-1263-43CF-8C42-21A1BACE3201}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6850518F-1263-43CF-8C42-21A1BACE3201}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3682,19 +3697,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.61062</cdr:x>
-      <cdr:y>0.86733</cdr:y>
+      <cdr:x>0.55447</cdr:x>
+      <cdr:y>0.87485</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.77437</cdr:x>
-      <cdr:y>0.95708</cdr:y>
+      <cdr:x>0.71822</cdr:x>
+      <cdr:y>0.9646</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
         <cdr:cNvPr id="16" name="Group 15">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC1A4C6E-3C6F-4025-B829-0C68F16F5033}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1A4C6E-3C6F-4025-B829-0C68F16F5033}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3702,8 +3717,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5340247" y="4885193"/>
-          <a:ext cx="1432095" cy="505512"/>
+          <a:off x="4974055" y="5038631"/>
+          <a:ext cx="1468973" cy="516911"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3713,7 +3728,7 @@
           <cdr:cNvPr id="17" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA4CC128-501F-4C41-8146-7E7DDCFCE59F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4CC128-501F-4C41-8146-7E7DDCFCE59F}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3811,7 +3826,7 @@
           <cdr:cNvPr id="18" name="Straight Connector 17">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E1089D6-9659-4320-8079-62E08D3CA16D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1089D6-9659-4320-8079-62E08D3CA16D}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -4135,7 +4150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4148,8 +4163,8 @@
   </sheetPr>
   <dimension ref="A1:XFB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I39" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4168,7 +4183,7 @@
     <col min="13" max="13" width="6.5" customWidth="1"/>
     <col min="14" max="14" width="21.6640625" customWidth="1"/>
     <col min="15" max="15" width="10.5" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
     <col min="19" max="19" width="18.5" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
@@ -4632,7 +4647,7 @@
         <v>32</v>
       </c>
       <c r="D25" s="18">
-        <f t="shared" si="0"/>
+        <f>C25</f>
         <v>32</v>
       </c>
       <c r="E25" s="18">
@@ -4647,6 +4662,10 @@
         <v>52</v>
       </c>
       <c r="C26" s="30">
+        <v>12</v>
+      </c>
+      <c r="D26" s="18">
+        <f>C26</f>
         <v>12</v>
       </c>
       <c r="E26" s="18">
@@ -4774,7 +4793,7 @@
         <v>23384</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" ref="G30:H35" si="1">F30-F29</f>
+        <f t="shared" ref="G30:H36" si="1">F30-F29</f>
         <v>3873</v>
       </c>
       <c r="H30" s="15">
@@ -4782,7 +4801,7 @@
         <v>1012</v>
       </c>
       <c r="I30" s="27">
-        <f t="shared" ref="I30:I35" si="2">D30/G30</f>
+        <f t="shared" ref="I30:I36" si="2">D30/G30</f>
         <v>1.5233668990446682E-2</v>
       </c>
     </row>
@@ -4796,6 +4815,10 @@
       <c r="C31" s="30">
         <v>48</v>
       </c>
+      <c r="D31" s="18">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
       <c r="E31" s="18">
         <v>2</v>
       </c>
@@ -4812,7 +4835,7 @@
       </c>
       <c r="I31" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5810276679841896E-2</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="24" t="str">
@@ -4820,13 +4843,13 @@
         <v>Tests as of 03-27-2020</v>
       </c>
       <c r="M31" s="8"/>
-      <c r="N31" s="90" t="s">
+      <c r="N31" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="91"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="90"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="16">
@@ -4864,14 +4887,14 @@
         <v>6</v>
       </c>
       <c r="L32" s="64">
-        <v>26727</v>
+        <v>29967</v>
       </c>
       <c r="M32" s="8"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="90"/>
     </row>
     <row r="33" spans="1:20 16382:16382" ht="15" customHeight="1">
       <c r="A33" s="16">
@@ -4909,7 +4932,7 @@
         <v>5</v>
       </c>
       <c r="L33" s="64">
-        <v>10965</v>
+        <v>10074</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="34" t="s">
@@ -4924,7 +4947,7 @@
       <c r="R33" s="36"/>
       <c r="XFB33">
         <f>SUM(B33:XFA33)</f>
-        <v>49469.161636316996</v>
+        <v>48578.161636316996</v>
       </c>
     </row>
     <row r="34" spans="1:20 16382:16382">
@@ -4938,7 +4961,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="18">
-        <f t="shared" ref="D34:D35" si="3">C34</f>
+        <f t="shared" ref="D34:D36" si="3">C34</f>
         <v>100</v>
       </c>
       <c r="E34" s="18">
@@ -4963,17 +4986,17 @@
         <v>4</v>
       </c>
       <c r="L34" s="65">
-        <v>835</v>
+        <v>967</v>
       </c>
       <c r="M34" s="8"/>
-      <c r="N34" s="90" t="str">
+      <c r="N34" s="89" t="str">
         <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;L37&amp;" total tests, finding "&amp;(L34+L35+L36)&amp;" positive:"</f>
-        <v>As of March 27, Ontario reported 38550 total tests, finding 858 positive:</v>
-      </c>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
+        <v>As of March 27, Ontario reported 41032 total tests, finding 993 positive:</v>
+      </c>
+      <c r="O34" s="90"/>
+      <c r="P34" s="90"/>
+      <c r="Q34" s="90"/>
+      <c r="R34" s="90"/>
     </row>
     <row r="35" spans="1:20 16382:16382">
       <c r="A35" s="16">
@@ -5014,11 +5037,11 @@
         <v>8</v>
       </c>
       <c r="M35" s="8"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
+      <c r="N35" s="89"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="90"/>
+      <c r="R35" s="90"/>
     </row>
     <row r="36" spans="1:20 16382:16382" ht="14.25" customHeight="1">
       <c r="A36" s="16">
@@ -5027,21 +5050,46 @@
       <c r="B36" s="17">
         <v>62</v>
       </c>
+      <c r="C36" s="30">
+        <v>132</v>
+      </c>
+      <c r="D36" s="18">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="E36" s="18">
+        <v>3</v>
+      </c>
+      <c r="F36" s="19">
+        <v>41032</v>
+      </c>
+      <c r="G36" s="18">
+        <f t="shared" si="1"/>
+        <v>2482</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="1"/>
+        <v>-433</v>
+      </c>
+      <c r="I36" s="27">
+        <f t="shared" si="2"/>
+        <v>5.3182917002417403E-2</v>
+      </c>
       <c r="K36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L36" s="3">
         <f>SUM(E4:E424)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="37" t="str">
         <f>(L34+L35+L36)&amp;" / "&amp;L37&amp;" ="</f>
-        <v>858 / 38550 =</v>
+        <v>993 / 41032 =</v>
       </c>
       <c r="O36" s="38">
         <f>($L34+$L35+$L36)/(L37)</f>
-        <v>2.2256809338521401E-2</v>
+        <v>2.4200623903294988E-2</v>
       </c>
       <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
@@ -5059,7 +5107,7 @@
       </c>
       <c r="L37" s="3">
         <f>MAX(F4:F70)</f>
-        <v>38550</v>
+        <v>41032</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="41" t="s">
@@ -5081,13 +5129,13 @@
         <v>10</v>
       </c>
       <c r="M38" s="8"/>
-      <c r="N38" s="92" t="s">
+      <c r="N38" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="93"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
     </row>
     <row r="39" spans="1:20 16382:16382">
       <c r="A39" s="16">
@@ -5101,11 +5149,11 @@
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="93"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
       <c r="S39" s="70">
         <v>43913</v>
       </c>
@@ -5120,13 +5168,13 @@
       <c r="K40" s="43"/>
       <c r="L40" s="43"/>
       <c r="M40" s="43"/>
-      <c r="N40" s="88" t="s">
+      <c r="N40" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
       <c r="S40">
         <v>6568</v>
       </c>
@@ -5141,13 +5189,13 @@
       <c r="B41" s="17">
         <v>67</v>
       </c>
-      <c r="K41" s="89" t="s">
+      <c r="K41" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
       <c r="P41" s="45"/>
       <c r="Q41" s="45"/>
       <c r="R41" s="45"/>
@@ -5166,11 +5214,11 @@
       <c r="B42" s="17">
         <v>68</v>
       </c>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="45"/>
       <c r="R42" s="45"/>
@@ -5404,10 +5452,10 @@
       <c r="L59" s="63">
         <v>27</v>
       </c>
-      <c r="M59" s="83" t="s">
+      <c r="M59" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="N59" s="83"/>
+      <c r="N59" s="82"/>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="16">
@@ -5422,7 +5470,7 @@
       <c r="L60" s="63">
         <v>27</v>
       </c>
-      <c r="M60" s="84">
+      <c r="M60" s="83">
         <v>1762</v>
       </c>
     </row>
@@ -5439,7 +5487,7 @@
       <c r="L61" s="63">
         <v>18</v>
       </c>
-      <c r="M61" s="84">
+      <c r="M61" s="83">
         <v>6922</v>
       </c>
     </row>
@@ -5456,7 +5504,7 @@
       <c r="L62" s="63">
         <v>16</v>
       </c>
-      <c r="M62" s="84">
+      <c r="M62" s="83">
         <v>4528</v>
       </c>
     </row>
@@ -5473,7 +5521,7 @@
       <c r="L63" s="63">
         <v>19</v>
       </c>
-      <c r="M63" s="84">
+      <c r="M63" s="83">
         <v>11075</v>
       </c>
     </row>
@@ -5490,7 +5538,7 @@
       <c r="L64" s="63">
         <v>18</v>
       </c>
-      <c r="M64" s="84">
+      <c r="M64" s="83">
         <v>3838</v>
       </c>
     </row>
@@ -5507,7 +5555,7 @@
       <c r="L65" s="28">
         <v>11</v>
       </c>
-      <c r="M65" s="87">
+      <c r="M65" s="86">
         <v>851</v>
       </c>
     </row>
@@ -5575,11 +5623,11 @@
       <c r="B71" s="17">
         <v>97</v>
       </c>
-      <c r="K71" s="85" t="s">
+      <c r="K71" s="84" t="s">
         <v>49</v>
       </c>
       <c r="L71" s="72">
-        <v>0.2054</v>
+        <v>0.20080000000000001</v>
       </c>
       <c r="M71" s="73" t="s">
         <v>32</v>
@@ -5596,7 +5644,7 @@
         <v>98</v>
       </c>
       <c r="K72" s="74">
-        <v>5.9999999999999995E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="L72" s="75" t="s">
         <v>31</v>
@@ -5613,7 +5661,7 @@
       <c r="B73" s="17">
         <v>99</v>
       </c>
-      <c r="K73" s="86"/>
+      <c r="K73" s="85"/>
       <c r="L73" s="75"/>
       <c r="M73" s="73"/>
       <c r="N73" s="5"/>
@@ -5639,7 +5687,7 @@
         <f ca="1">TODAY()-43855</f>
         <v>62</v>
       </c>
-      <c r="P74" s="94">
+      <c r="P74" s="93">
         <f ca="1">TODAY()</f>
         <v>43917</v>
       </c>
@@ -5662,18 +5710,18 @@
       </c>
       <c r="L76" s="56">
         <f>LN($L75/$K72)/$L71</f>
-        <v>69.748472160322606</v>
+        <v>70.578613057285892</v>
       </c>
       <c r="M76" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N76" s="81">
+      <c r="N76" s="94">
         <f ca="1">TODAY()+O76</f>
-        <v>43924.748472160325</v>
+        <v>43925.578613057289</v>
       </c>
       <c r="O76" s="57">
         <f ca="1">L76-O74</f>
-        <v>7.7484721603226063</v>
+        <v>8.5786130572858923</v>
       </c>
       <c r="P76" s="14" t="s">
         <v>36</v>
@@ -5704,18 +5752,18 @@
       </c>
       <c r="L79" s="56">
         <f>LN($L78/$K72)/$L71</f>
-        <v>75.097120109047594</v>
+        <v>76.049789793680858</v>
       </c>
       <c r="M79" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N79" s="81">
+      <c r="N79" s="94">
         <f ca="1">TODAY()+O79</f>
-        <v>43930.097120109051</v>
+        <v>43931.04978979368</v>
       </c>
       <c r="O79" s="57">
         <f ca="1">L79-O74</f>
-        <v>13.097120109047594</v>
+        <v>14.049789793680858</v>
       </c>
       <c r="P79" s="14" t="s">
         <v>36</v>
@@ -5725,7 +5773,7 @@
       <c r="K80" s="58"/>
       <c r="L80" s="59"/>
       <c r="M80" s="60"/>
-      <c r="N80" s="82"/>
+      <c r="N80" s="81"/>
       <c r="O80" s="61"/>
       <c r="P80" s="62"/>
     </row>

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="21405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="25600" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1234,6 +1234,9 @@
                 <c:pt idx="32">
                   <c:v>132.0</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>150.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1588,6 +1591,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,8 +1652,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0142618043796835"/>
-                  <c:y val="0.0104727339704546"/>
+                  <c:x val="-0.0447630677691891"/>
+                  <c:y val="-0.000651096579029316"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1682,185 +1688,197 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$B$70</c:f>
+              <c:f>Sheet1!$B$8:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>38.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>39.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>40.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>41.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>42.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>43.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>44.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>46.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>47.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>48.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>49.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>50.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>51.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>52.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>53.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>54.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>55.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>56.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>57.0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>58.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>59.0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>61.0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>62.0</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>63.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>64.0</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="31">
                   <c:v>65.0</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="32">
                   <c:v>66.0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>67.0</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>68.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>69.0</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>70.0</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
                   <c:v>71.0</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="38">
                   <c:v>72.0</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="39">
                   <c:v>73.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>74.0</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="41">
                   <c:v>75.0</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>76.0</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>77.0</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="44">
                   <c:v>78.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="45">
                   <c:v>79.0</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
                   <c:v>80.0</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="47">
                   <c:v>81.0</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="48">
                   <c:v>82.0</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
                   <c:v>83.0</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>84.0</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="51">
                   <c:v>85.0</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="52">
                   <c:v>86.0</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="53">
                   <c:v>87.0</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="54">
                   <c:v>88.0</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="55">
                   <c:v>89.0</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="56">
                   <c:v>90.0</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="57">
                   <c:v>91.0</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="58">
                   <c:v>92.0</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="59">
                   <c:v>93.0</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>94.0</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="61">
                   <c:v>95.0</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="62">
                   <c:v>96.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1868,81 +1886,99 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$12:$D$35</c:f>
+              <c:f>Sheet1!$D$8:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>18.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>43.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>32.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>44.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>60.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>59.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>48.0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
                   <c:v>78.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="25">
                   <c:v>85.0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>100.0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2174,8 +2210,11 @@
                 <c:pt idx="8">
                   <c:v>2915.0</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>2482.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2040.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3231,8 +3270,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="5038631"/>
-          <a:ext cx="1378637" cy="516853"/>
+          <a:off x="0" y="4916415"/>
+          <a:ext cx="1245138" cy="504317"/>
           <a:chOff x="-98425" y="0"/>
           <a:chExt cx="920752" cy="533400"/>
         </a:xfrm>
@@ -3394,8 +3433,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3319421" y="5039130"/>
-          <a:ext cx="1468973" cy="516912"/>
+          <a:off x="2997989" y="4916902"/>
+          <a:ext cx="1326726" cy="504374"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3557,8 +3596,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7085731" y="5037059"/>
-          <a:ext cx="1105117" cy="528429"/>
+          <a:off x="6399592" y="4914881"/>
+          <a:ext cx="998104" cy="515612"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
         </a:xfrm>
@@ -3717,8 +3756,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4974055" y="5038631"/>
-          <a:ext cx="1468973" cy="516911"/>
+          <a:off x="4492398" y="4916415"/>
+          <a:ext cx="1326727" cy="504373"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -4163,8 +4202,8 @@
   </sheetPr>
   <dimension ref="A1:XFB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N72" sqref="N72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4181,11 +4220,11 @@
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
     <col min="13" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
     <col min="16" max="16" width="14.6640625" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="18.5" customWidth="1"/>
+    <col min="19" max="19" width="9.83203125" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4195,11 +4234,11 @@
       </c>
       <c r="B1" s="80">
         <f ca="1">TODAY()-43855</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="78">
         <f ca="1">TODAY()</f>
-        <v>43917</v>
+        <v>43919</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -4793,7 +4832,7 @@
         <v>23384</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" ref="G30:H36" si="1">F30-F29</f>
+        <f t="shared" ref="G30:H43" si="1">F30-F29</f>
         <v>3873</v>
       </c>
       <c r="H30" s="15">
@@ -4801,7 +4840,7 @@
         <v>1012</v>
       </c>
       <c r="I30" s="27">
-        <f t="shared" ref="I30:I36" si="2">D30/G30</f>
+        <f t="shared" ref="I30:I37" si="2">D30/G30</f>
         <v>1.5233668990446682E-2</v>
       </c>
     </row>
@@ -4840,7 +4879,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="24" t="str">
         <f ca="1">"Tests as of" &amp;  TEXT(TODAY()," mm-dd-yyyy")</f>
-        <v>Tests as of 03-27-2020</v>
+        <v>Tests as of 03-29-2020</v>
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="89" t="s">
@@ -4887,7 +4926,7 @@
         <v>6</v>
       </c>
       <c r="L32" s="64">
-        <v>29967</v>
+        <v>33240</v>
       </c>
       <c r="M32" s="8"/>
       <c r="N32" s="89"/>
@@ -4932,7 +4971,7 @@
         <v>5</v>
       </c>
       <c r="L33" s="64">
-        <v>10074</v>
+        <v>8690</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="34" t="s">
@@ -4947,7 +4986,7 @@
       <c r="R33" s="36"/>
       <c r="XFB33">
         <f>SUM(B33:XFA33)</f>
-        <v>48578.161636316996</v>
+        <v>47194.161636316996</v>
       </c>
     </row>
     <row r="34" spans="1:20 16382:16382">
@@ -4961,7 +5000,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="18">
-        <f t="shared" ref="D34:D36" si="3">C34</f>
+        <f t="shared" ref="D34:D47" si="3">C34</f>
         <v>100</v>
       </c>
       <c r="E34" s="18">
@@ -4986,12 +5025,12 @@
         <v>4</v>
       </c>
       <c r="L34" s="65">
-        <v>967</v>
+        <v>1117</v>
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="89" t="str">
         <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;L37&amp;" total tests, finding "&amp;(L34+L35+L36)&amp;" positive:"</f>
-        <v>As of March 27, Ontario reported 41032 total tests, finding 993 positive:</v>
+        <v>As of March 29, Ontario reported 43072 total tests, finding 1144 positive:</v>
       </c>
       <c r="O34" s="90"/>
       <c r="P34" s="90"/>
@@ -5063,7 +5102,7 @@
       <c r="F36" s="19">
         <v>41032</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <f t="shared" si="1"/>
         <v>2482</v>
       </c>
@@ -5080,16 +5119,16 @@
       </c>
       <c r="L36" s="3">
         <f>SUM(E4:E424)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="37" t="str">
         <f>(L34+L35+L36)&amp;" / "&amp;L37&amp;" ="</f>
-        <v>993 / 41032 =</v>
+        <v>1144 / 43072 =</v>
       </c>
       <c r="O36" s="38">
         <f>($L34+$L35+$L36)/(L37)</f>
-        <v>2.4200623903294988E-2</v>
+        <v>2.6560178306092124E-2</v>
       </c>
       <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
@@ -5102,12 +5141,37 @@
       <c r="B37" s="17">
         <v>63</v>
       </c>
+      <c r="C37" s="30">
+        <v>150</v>
+      </c>
+      <c r="D37" s="18">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="E37" s="18">
+        <v>1</v>
+      </c>
+      <c r="F37" s="19">
+        <v>43072</v>
+      </c>
+      <c r="G37" s="19">
+        <f t="shared" si="1"/>
+        <v>2040</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="1"/>
+        <v>-442</v>
+      </c>
+      <c r="I37" s="27">
+        <f t="shared" si="2"/>
+        <v>7.3529411764705885E-2</v>
+      </c>
       <c r="K37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="3">
         <f>MAX(F4:F70)</f>
-        <v>41032</v>
+        <v>43072</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="41" t="s">
@@ -5125,6 +5189,7 @@
       <c r="B38" s="17">
         <v>64</v>
       </c>
+      <c r="G38" s="19"/>
       <c r="K38" s="47" t="s">
         <v>10</v>
       </c>
@@ -5144,6 +5209,7 @@
       <c r="B39" s="17">
         <v>65</v>
       </c>
+      <c r="G39" s="19"/>
       <c r="K39" s="46" t="s">
         <v>18</v>
       </c>
@@ -5165,6 +5231,7 @@
       <c r="B40" s="17">
         <v>66</v>
       </c>
+      <c r="G40" s="19"/>
       <c r="K40" s="43"/>
       <c r="L40" s="43"/>
       <c r="M40" s="43"/>
@@ -5189,6 +5256,7 @@
       <c r="B41" s="17">
         <v>67</v>
       </c>
+      <c r="G41" s="19"/>
       <c r="K41" s="88" t="s">
         <v>27</v>
       </c>
@@ -5214,6 +5282,7 @@
       <c r="B42" s="17">
         <v>68</v>
       </c>
+      <c r="G42" s="19"/>
       <c r="K42" s="88"/>
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
@@ -5230,6 +5299,7 @@
       <c r="B43" s="17">
         <v>69</v>
       </c>
+      <c r="G43" s="19"/>
       <c r="K43" s="45"/>
       <c r="L43" s="45"/>
       <c r="M43" s="45"/>
@@ -5627,7 +5697,7 @@
         <v>49</v>
       </c>
       <c r="L71" s="72">
-        <v>0.20080000000000001</v>
+        <v>0.17349999999999999</v>
       </c>
       <c r="M71" s="73" t="s">
         <v>32</v>
@@ -5644,7 +5714,7 @@
         <v>98</v>
       </c>
       <c r="K72" s="74">
-        <v>6.9999999999999999E-4</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="L72" s="75" t="s">
         <v>31</v>
@@ -5685,11 +5755,11 @@
       </c>
       <c r="O74" s="77">
         <f ca="1">TODAY()-43855</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P74" s="93">
         <f ca="1">TODAY()</f>
-        <v>43917</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5710,18 +5780,18 @@
       </c>
       <c r="L76" s="56">
         <f>LN($L75/$K72)/$L71</f>
-        <v>70.578613057285892</v>
+        <v>73.107253293793505</v>
       </c>
       <c r="M76" s="12" t="s">
         <v>35</v>
       </c>
       <c r="N76" s="94">
         <f ca="1">TODAY()+O76</f>
-        <v>43925.578613057289</v>
+        <v>43928.107253293791</v>
       </c>
       <c r="O76" s="57">
         <f ca="1">L76-O74</f>
-        <v>8.5786130572858923</v>
+        <v>9.1072532937935051</v>
       </c>
       <c r="P76" s="14" t="s">
         <v>36</v>
@@ -5752,18 +5822,18 @@
       </c>
       <c r="L79" s="56">
         <f>LN($L78/$K72)/$L71</f>
-        <v>76.049789793680858</v>
+        <v>79.439312594474259</v>
       </c>
       <c r="M79" s="12" t="s">
         <v>35</v>
       </c>
       <c r="N79" s="94">
         <f ca="1">TODAY()+O79</f>
-        <v>43931.04978979368</v>
+        <v>43934.439312594477</v>
       </c>
       <c r="O79" s="57">
         <f ca="1">L79-O74</f>
-        <v>14.049789793680858</v>
+        <v>15.439312594474259</v>
       </c>
       <c r="P79" s="14" t="s">
         <v>36</v>

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="21405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="25600" windowHeight="14900"/>
+    <workbookView xWindow="660" yWindow="0" windowWidth="25600" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="170" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -670,6 +670,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -687,10 +691,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -776,7 +776,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1600" baseline="0"/>
-              <a:t>03/27/2020</a:t>
+              <a:t>03/29/2020</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" sz="2000" baseline="0"/>
@@ -1237,6 +1237,9 @@
                 <c:pt idx="33">
                   <c:v>150.0</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>207.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1594,6 +1597,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,8 +2004,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2085156360"/>
-        <c:axId val="2083299704"/>
+        <c:axId val="2110919400"/>
+        <c:axId val="2112135048"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2216,6 +2222,9 @@
                 <c:pt idx="10">
                   <c:v>2040.0</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>6114.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2234,14 +2243,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083312680"/>
-        <c:axId val="2083306424"/>
+        <c:axId val="2112122072"/>
+        <c:axId val="2112128328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2085156360"/>
+        <c:axId val="2110919400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="65.0"/>
+          <c:max val="68.0"/>
           <c:min val="33.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2339,13 +2348,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083299704"/>
+        <c:crossAx val="2112135048"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083299704"/>
+        <c:axId val="2112135048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="220.1"/>
@@ -2450,13 +2459,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085156360"/>
+        <c:crossAx val="2110919400"/>
         <c:crossesAt val="10000.0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083306424"/>
+        <c:axId val="2112128328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13000.0"/>
@@ -2544,13 +2553,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083312680"/>
+        <c:crossAx val="2112122072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1000.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083312680"/>
+        <c:axId val="2112122072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083306424"/>
+        <c:crossAx val="2112128328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3225,7 +3234,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE214DC-0EE4-40AE-B9B8-4B3DD3AB7269}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE214DC-0EE4-40AE-B9B8-4B3DD3AB7269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3262,7 +3271,7 @@
         <cdr:cNvPr id="7" name="Group 6">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F107B8-46BB-4401-AC67-1A91B962BB66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25F107B8-46BB-4401-AC67-1A91B962BB66}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3270,8 +3279,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="4916415"/>
-          <a:ext cx="1245138" cy="504317"/>
+          <a:off x="0" y="4927549"/>
+          <a:ext cx="1247741" cy="505456"/>
           <a:chOff x="-98425" y="0"/>
           <a:chExt cx="920752" cy="533400"/>
         </a:xfrm>
@@ -3281,7 +3290,7 @@
           <cdr:cNvPr id="8" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9AC2C2-927E-460A-8D4E-51108B1586E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D9AC2C2-927E-460A-8D4E-51108B1586E6}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3379,7 +3388,7 @@
           <cdr:cNvPr id="9" name="Straight Connector 8">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3827D673-01B5-4B4A-BD1E-55B47915711F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3827D673-01B5-4B4A-BD1E-55B47915711F}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3425,7 +3434,7 @@
         <cdr:cNvPr id="13" name="Group 12">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0824A2B-C99A-46CE-8BC3-444E1092098C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0824A2B-C99A-46CE-8BC3-444E1092098C}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3433,8 +3442,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2997989" y="4916902"/>
-          <a:ext cx="1326726" cy="504374"/>
+          <a:off x="3004223" y="4927999"/>
+          <a:ext cx="1329499" cy="505513"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3444,7 +3453,7 @@
           <cdr:cNvPr id="14" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EA23D1-4581-4012-A558-92CC0C465CD9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33EA23D1-4581-4012-A558-92CC0C465CD9}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3542,7 +3551,7 @@
           <cdr:cNvPr id="15" name="Straight Connector 14">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D264BD3-4391-4C3D-91CE-20FA038FA4A7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D264BD3-4391-4C3D-91CE-20FA038FA4A7}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3588,7 +3597,7 @@
         <cdr:cNvPr id="22" name="Group 21">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC43EB90-B5A7-4C7C-8658-B6AA0D39751F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC43EB90-B5A7-4C7C-8658-B6AA0D39751F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3596,8 +3605,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6399592" y="4914881"/>
-          <a:ext cx="998104" cy="515612"/>
+          <a:off x="6412938" y="4925972"/>
+          <a:ext cx="1000190" cy="516777"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
         </a:xfrm>
@@ -3607,7 +3616,7 @@
           <cdr:cNvPr id="23" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07120820-EFB4-4B27-8139-703BA371CAB9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07120820-EFB4-4B27-8139-703BA371CAB9}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3702,7 +3711,7 @@
           <cdr:cNvPr id="24" name="Straight Connector 23">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6850518F-1263-43CF-8C42-21A1BACE3201}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6850518F-1263-43CF-8C42-21A1BACE3201}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3748,7 +3757,7 @@
         <cdr:cNvPr id="16" name="Group 15">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1A4C6E-3C6F-4025-B829-0C68F16F5033}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC1A4C6E-3C6F-4025-B829-0C68F16F5033}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3756,8 +3765,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4492398" y="4916415"/>
-          <a:ext cx="1326727" cy="504373"/>
+          <a:off x="4501787" y="4927549"/>
+          <a:ext cx="1329500" cy="505512"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3767,7 +3776,7 @@
           <cdr:cNvPr id="17" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4CC128-501F-4C41-8146-7E7DDCFCE59F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA4CC128-501F-4C41-8146-7E7DDCFCE59F}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3865,7 +3874,7 @@
           <cdr:cNvPr id="18" name="Straight Connector 17">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1089D6-9659-4320-8079-62E08D3CA16D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E1089D6-9659-4320-8079-62E08D3CA16D}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -4189,7 +4198,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4202,8 +4211,8 @@
   </sheetPr>
   <dimension ref="A1:XFB83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4832,7 +4841,7 @@
         <v>23384</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" ref="G30:H43" si="1">F30-F29</f>
+        <f t="shared" ref="G30:H38" si="1">F30-F29</f>
         <v>3873</v>
       </c>
       <c r="H30" s="15">
@@ -4840,7 +4849,7 @@
         <v>1012</v>
       </c>
       <c r="I30" s="27">
-        <f t="shared" ref="I30:I37" si="2">D30/G30</f>
+        <f t="shared" ref="I30:I38" si="2">D30/G30</f>
         <v>1.5233668990446682E-2</v>
       </c>
     </row>
@@ -4882,13 +4891,13 @@
         <v>Tests as of 03-29-2020</v>
       </c>
       <c r="M31" s="8"/>
-      <c r="N31" s="89" t="s">
+      <c r="N31" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="16">
@@ -4926,14 +4935,14 @@
         <v>6</v>
       </c>
       <c r="L32" s="64">
-        <v>33240</v>
+        <v>40630</v>
       </c>
       <c r="M32" s="8"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
     </row>
     <row r="33" spans="1:20 16382:16382" ht="15" customHeight="1">
       <c r="A33" s="16">
@@ -4971,7 +4980,7 @@
         <v>5</v>
       </c>
       <c r="L33" s="64">
-        <v>8690</v>
+        <v>7203</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="34" t="s">
@@ -4986,7 +4995,7 @@
       <c r="R33" s="36"/>
       <c r="XFB33">
         <f>SUM(B33:XFA33)</f>
-        <v>47194.161636316996</v>
+        <v>45707.161636316996</v>
       </c>
     </row>
     <row r="34" spans="1:20 16382:16382">
@@ -5000,7 +5009,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="18">
-        <f t="shared" ref="D34:D47" si="3">C34</f>
+        <f t="shared" ref="D34:D38" si="3">C34</f>
         <v>100</v>
       </c>
       <c r="E34" s="18">
@@ -5025,17 +5034,17 @@
         <v>4</v>
       </c>
       <c r="L34" s="65">
-        <v>1117</v>
+        <v>1324</v>
       </c>
       <c r="M34" s="8"/>
-      <c r="N34" s="89" t="str">
+      <c r="N34" s="91" t="str">
         <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;L37&amp;" total tests, finding "&amp;(L34+L35+L36)&amp;" positive:"</f>
-        <v>As of March 29, Ontario reported 43072 total tests, finding 1144 positive:</v>
-      </c>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
+        <v>As of March 29, Ontario reported 49186 total tests, finding 1355 positive:</v>
+      </c>
+      <c r="O34" s="92"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="92"/>
+      <c r="R34" s="92"/>
     </row>
     <row r="35" spans="1:20 16382:16382">
       <c r="A35" s="16">
@@ -5061,7 +5070,7 @@
         <f t="shared" si="1"/>
         <v>2915</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="15">
         <f t="shared" si="1"/>
         <v>-263</v>
       </c>
@@ -5076,11 +5085,11 @@
         <v>8</v>
       </c>
       <c r="M35" s="8"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
     </row>
     <row r="36" spans="1:20 16382:16382" ht="14.25" customHeight="1">
       <c r="A36" s="16">
@@ -5106,7 +5115,7 @@
         <f t="shared" si="1"/>
         <v>2482</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="15">
         <f t="shared" si="1"/>
         <v>-433</v>
       </c>
@@ -5119,16 +5128,16 @@
       </c>
       <c r="L36" s="3">
         <f>SUM(E4:E424)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="37" t="str">
         <f>(L34+L35+L36)&amp;" / "&amp;L37&amp;" ="</f>
-        <v>1144 / 43072 =</v>
+        <v>1355 / 49186 =</v>
       </c>
       <c r="O36" s="38">
         <f>($L34+$L35+$L36)/(L37)</f>
-        <v>2.6560178306092124E-2</v>
+        <v>2.7548489407554996E-2</v>
       </c>
       <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
@@ -5158,7 +5167,7 @@
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="15">
         <f t="shared" si="1"/>
         <v>-442</v>
       </c>
@@ -5171,7 +5180,7 @@
       </c>
       <c r="L37" s="3">
         <f>MAX(F4:F70)</f>
-        <v>43072</v>
+        <v>49186</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="41" t="s">
@@ -5189,18 +5198,42 @@
       <c r="B38" s="17">
         <v>64</v>
       </c>
-      <c r="G38" s="19"/>
+      <c r="C38" s="30">
+        <v>207</v>
+      </c>
+      <c r="D38" s="18">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="E38" s="18">
+        <v>4</v>
+      </c>
+      <c r="F38" s="19">
+        <v>49186</v>
+      </c>
+      <c r="G38" s="19">
+        <f t="shared" si="1"/>
+        <v>6114</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="1"/>
+        <v>4074</v>
+      </c>
+      <c r="I38" s="27">
+        <f t="shared" si="2"/>
+        <v>3.3856722276741906E-2</v>
+      </c>
       <c r="K38" s="47" t="s">
         <v>10</v>
       </c>
       <c r="M38" s="8"/>
-      <c r="N38" s="91" t="s">
+      <c r="N38" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
     </row>
     <row r="39" spans="1:20 16382:16382">
       <c r="A39" s="16">
@@ -5215,11 +5248,11 @@
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
       <c r="S39" s="70">
         <v>43913</v>
       </c>
@@ -5235,13 +5268,13 @@
       <c r="K40" s="43"/>
       <c r="L40" s="43"/>
       <c r="M40" s="43"/>
-      <c r="N40" s="87" t="s">
+      <c r="N40" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
       <c r="S40">
         <v>6568</v>
       </c>
@@ -5257,13 +5290,13 @@
         <v>67</v>
       </c>
       <c r="G41" s="19"/>
-      <c r="K41" s="88" t="s">
+      <c r="K41" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
       <c r="P41" s="45"/>
       <c r="Q41" s="45"/>
       <c r="R41" s="45"/>
@@ -5283,11 +5316,11 @@
         <v>68</v>
       </c>
       <c r="G42" s="19"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="45"/>
       <c r="R42" s="45"/>
@@ -5757,7 +5790,7 @@
         <f ca="1">TODAY()-43855</f>
         <v>64</v>
       </c>
-      <c r="P74" s="93">
+      <c r="P74" s="87">
         <f ca="1">TODAY()</f>
         <v>43919</v>
       </c>
@@ -5785,7 +5818,7 @@
       <c r="M76" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N76" s="94">
+      <c r="N76" s="88">
         <f ca="1">TODAY()+O76</f>
         <v>43928.107253293791</v>
       </c>
@@ -5827,7 +5860,7 @@
       <c r="M79" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N79" s="94">
+      <c r="N79" s="88">
         <f ca="1">TODAY()+O79</f>
         <v>43934.439312594477</v>
       </c>

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="21405"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adevecseri\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF77B8E-38E5-4F3B-A1A4-B24A3796C19D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="0" windowWidth="25600" windowHeight="14900"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -23,17 +26,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Days Since 1st Case</t>
-  </si>
-  <si>
-    <t>Cases</t>
   </si>
   <si>
     <t>Deaths</t>
@@ -58,9 +61,6 @@
   </si>
   <si>
     <t>Deceased</t>
-  </si>
-  <si>
-    <t>https://www.ontario.ca/page/2019-novel-coronavirus#section-0</t>
   </si>
   <si>
     <t>Trend Series</t>
@@ -111,9 +111,6 @@
     <t>~Days between ~50 cases/day to peak</t>
   </si>
   <si>
-    <t>On February 22, Italy reported 58 new cases, this is roughly the magnitude of Ontario's daily cases on Mar 19. This places Ontario ~26 days behind Italy in terms of daily confirmed cases.</t>
-  </si>
-  <si>
     <t>As of March 19:</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Tests +/-</t>
   </si>
   <si>
-    <t>Peaked at 6,577 daily cases</t>
-  </si>
-  <si>
     <t>ON</t>
   </si>
   <si>
@@ -185,11 +179,41 @@
   <si>
     <t>Ontario was at ~50 cases/day on Mar 19, + 9 to 14 days = Mar 28 - Apr 2</t>
   </si>
+  <si>
+    <t>New Cases</t>
+  </si>
+  <si>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>(test results take 5-7 days)</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Peak: 3076</t>
+  </si>
+  <si>
+    <t>no longer reported</t>
+  </si>
+  <si>
+    <t>https://files.ontario.ca/moh-covid-19-report-en-2020-03-29.pdf</t>
+  </si>
+  <si>
+    <t>https://covid-19.ontario.ca/</t>
+  </si>
+  <si>
+    <t>Test/M</t>
+  </si>
+  <si>
+    <t>https://www.cdc.go.kr/board/board.es?mid=a20501000000&amp;bid=0015</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -272,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +318,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF83A2D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,9 +548,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -592,11 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,11 +705,40 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -701,10 +761,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF83A2D9"/>
       <color rgb="FF324D1F"/>
       <color rgb="FF4F4F4F"/>
       <color rgb="FF5E913B"/>
-      <color rgb="FF83A2D9"/>
     </mruColors>
   </colors>
   <extLst>
@@ -719,7 +779,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -762,21 +822,11 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1600" baseline="0"/>
-              <a:t>03/29/2020</a:t>
+              <a:t>03/30/2020</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" sz="2000" baseline="0"/>
@@ -785,17 +835,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -804,17 +844,16 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>https://covid-19.ontario.ca/</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -823,17 +862,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -846,8 +875,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.182502140945607"/>
-          <c:y val="0.0112987297992433"/>
+          <c:x val="0.18250214094560699"/>
+          <c:y val="1.12987297992433E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -862,6 +891,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -870,10 +919,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0607312992814327"/>
-          <c:y val="0.244710715508387"/>
-          <c:w val="0.843783135320912"/>
-          <c:h val="0.589522731063299"/>
+          <c:x val="6.0731299281432699E-2"/>
+          <c:y val="0.25959423349011002"/>
+          <c:w val="0.84378313532091198"/>
+          <c:h val="0.57463911598798667"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -884,11 +933,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>Sheet1!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cases</c:v>
+                  <c:v>New Cases</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -926,694 +975,339 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>67.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>73.0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>83.0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>87.0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>92.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>94.0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$70</c:f>
+              <c:f>Sheet1!$D$4:$D$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>170.0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>132.0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>207.0</c:v>
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="#,##0">
+                  <c:v>382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9ABE-453D-90F4-BD091619B5BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Deaths</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4F4F4F"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
-                <c:pt idx="0">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>96.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$4:$E$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DA02-4DE1-8CAE-C0FEDE2A2A7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Trendline Data</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
@@ -1651,15 +1345,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:forward val="1.0"/>
-            <c:backward val="10.0"/>
+            <c:forward val="1"/>
+            <c:backward val="10"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0447630677691891"/>
-                  <c:y val="-0.000651096579029316"/>
+                  <c:x val="-4.5524434447643071E-2"/>
+                  <c:y val="-1.5374078296130899E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1694,303 +1388,261 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$70</c:f>
+              <c:f>Sheet1!$B$14:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
-                  <c:v>34.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>52.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>55.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>57.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>58.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>59.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>60.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>61.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>62.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>63.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>64.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>65.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>67.0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>68.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>69.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>70.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>71.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>72.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>73.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>74.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>75.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>76.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>77.0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>78.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>79.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>80.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>81.0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>82.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>83.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>84.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>85.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>86.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>87.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>88.0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>89.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$D$37</c:f>
+              <c:f>Sheet1!$E$14:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48.0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>78.0</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>150.0</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-9ABE-453D-90F4-BD091619B5BE}"/>
             </c:ext>
@@ -2006,6 +1658,382 @@
         </c:dLbls>
         <c:axId val="2110919400"/>
         <c:axId val="2112135048"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>Deaths</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$4:$B$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="67"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>96</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$4:$F$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="67"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-DA02-4DE1-8CAE-C0FEDE2A2A7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2019,9 +2047,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050">
-                  <a:alpha val="76000"/>
-                </a:srgbClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2049,187 +2075,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>73.0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>83.0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>87.0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>92.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>94.0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$27:$G$70</c:f>
+              <c:f>Sheet1!$H$27:$H$70</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>2730.0</c:v>
+                  <c:v>2730</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2753.0</c:v>
+                  <c:v>2753</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2861.0</c:v>
+                  <c:v>2861</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3873.0</c:v>
+                  <c:v>3873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3036.0</c:v>
+                  <c:v>3036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2086.0</c:v>
+                  <c:v>2086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3951.0</c:v>
+                  <c:v>3951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3178.0</c:v>
+                  <c:v>3178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2915.0</c:v>
+                  <c:v>2915</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2482.0</c:v>
+                  <c:v>2482</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2040.0</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6114.0</c:v>
+                  <c:v>6114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F9E-4CA3-B26E-7E17F3938924}"/>
             </c:ext>
@@ -2250,8 +2276,8 @@
         <c:axId val="2110919400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="68.0"/>
-          <c:min val="33.0"/>
+          <c:max val="68"/>
+          <c:min val="33"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2260,7 +2286,7 @@
             <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:alpha val="50000"/>
+                  <a:alpha val="36000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2298,8 +2324,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0656520007924861"/>
-              <c:y val="0.871296290094994"/>
+              <c:x val="6.5652000792486107E-2"/>
+              <c:y val="0.87129629009499399"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2310,6 +2336,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -2349,15 +2395,15 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2112135048"/>
-        <c:crossesAt val="0.0"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2112135048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="220.1"/>
+          <c:max val="500.1"/>
           <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2395,11 +2441,23 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-CA" sz="1200"/>
+                  <a:rPr lang="en-CA" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Daily</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-CA" sz="1200" baseline="0"/>
+                  <a:rPr lang="en-CA" sz="1200" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> Cases</a:t>
                 </a:r>
               </a:p>
@@ -2410,7 +2468,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.89056312566578"/>
-              <c:y val="0.460492060873868"/>
+              <c:y val="0.46049206087386801"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2421,6 +2479,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -2444,7 +2522,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2460,16 +2538,16 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2110919400"/>
-        <c:crossesAt val="10000.0"/>
+        <c:crossesAt val="10000"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10.0"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2112128328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="13000.0"/>
-          <c:min val="1000.0"/>
+          <c:max val="30000"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2482,9 +2560,8 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2493,7 +2570,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-CA" sz="1200"/>
+                  <a:rPr lang="en-CA" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Daily Tests</a:t>
                 </a:r>
               </a:p>
@@ -2503,8 +2586,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.955322882124414"/>
-              <c:y val="0.464120113409761"/>
+              <c:x val="0.96233252341212272"/>
+              <c:y val="0.46412003533878304"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2515,6 +2598,25 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2556,7 +2658,7 @@
         <c:crossAx val="2112122072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1000.0"/>
+        <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2112122072"/>
@@ -2576,14 +2678,25 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28629257113961049"/>
+          <c:y val="0.95135541071720098"/>
+          <c:w val="0.59069004658806812"/>
+          <c:h val="3.5885418628891483E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2615,14 +2728,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2654,11 +2767,1817 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0731299281432699E-2"/>
+          <c:y val="0.25959423349011002"/>
+          <c:w val="0.84378313532091198"/>
+          <c:h val="0.57463911598798667"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Deaths</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="48000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F4F4F"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DA02-4DE1-8CAE-C0FEDE2A2A7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2110919400"/>
+        <c:axId val="2112135048"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>New Cases</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$4:$B$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="67"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>96</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$4:$D$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="67"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>207</c:v>
+                      </c:pt>
+                      <c:pt idx="35" formatCode="#,##0">
+                        <c:v>382</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-9ABE-453D-90F4-BD091619B5BE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>Trendline Data</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:noFill/>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="exp"/>
+                  <c:forward val="1"/>
+                  <c:backward val="10"/>
+                  <c:dispRSqr val="0"/>
+                  <c:dispEq val="1"/>
+                  <c:trendlineLbl>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="-4.5524434447643071E-2"/>
+                        <c:y val="-1.5374078296130899E-2"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:numFmt formatCode="General" sourceLinked="0"/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="65000"/>
+                                <a:lumOff val="35000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                        <a:endParaRPr lang="en-US"/>
+                      </a:p>
+                    </c:txPr>
+                  </c:trendlineLbl>
+                </c:trendline>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$14:$B$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="57"/>
+                      <c:pt idx="0">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>96</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$14:$E$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>207</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>382</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-9ABE-453D-90F4-BD091619B5BE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2112122072"/>
+        <c:axId val="2112128328"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Daily Tests</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$27:$B$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="44"/>
+                      <c:pt idx="0">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>96</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$27:$H$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="44"/>
+                      <c:pt idx="0">
+                        <c:v>2730</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2753</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2861</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3873</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3036</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2086</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3951</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3178</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2915</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2482</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2040</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6114</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-0F9E-4CA3-B26E-7E17F3938924}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2110919400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="68"/>
+          <c:min val="33"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000"/>
+                  <a:t>Days Since 1st Case (Jan 25)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.5652000792486107E-2"/>
+              <c:y val="0.87129629009499399"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2112135048"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2112135048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1200" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Daily Deaths</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.3406872625286396E-4"/>
+              <c:y val="0.45836550335514281"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110919400"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2112128328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30000"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2112122072"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2112122072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2112128328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19917040474127951"/>
+          <c:y val="0.95135541071720098"/>
+          <c:w val="0.10128073726553052"/>
+          <c:h val="3.588541862889149E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3214,18 +5133,534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>453</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35089</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>8504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>179954</xdr:rowOff>
     </xdr:to>
@@ -3234,7 +5669,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE214DC-0EE4-40AE-B9B8-4B3DD3AB7269}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE214DC-0EE4-40AE-B9B8-4B3DD3AB7269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3247,6 +5682,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>42883</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>37235</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6939A149-340F-44B0-BFAA-DCA073DFBEF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3271,7 +5742,7 @@
         <cdr:cNvPr id="7" name="Group 6">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25F107B8-46BB-4401-AC67-1A91B962BB66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F107B8-46BB-4401-AC67-1A91B962BB66}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3279,8 +5750,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="4927549"/>
-          <a:ext cx="1247741" cy="505456"/>
+          <a:off x="0" y="5224757"/>
+          <a:ext cx="1147551" cy="535943"/>
           <a:chOff x="-98425" y="0"/>
           <a:chExt cx="920752" cy="533400"/>
         </a:xfrm>
@@ -3290,7 +5761,7 @@
           <cdr:cNvPr id="8" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D9AC2C2-927E-460A-8D4E-51108B1586E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9AC2C2-927E-460A-8D4E-51108B1586E6}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3388,7 +5859,7 @@
           <cdr:cNvPr id="9" name="Straight Connector 8">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3827D673-01B5-4B4A-BD1E-55B47915711F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3827D673-01B5-4B4A-BD1E-55B47915711F}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3422,19 +5893,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.37002</cdr:x>
-      <cdr:y>0.87493</cdr:y>
+      <cdr:x>0.33895</cdr:x>
+      <cdr:y>0.86768</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.53377</cdr:x>
-      <cdr:y>0.96468</cdr:y>
+      <cdr:x>0.5027</cdr:x>
+      <cdr:y>0.95743</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
         <cdr:cNvPr id="13" name="Group 12">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0824A2B-C99A-46CE-8BC3-444E1092098C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0824A2B-C99A-46CE-8BC3-444E1092098C}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3442,8 +5913,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3004223" y="4927999"/>
-          <a:ext cx="1329499" cy="505513"/>
+          <a:off x="2530990" y="5181937"/>
+          <a:ext cx="1222745" cy="536003"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3453,7 +5924,7 @@
           <cdr:cNvPr id="14" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33EA23D1-4581-4012-A558-92CC0C465CD9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EA23D1-4581-4012-A558-92CC0C465CD9}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3551,7 +6022,7 @@
           <cdr:cNvPr id="15" name="Straight Connector 14">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D264BD3-4391-4C3D-91CE-20FA038FA4A7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D264BD3-4391-4C3D-91CE-20FA038FA4A7}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3585,19 +6056,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.78986</cdr:x>
-      <cdr:y>0.87457</cdr:y>
+      <cdr:x>0.79822</cdr:x>
+      <cdr:y>0.86877</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.91305</cdr:x>
-      <cdr:y>0.96632</cdr:y>
+      <cdr:x>0.92141</cdr:x>
+      <cdr:y>0.96052</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
         <cdr:cNvPr id="22" name="Group 21">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC43EB90-B5A7-4C7C-8658-B6AA0D39751F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC43EB90-B5A7-4C7C-8658-B6AA0D39751F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3605,8 +6076,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6412938" y="4925972"/>
-          <a:ext cx="1000190" cy="516777"/>
+          <a:off x="5960427" y="5188446"/>
+          <a:ext cx="919878" cy="547948"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
         </a:xfrm>
@@ -3616,7 +6087,7 @@
           <cdr:cNvPr id="23" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07120820-EFB4-4B27-8139-703BA371CAB9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07120820-EFB4-4B27-8139-703BA371CAB9}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3711,7 +6182,7 @@
           <cdr:cNvPr id="24" name="Straight Connector 23">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6850518F-1263-43CF-8C42-21A1BACE3201}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6850518F-1263-43CF-8C42-21A1BACE3201}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3745,19 +6216,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.55447</cdr:x>
-      <cdr:y>0.87485</cdr:y>
+      <cdr:x>0.50787</cdr:x>
+      <cdr:y>0.8676</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.71822</cdr:x>
-      <cdr:y>0.9646</cdr:y>
+      <cdr:x>0.67162</cdr:x>
+      <cdr:y>0.95735</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
         <cdr:cNvPr id="16" name="Group 15">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC1A4C6E-3C6F-4025-B829-0C68F16F5033}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1A4C6E-3C6F-4025-B829-0C68F16F5033}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3765,8 +6236,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4501787" y="4927549"/>
-          <a:ext cx="1329500" cy="505512"/>
+          <a:off x="3792340" y="5181459"/>
+          <a:ext cx="1222746" cy="536003"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -3776,7 +6247,7 @@
           <cdr:cNvPr id="17" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA4CC128-501F-4C41-8146-7E7DDCFCE59F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4CC128-501F-4C41-8146-7E7DDCFCE59F}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3874,7 +6345,7 @@
           <cdr:cNvPr id="18" name="Straight Connector 17">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E1089D6-9659-4320-8079-62E08D3CA16D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1089D6-9659-4320-8079-62E08D3CA16D}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -3952,7 +6423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4004,7 +6475,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4198,1710 +6669,1714 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:XFB83"/>
+  <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="30" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="18"/>
-    <col min="6" max="6" width="8.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="27" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" customWidth="1"/>
-    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="87" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="29" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="17"/>
+    <col min="7" max="7" width="8.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="80">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="77">
         <f ca="1">TODAY()-43855</f>
-        <v>64</v>
-      </c>
-      <c r="C1" s="78">
+        <v>65</v>
+      </c>
+      <c r="C1" s="75">
         <f ca="1">TODAY()</f>
-        <v>43919</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="25"/>
+        <v>43920</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="75"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="25"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:20" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="1:21" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="11"/>
+      <c r="I3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="16">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>43885</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>30</v>
       </c>
-      <c r="C4" s="30">
+      <c r="D4" s="29">
         <v>0</v>
       </c>
-      <c r="D4" s="18">
-        <f>C4</f>
+      <c r="E4" s="17">
+        <f>D4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="18">
+      <c r="F4" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1">
-      <c r="A5" s="16">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>43886</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>31</v>
       </c>
-      <c r="C5" s="30">
+      <c r="D5" s="29">
         <v>1</v>
       </c>
-      <c r="D5" s="18">
-        <f t="shared" ref="D5:D33" si="0">C5</f>
+      <c r="E5" s="17">
+        <f t="shared" ref="E5:E33" si="0">D5</f>
         <v>1</v>
       </c>
-      <c r="E5" s="18">
+      <c r="F5" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1">
-      <c r="A6" s="16">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <v>43887</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>32</v>
       </c>
-      <c r="C6" s="30">
+      <c r="D6" s="29">
         <v>1</v>
       </c>
-      <c r="D6" s="18">
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="18">
+      <c r="F6" s="17">
         <v>0</v>
       </c>
-      <c r="T6" s="66" t="s">
-        <v>40</v>
+      <c r="U6" s="63" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="16">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>43888</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>33</v>
       </c>
-      <c r="C7" s="30">
+      <c r="D7" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="18">
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="18">
+      <c r="F7" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="16">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>43889</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>34</v>
       </c>
-      <c r="C8" s="30">
+      <c r="D8" s="29">
         <v>1</v>
       </c>
-      <c r="D8" s="18">
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" s="18">
+      <c r="F8" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="16">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>43890</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>35</v>
       </c>
-      <c r="C9" s="30">
+      <c r="D9" s="29">
         <v>3</v>
       </c>
-      <c r="D9" s="18">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E9" s="18">
+      <c r="F9" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="16">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>43891</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>36</v>
       </c>
-      <c r="C10" s="30">
+      <c r="D10" s="29">
         <v>4</v>
       </c>
-      <c r="D10" s="18">
+      <c r="E10" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E10" s="18">
+      <c r="F10" s="17">
         <v>0</v>
       </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="16">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>43892</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>37</v>
       </c>
-      <c r="C11" s="30">
+      <c r="D11" s="29">
         <v>3</v>
       </c>
-      <c r="D11" s="18">
+      <c r="E11" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="18">
+      <c r="F11" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="16">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>43893</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>38</v>
       </c>
-      <c r="C12" s="30">
+      <c r="D12" s="29">
         <v>2</v>
       </c>
-      <c r="D12" s="18">
+      <c r="E12" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E12" s="18">
+      <c r="F12" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="16">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>43894</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>39</v>
       </c>
-      <c r="C13" s="30">
+      <c r="D13" s="29">
         <v>2</v>
       </c>
-      <c r="D13" s="18">
+      <c r="E13" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E13" s="18">
+      <c r="F13" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="16">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>43895</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>40</v>
       </c>
-      <c r="C14" s="30">
+      <c r="D14" s="29">
         <v>3</v>
       </c>
-      <c r="D14" s="18">
+      <c r="E14" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E14" s="18">
+      <c r="F14" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="16">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>43896</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>41</v>
       </c>
-      <c r="C15" s="30">
+      <c r="D15" s="29">
         <v>2</v>
       </c>
-      <c r="D15" s="18">
+      <c r="E15" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E15" s="18">
+      <c r="F15" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <v>43897</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>42</v>
       </c>
-      <c r="C16" s="30">
+      <c r="D16" s="29">
         <v>2</v>
       </c>
-      <c r="D16" s="18">
+      <c r="E16" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E16" s="18">
+      <c r="F16" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="16">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>43898</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>43</v>
       </c>
-      <c r="C17" s="30">
+      <c r="D17" s="29">
         <v>4</v>
       </c>
-      <c r="D17" s="18">
+      <c r="E17" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E17" s="18">
+      <c r="F17" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="16">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>43899</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>44</v>
       </c>
-      <c r="C18" s="30">
+      <c r="D18" s="29">
         <v>4</v>
       </c>
-      <c r="D18" s="18">
+      <c r="E18" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E18" s="18">
+      <c r="F18" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="16">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
         <v>43900</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>45</v>
       </c>
-      <c r="C19" s="30">
+      <c r="D19" s="29">
         <v>2</v>
       </c>
-      <c r="D19" s="18">
+      <c r="E19" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E19" s="18">
+      <c r="F19" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="16">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
         <v>43901</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>46</v>
       </c>
-      <c r="C20" s="30">
+      <c r="D20" s="29">
         <v>5</v>
       </c>
-      <c r="D20" s="18">
+      <c r="E20" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E20" s="18">
+      <c r="F20" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="16">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
         <v>43902</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>47</v>
       </c>
-      <c r="C21" s="30">
+      <c r="D21" s="29">
         <v>18</v>
       </c>
-      <c r="D21" s="18">
+      <c r="E21" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E21" s="18">
+      <c r="F21" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="16">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <v>43903</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>48</v>
       </c>
-      <c r="C22" s="30">
+      <c r="D22" s="29">
         <v>19</v>
       </c>
-      <c r="D22" s="18">
+      <c r="E22" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E22" s="18">
+      <c r="F22" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="16">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <v>43904</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>49</v>
       </c>
-      <c r="C23" s="30">
+      <c r="D23" s="29">
         <v>24</v>
       </c>
-      <c r="D23" s="18">
+      <c r="E23" s="17">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E23" s="18">
+      <c r="F23" s="17">
         <v>0</v>
       </c>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="16">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
         <v>43905</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>50</v>
       </c>
-      <c r="C24" s="30">
+      <c r="D24" s="29">
         <v>43</v>
       </c>
-      <c r="D24" s="18">
+      <c r="E24" s="17">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="E24" s="18">
+      <c r="F24" s="96">
         <v>0</v>
       </c>
-      <c r="S24" s="6"/>
       <c r="T24" s="5"/>
+      <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="16">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
         <v>43906</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>51</v>
       </c>
-      <c r="C25" s="30">
+      <c r="D25" s="29">
         <v>32</v>
       </c>
-      <c r="D25" s="18">
-        <f>C25</f>
+      <c r="E25" s="17">
+        <f>D25</f>
         <v>32</v>
       </c>
-      <c r="E25" s="18">
+      <c r="F25" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="16">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <v>43907</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>52</v>
       </c>
-      <c r="C26" s="30">
+      <c r="D26" s="29">
         <v>12</v>
       </c>
-      <c r="D26" s="18">
-        <f>C26</f>
-        <v>12</v>
-      </c>
-      <c r="E26" s="18">
+      <c r="F26" s="17">
         <v>1</v>
       </c>
-      <c r="F26" s="19">
+      <c r="G26" s="18">
         <v>11167</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="16">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
         <v>43908</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>53</v>
       </c>
-      <c r="C27" s="30">
+      <c r="D27" s="29">
         <v>25</v>
       </c>
-      <c r="D27" s="18">
+      <c r="E27" s="17">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E27" s="18">
+      <c r="F27" s="17">
         <v>0</v>
       </c>
-      <c r="F27" s="19">
+      <c r="G27" s="18">
         <v>13897</v>
       </c>
-      <c r="G27" s="19">
-        <f>F27-F26</f>
+      <c r="H27" s="18">
+        <f>G27-G26</f>
         <v>2730</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="27">
-        <f>D27/G27</f>
+      <c r="I27" s="14"/>
+      <c r="J27" s="26">
+        <f t="shared" ref="J27:J35" si="1">D27/H27</f>
         <v>9.1575091575091579E-3</v>
       </c>
-      <c r="J27" s="10"/>
+      <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="16">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
         <v>43909</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>54</v>
       </c>
-      <c r="C28" s="30">
+      <c r="D28" s="29">
         <v>44</v>
       </c>
-      <c r="D28" s="18">
+      <c r="E28" s="17">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="E28" s="18">
+      <c r="F28" s="17">
         <v>1</v>
       </c>
-      <c r="F28" s="19">
+      <c r="G28" s="18">
         <v>16650</v>
       </c>
-      <c r="G28" s="19">
-        <f>F28-F27</f>
+      <c r="H28" s="18">
+        <f>G28-G27</f>
         <v>2753</v>
       </c>
-      <c r="H28" s="15">
-        <f>G28-G27</f>
+      <c r="I28" s="14">
+        <f>H28-H27</f>
         <v>23</v>
       </c>
-      <c r="I28" s="27">
-        <f>D28/G28</f>
+      <c r="J28" s="26">
+        <f t="shared" si="1"/>
         <v>1.5982564475118054E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="16">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
         <v>43910</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>55</v>
       </c>
-      <c r="C29" s="30">
+      <c r="D29" s="29">
         <v>60</v>
       </c>
-      <c r="D29" s="18">
+      <c r="E29" s="17">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E29" s="18">
+      <c r="F29" s="17">
         <v>0</v>
       </c>
-      <c r="F29" s="19">
+      <c r="G29" s="18">
         <v>19511</v>
       </c>
-      <c r="G29" s="19">
-        <f>F29-F28</f>
+      <c r="H29" s="18">
+        <f>G29-G28</f>
         <v>2861</v>
       </c>
-      <c r="H29" s="15">
-        <f>G29-G28</f>
+      <c r="I29" s="14">
+        <f>H29-H28</f>
         <v>108</v>
       </c>
-      <c r="I29" s="27">
-        <f>D29/G29</f>
+      <c r="J29" s="26">
+        <f t="shared" si="1"/>
         <v>2.0971688220901782E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="16">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
         <v>43911</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="16">
         <v>56</v>
       </c>
-      <c r="C30" s="30">
+      <c r="D30" s="29">
         <v>59</v>
       </c>
-      <c r="D30" s="18">
+      <c r="E30" s="17">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="E30" s="18">
+      <c r="F30" s="17">
         <v>1</v>
       </c>
-      <c r="F30" s="19">
+      <c r="G30" s="18">
         <v>23384</v>
       </c>
-      <c r="G30" s="19">
-        <f t="shared" ref="G30:H38" si="1">F30-F29</f>
+      <c r="H30" s="18">
+        <f t="shared" ref="H30:I38" si="2">G30-G29</f>
         <v>3873</v>
       </c>
-      <c r="H30" s="15">
+      <c r="I30" s="14">
+        <f t="shared" si="2"/>
+        <v>1012</v>
+      </c>
+      <c r="J30" s="26">
         <f t="shared" si="1"/>
-        <v>1012</v>
-      </c>
-      <c r="I30" s="27">
-        <f t="shared" ref="I30:I38" si="2">D30/G30</f>
         <v>1.5233668990446682E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1">
-      <c r="A31" s="16">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
         <v>43912</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="16">
         <v>57</v>
       </c>
-      <c r="C31" s="30">
+      <c r="D31" s="29">
         <v>48</v>
       </c>
-      <c r="D31" s="18">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="E31" s="18">
+      <c r="F31" s="17">
         <v>2</v>
       </c>
-      <c r="F31" s="19">
+      <c r="G31" s="18">
         <v>26420</v>
       </c>
-      <c r="G31" s="19">
+      <c r="H31" s="18">
+        <f t="shared" si="2"/>
+        <v>3036</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="2"/>
+        <v>-837</v>
+      </c>
+      <c r="J31" s="26">
         <f t="shared" si="1"/>
-        <v>3036</v>
-      </c>
-      <c r="H31" s="15">
-        <f t="shared" si="1"/>
-        <v>-837</v>
-      </c>
-      <c r="I31" s="27">
-        <f t="shared" si="2"/>
         <v>1.5810276679841896E-2</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="24" t="str">
+      <c r="L31" s="8"/>
+      <c r="M31" s="23" t="str">
         <f ca="1">"Tests as of" &amp;  TEXT(TODAY()," mm-dd-yyyy")</f>
-        <v>Tests as of 03-29-2020</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
+        <v>Tests as of 03-30-2020</v>
+      </c>
+      <c r="N31" s="7"/>
+      <c r="O31" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="106"/>
     </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="16">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
         <v>43913</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <v>58</v>
       </c>
-      <c r="C32" s="30">
+      <c r="D32" s="29">
         <v>78</v>
       </c>
-      <c r="D32" s="18">
+      <c r="E32" s="17">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="E32" s="18">
+      <c r="F32" s="17">
         <v>1</v>
       </c>
-      <c r="F32" s="19">
+      <c r="G32" s="18">
         <v>28506</v>
       </c>
-      <c r="G32" s="19">
+      <c r="H32" s="18">
+        <f t="shared" si="2"/>
+        <v>2086</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="2"/>
+        <v>-950</v>
+      </c>
+      <c r="J32" s="26">
         <f t="shared" si="1"/>
-        <v>2086</v>
-      </c>
-      <c r="H32" s="15">
-        <f t="shared" si="1"/>
-        <v>-950</v>
-      </c>
-      <c r="I32" s="27">
-        <f t="shared" si="2"/>
         <v>3.7392138063279005E-2</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L32" s="64">
-        <v>40630</v>
-      </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="92"/>
+      <c r="L32" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="N32" s="7"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="106"/>
+      <c r="R32" s="106"/>
+      <c r="S32" s="106"/>
     </row>
-    <row r="33" spans="1:20 16382:16382" ht="15" customHeight="1">
-      <c r="A33" s="16">
+    <row r="33" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
         <v>43914</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="16">
         <v>59</v>
       </c>
-      <c r="C33" s="30">
+      <c r="D33" s="29">
         <v>85</v>
       </c>
-      <c r="D33" s="18">
+      <c r="E33" s="17">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="E33" s="18">
+      <c r="F33" s="17">
         <v>2</v>
       </c>
-      <c r="F33" s="19">
+      <c r="G33" s="18">
         <v>32457</v>
       </c>
-      <c r="G33" s="19">
+      <c r="H33" s="18">
+        <f t="shared" si="2"/>
+        <v>3951</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="2"/>
+        <v>1865</v>
+      </c>
+      <c r="J33" s="26">
         <f t="shared" si="1"/>
-        <v>3951</v>
-      </c>
-      <c r="H33" s="15">
-        <f t="shared" si="1"/>
-        <v>1865</v>
-      </c>
-      <c r="I33" s="27">
-        <f t="shared" si="2"/>
         <v>2.1513540875727665E-2</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="64">
-        <v>7203</v>
-      </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="O33" s="35">
+      <c r="L33" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="7"/>
+      <c r="O33" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" s="34">
         <f>8514/60761</f>
         <v>0.14012277612284196</v>
       </c>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="XFB33">
-        <f>SUM(B33:XFA33)</f>
-        <v>45707.161636316996</v>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="XFC33">
+        <f>SUM(B33:XFB33)</f>
+        <v>38504.161636316996</v>
       </c>
     </row>
-    <row r="34" spans="1:20 16382:16382">
-      <c r="A34" s="16">
+    <row r="34" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
         <v>43915</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="16">
         <v>60</v>
       </c>
-      <c r="C34" s="30">
+      <c r="D34" s="29">
         <v>100</v>
       </c>
-      <c r="D34" s="18">
-        <f t="shared" ref="D34:D38" si="3">C34</f>
+      <c r="E34" s="17">
+        <f t="shared" ref="E34:E39" si="3">D34</f>
         <v>100</v>
       </c>
-      <c r="E34" s="18">
+      <c r="F34" s="17">
         <v>1</v>
       </c>
-      <c r="F34" s="19">
+      <c r="G34" s="18">
         <v>35635</v>
       </c>
-      <c r="G34" s="19">
+      <c r="H34" s="18">
+        <f t="shared" si="2"/>
+        <v>3178</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="2"/>
+        <v>-773</v>
+      </c>
+      <c r="J34" s="26">
         <f t="shared" si="1"/>
-        <v>3178</v>
-      </c>
-      <c r="H34" s="15">
-        <f t="shared" si="1"/>
-        <v>-773</v>
-      </c>
-      <c r="I34" s="27">
-        <f t="shared" si="2"/>
         <v>3.1466331025802388E-2</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L34" s="65">
-        <v>1324</v>
-      </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="91" t="str">
-        <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;L37&amp;" total tests, finding "&amp;(L34+L35+L36)&amp;" positive:"</f>
-        <v>As of March 29, Ontario reported 49186 total tests, finding 1355 positive:</v>
-      </c>
-      <c r="O34" s="92"/>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="92"/>
-      <c r="R34" s="92"/>
+      <c r="L34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="62">
+        <v>1706</v>
+      </c>
+      <c r="N34" s="7"/>
+      <c r="O34" s="105" t="str">
+        <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;M37&amp;" total tests, finding "&amp;(M34+M35+M36)&amp;" positive:"</f>
+        <v>As of March 30, Ontario reported 48461 total tests, finding 2160 positive:</v>
+      </c>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="106"/>
+      <c r="S34" s="106"/>
     </row>
-    <row r="35" spans="1:20 16382:16382">
-      <c r="A35" s="16">
+    <row r="35" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
         <v>43916</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <v>61</v>
       </c>
-      <c r="C35" s="30">
+      <c r="D35" s="29">
         <v>170</v>
       </c>
-      <c r="D35" s="18">
+      <c r="E35" s="17">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="E35" s="18">
+      <c r="F35" s="17">
         <v>6</v>
       </c>
-      <c r="F35" s="19">
+      <c r="G35" s="18">
         <v>38550</v>
       </c>
-      <c r="G35" s="19">
+      <c r="H35" s="18">
+        <f t="shared" si="2"/>
+        <v>2915</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="2"/>
+        <v>-263</v>
+      </c>
+      <c r="J35" s="26">
         <f t="shared" si="1"/>
-        <v>2915</v>
-      </c>
-      <c r="H35" s="15">
-        <f t="shared" si="1"/>
-        <v>-263</v>
-      </c>
-      <c r="I35" s="27">
+        <v>5.8319039451114926E-2</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="61">
+        <v>431</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
+    </row>
+    <row r="36" spans="1:19 16383:16383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>43917</v>
+      </c>
+      <c r="B36" s="16">
+        <v>62</v>
+      </c>
+      <c r="D36" s="29">
+        <v>132</v>
+      </c>
+      <c r="F36" s="17">
+        <v>3</v>
+      </c>
+      <c r="G36" s="18">
+        <v>41032</v>
+      </c>
+      <c r="H36" s="18">
         <f t="shared" si="2"/>
-        <v>5.8319039451114926E-2</v>
-      </c>
-      <c r="K35" s="2" t="s">
+        <v>2482</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="2"/>
+        <v>-433</v>
+      </c>
+      <c r="J36" s="26">
+        <f>D36/H36</f>
+        <v>5.3182917002417403E-2</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36" s="2">
+        <f>SUM(F4:F424)</f>
+        <v>23</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="36" t="str">
+        <f>(M34+M35+M36)&amp;" / "&amp;M37&amp;" ="</f>
+        <v>2160 / 48461 =</v>
+      </c>
+      <c r="P36" s="37">
+        <f>($M34+$M35+$M36)/(M37)</f>
+        <v>4.4571923815026518E-2</v>
+      </c>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+    </row>
+    <row r="37" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>43918</v>
+      </c>
+      <c r="B37" s="16">
+        <v>63</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37" s="29">
+        <v>150</v>
+      </c>
+      <c r="F37" s="17">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18">
+        <v>43072</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" si="2"/>
+        <v>2040</v>
+      </c>
+      <c r="I37" s="14">
+        <f t="shared" si="2"/>
+        <v>-442</v>
+      </c>
+      <c r="J37" s="26">
+        <f>D37/H37</f>
+        <v>7.3529411764705885E-2</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="64">
-        <v>8</v>
-      </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="92"/>
+      <c r="M37" s="2">
+        <f>MAX(G4:G37,G39:G70)</f>
+        <v>48461</v>
+      </c>
+      <c r="N37" s="7"/>
+      <c r="O37" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
     </row>
-    <row r="36" spans="1:20 16382:16382" ht="14.25" customHeight="1">
-      <c r="A36" s="16">
-        <v>43917</v>
-      </c>
-      <c r="B36" s="17">
-        <v>62</v>
-      </c>
-      <c r="C36" s="30">
-        <v>132</v>
-      </c>
-      <c r="D36" s="18">
-        <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="E36" s="18">
-        <v>3</v>
-      </c>
-      <c r="F36" s="19">
-        <v>41032</v>
-      </c>
-      <c r="G36" s="19">
-        <f t="shared" si="1"/>
-        <v>2482</v>
-      </c>
-      <c r="H36" s="15">
-        <f t="shared" si="1"/>
-        <v>-433</v>
-      </c>
-      <c r="I36" s="27">
-        <f t="shared" si="2"/>
-        <v>5.3182917002417403E-2</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="3">
-        <f>SUM(E4:E424)</f>
-        <v>23</v>
-      </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="37" t="str">
-        <f>(L34+L35+L36)&amp;" / "&amp;L37&amp;" ="</f>
-        <v>1355 / 49186 =</v>
-      </c>
-      <c r="O36" s="38">
-        <f>($L34+$L35+$L36)/(L37)</f>
-        <v>2.7548489407554996E-2</v>
-      </c>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-    </row>
-    <row r="37" spans="1:20 16382:16382">
-      <c r="A37" s="16">
-        <v>43918</v>
-      </c>
-      <c r="B37" s="17">
-        <v>63</v>
-      </c>
-      <c r="C37" s="30">
-        <v>150</v>
-      </c>
-      <c r="D37" s="18">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="E37" s="18">
-        <v>1</v>
-      </c>
-      <c r="F37" s="19">
-        <v>43072</v>
-      </c>
-      <c r="G37" s="19">
-        <f t="shared" si="1"/>
-        <v>2040</v>
-      </c>
-      <c r="H37" s="15">
-        <f t="shared" si="1"/>
-        <v>-442</v>
-      </c>
-      <c r="I37" s="27">
-        <f t="shared" si="2"/>
-        <v>7.3529411764705885E-2</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="3">
-        <f>MAX(F4:F70)</f>
-        <v>49186</v>
-      </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-    </row>
-    <row r="38" spans="1:20 16382:16382" ht="15" customHeight="1">
-      <c r="A38" s="16">
+    <row r="38" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
         <v>43919</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>64</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="9">
+        <v>1324</v>
+      </c>
+      <c r="D38" s="95">
         <v>207</v>
       </c>
-      <c r="D38" s="18">
+      <c r="E38" s="17">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="E38" s="18">
+      <c r="F38" s="17">
         <v>4</v>
       </c>
-      <c r="F38" s="19">
+      <c r="G38" s="89">
         <v>49186</v>
       </c>
-      <c r="G38" s="19">
-        <f t="shared" si="1"/>
+      <c r="H38" s="18">
+        <f t="shared" si="2"/>
         <v>6114</v>
       </c>
-      <c r="H38" s="15">
-        <f t="shared" si="1"/>
+      <c r="I38" s="14">
+        <f t="shared" si="2"/>
         <v>4074</v>
       </c>
-      <c r="I38" s="27">
-        <f t="shared" si="2"/>
+      <c r="J38" s="26">
+        <f>D38/H38</f>
         <v>3.3856722276741906E-2</v>
       </c>
-      <c r="K38" s="47" t="s">
+      <c r="L38" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="N38" s="7"/>
+      <c r="O38" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="93" t="s">
+      <c r="P38" s="108"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="108"/>
+    </row>
+    <row r="39" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>43920</v>
+      </c>
+      <c r="B39" s="16">
+        <v>65</v>
+      </c>
+      <c r="C39" s="94">
+        <v>1706</v>
+      </c>
+      <c r="D39" s="88">
+        <f>C39-C38</f>
+        <v>382</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="3"/>
+        <v>382</v>
+      </c>
+      <c r="F39" s="17">
+        <v>0</v>
+      </c>
+      <c r="G39" s="93">
+        <v>48461</v>
+      </c>
+      <c r="H39" s="99"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="101"/>
+      <c r="L39" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="108"/>
+    </row>
+    <row r="40" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>43921</v>
+      </c>
+      <c r="B40" s="16">
+        <v>66</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="L40" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="104"/>
+    </row>
+    <row r="41" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>43922</v>
+      </c>
+      <c r="B41" s="16">
+        <v>67</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="L41" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="P41" s="67">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>43923</v>
+      </c>
+      <c r="B42" s="16">
+        <v>68</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="L42" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="32"/>
+      <c r="O42" s="66">
+        <f>395194/51.47</f>
+        <v>7678.1426073440844</v>
+      </c>
+      <c r="P42" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>43924</v>
+      </c>
+      <c r="B43" s="16">
+        <v>69</v>
+      </c>
+      <c r="H43" s="18"/>
+      <c r="L43" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="13">
+        <v>13</v>
+      </c>
+      <c r="O43" s="66">
+        <f>48461/14.57</f>
+        <v>3326.0809883321895</v>
+      </c>
+      <c r="P43" s="103" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>43925</v>
+      </c>
+      <c r="B44" s="16">
+        <v>70</v>
+      </c>
+      <c r="L44" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O38" s="94"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="94"/>
-      <c r="R38" s="94"/>
+      <c r="M44" s="13">
+        <v>14</v>
+      </c>
     </row>
-    <row r="39" spans="1:20 16382:16382">
-      <c r="A39" s="16">
+    <row r="45" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>43926</v>
+      </c>
+      <c r="B45" s="16">
+        <v>71</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>43927</v>
+      </c>
+      <c r="B46" s="16">
+        <v>72</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>43928</v>
+      </c>
+      <c r="B47" s="16">
+        <v>73</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M47" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>43929</v>
+      </c>
+      <c r="B48" s="16">
+        <v>74</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>43930</v>
+      </c>
+      <c r="B49" s="16">
+        <v>75</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>43931</v>
+      </c>
+      <c r="B50" s="16">
+        <v>76</v>
+      </c>
+      <c r="L50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>43932</v>
+      </c>
+      <c r="B51" s="16">
+        <v>77</v>
+      </c>
+      <c r="L51" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>43933</v>
+      </c>
+      <c r="B52" s="16">
+        <v>78</v>
+      </c>
+      <c r="L52" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>43934</v>
+      </c>
+      <c r="B53" s="16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>43935</v>
+      </c>
+      <c r="B54" s="16">
+        <v>80</v>
+      </c>
+      <c r="L54" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="32"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>43936</v>
+      </c>
+      <c r="B55" s="16">
+        <v>81</v>
+      </c>
+      <c r="L55" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>43937</v>
+      </c>
+      <c r="B56" s="16">
+        <v>82</v>
+      </c>
+      <c r="L56" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M56" s="60">
+        <v>31</v>
+      </c>
+      <c r="N56" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="O56" s="79"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>43938</v>
+      </c>
+      <c r="B57" s="16">
+        <v>83</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" s="60">
+        <v>27</v>
+      </c>
+      <c r="N57" s="80">
+        <v>6577</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>43939</v>
+      </c>
+      <c r="B58" s="16">
+        <v>84</v>
+      </c>
+      <c r="L58" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" s="60">
+        <v>23</v>
+      </c>
+      <c r="N58" s="80">
+        <v>6933</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>43940</v>
+      </c>
+      <c r="B59" s="16">
+        <v>85</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" s="60">
+        <v>23</v>
+      </c>
+      <c r="N59" s="80">
+        <v>19452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
+        <v>43941</v>
+      </c>
+      <c r="B60" s="16">
+        <v>86</v>
+      </c>
+      <c r="L60" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" s="60">
+        <v>23</v>
+      </c>
+      <c r="N60" s="80">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <v>43942</v>
+      </c>
+      <c r="B61" s="16">
+        <v>87</v>
+      </c>
+      <c r="L61" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" s="60">
+        <v>20</v>
+      </c>
+      <c r="N61" s="80">
+        <v>8271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
+        <v>43943</v>
+      </c>
+      <c r="B62" s="16">
+        <v>88</v>
+      </c>
+      <c r="L62" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M62" s="60">
+        <v>17</v>
+      </c>
+      <c r="N62" s="80">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <v>43944</v>
+      </c>
+      <c r="B63" s="16">
+        <v>89</v>
+      </c>
+      <c r="L63" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="27">
+        <v>11</v>
+      </c>
+      <c r="N63" s="83">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
+        <v>43945</v>
+      </c>
+      <c r="B64" s="16">
+        <v>90</v>
+      </c>
+      <c r="L64" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>43946</v>
+      </c>
+      <c r="B65" s="16">
+        <v>91</v>
+      </c>
+      <c r="L65" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <v>43947</v>
+      </c>
+      <c r="B66" s="16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
+        <v>43948</v>
+      </c>
+      <c r="B67" s="16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
+        <v>43949</v>
+      </c>
+      <c r="B68" s="16">
+        <v>94</v>
+      </c>
+      <c r="L68" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="50"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
+        <v>43950</v>
+      </c>
+      <c r="B69" s="16">
+        <v>95</v>
+      </c>
+      <c r="L69" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="M69" s="69">
+        <v>0.2049</v>
+      </c>
+      <c r="N69" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
+        <v>43951</v>
+      </c>
+      <c r="B70" s="16">
+        <v>96</v>
+      </c>
+      <c r="L70" s="71">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="M70" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="N70" s="70"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
+        <v>43952</v>
+      </c>
+      <c r="B71" s="16">
+        <v>97</v>
+      </c>
+      <c r="L71" s="82"/>
+      <c r="M71" s="72"/>
+      <c r="N71" s="70"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
+        <v>43953</v>
+      </c>
+      <c r="B72" s="16">
+        <v>98</v>
+      </c>
+      <c r="L72" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="P72" s="74">
+        <f ca="1">TODAY()-43855</f>
+        <v>65</v>
+      </c>
+      <c r="Q72" s="84">
+        <f ca="1">TODAY()</f>
         <v>43920</v>
       </c>
-      <c r="B39" s="17">
-        <v>65</v>
-      </c>
-      <c r="G39" s="19"/>
-      <c r="K39" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="94"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="70">
-        <v>43913</v>
-      </c>
     </row>
-    <row r="40" spans="1:20 16382:16382">
-      <c r="A40" s="16">
-        <v>43921</v>
-      </c>
-      <c r="B40" s="17">
-        <v>66</v>
-      </c>
-      <c r="G40" s="19"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="O40" s="89"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="89"/>
-      <c r="S40">
-        <v>6568</v>
-      </c>
-      <c r="T40" t="s">
-        <v>22</v>
-      </c>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="15">
+        <v>43954</v>
+      </c>
+      <c r="B73" s="16">
+        <v>99</v>
+      </c>
+      <c r="L73" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" s="11">
+        <v>1000</v>
+      </c>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="13"/>
     </row>
-    <row r="41" spans="1:20 16382:16382" ht="15" customHeight="1">
-      <c r="A41" s="16">
-        <v>43922</v>
-      </c>
-      <c r="B41" s="17">
-        <v>67</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="K41" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="69">
-        <f>26420/14.57</f>
-        <v>1813.3150308853808</v>
-      </c>
-      <c r="T41" t="s">
-        <v>45</v>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="15">
+        <v>43955</v>
+      </c>
+      <c r="B74" s="16">
+        <v>100</v>
+      </c>
+      <c r="L74" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M74" s="53">
+        <f>LN($M73/$L70)/$M69</f>
+        <v>69.918673410103779</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O74" s="85">
+        <f ca="1">TODAY()+P74</f>
+        <v>43924.918673410102</v>
+      </c>
+      <c r="P74" s="54">
+        <f ca="1">M74-P72</f>
+        <v>4.9186734101037786</v>
+      </c>
+      <c r="Q74" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:20 16382:16382">
-      <c r="A42" s="16">
-        <v>43923</v>
-      </c>
-      <c r="B42" s="17">
-        <v>68</v>
-      </c>
-      <c r="G42" s="19"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L75" s="52"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="4"/>
+      <c r="O75" t="s">
+        <v>50</v>
+      </c>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="13"/>
     </row>
-    <row r="43" spans="1:20 16382:16382">
-      <c r="A43" s="16">
-        <v>43924</v>
-      </c>
-      <c r="B43" s="17">
-        <v>69</v>
-      </c>
-      <c r="G43" s="19"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L76" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="M76" s="11">
+        <v>3000</v>
+      </c>
+      <c r="N76" s="4"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="13"/>
     </row>
-    <row r="44" spans="1:20 16382:16382">
-      <c r="A44" s="16">
-        <v>43925</v>
-      </c>
-      <c r="B44" s="17">
-        <v>70</v>
-      </c>
-      <c r="K44" s="46" t="s">
-        <v>18</v>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L77" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" s="53">
+        <f>LN($M76/$L70)/$M69</f>
+        <v>75.280373208386408</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O77" s="85">
+        <f ca="1">TODAY()+P77</f>
+        <v>43930.280373208385</v>
+      </c>
+      <c r="P77" s="54">
+        <f ca="1">M77-P72</f>
+        <v>10.280373208386408</v>
+      </c>
+      <c r="Q77" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:20 16382:16382">
-      <c r="A45" s="16">
-        <v>43926</v>
-      </c>
-      <c r="B45" s="17">
-        <v>71</v>
-      </c>
-      <c r="K45" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="33"/>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L78" s="55"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="78"/>
+      <c r="P78" s="58"/>
+      <c r="Q78" s="59"/>
     </row>
-    <row r="46" spans="1:20 16382:16382">
-      <c r="A46" s="16">
-        <v>43927</v>
-      </c>
-      <c r="B46" s="17">
-        <v>72</v>
-      </c>
-      <c r="K46" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L46" s="14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20 16382:16382">
-      <c r="A47" s="16">
-        <v>43928</v>
-      </c>
-      <c r="B47" s="17">
-        <v>73</v>
-      </c>
-      <c r="K47" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L47" s="14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20 16382:16382">
-      <c r="A48" s="16">
-        <v>43929</v>
-      </c>
-      <c r="B48" s="17">
-        <v>74</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L48" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="16">
-        <v>43930</v>
-      </c>
-      <c r="B49" s="17">
-        <v>75</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L49" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="16">
-        <v>43931</v>
-      </c>
-      <c r="B50" s="17">
-        <v>76</v>
-      </c>
-      <c r="K50" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="16">
-        <v>43932</v>
-      </c>
-      <c r="B51" s="17">
-        <v>77</v>
-      </c>
-      <c r="K51" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="16">
-        <v>43933</v>
-      </c>
-      <c r="B52" s="17">
-        <v>78</v>
-      </c>
-      <c r="K52" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="16">
-        <v>43934</v>
-      </c>
-      <c r="B53" s="17">
-        <v>79</v>
-      </c>
-      <c r="K53" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L53" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="16">
-        <v>43935</v>
-      </c>
-      <c r="B54" s="17">
-        <v>80</v>
-      </c>
-      <c r="K54" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M54" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="16">
-        <v>43936</v>
-      </c>
-      <c r="B55" s="17">
-        <v>81</v>
-      </c>
-      <c r="K55" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="16">
-        <v>43937</v>
-      </c>
-      <c r="B56" s="17">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="16">
-        <v>43938</v>
-      </c>
-      <c r="B57" s="17">
-        <v>83</v>
-      </c>
-      <c r="K57" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="L57" s="33"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="16">
-        <v>43939</v>
-      </c>
-      <c r="B58" s="17">
-        <v>84</v>
-      </c>
-      <c r="K58" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="L58" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="M58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="16">
-        <v>43940</v>
-      </c>
-      <c r="B59" s="17">
-        <v>85</v>
-      </c>
-      <c r="K59" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L59" s="63">
-        <v>27</v>
-      </c>
-      <c r="M59" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="N59" s="82"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="16">
-        <v>43941</v>
-      </c>
-      <c r="B60" s="17">
-        <v>86</v>
-      </c>
-      <c r="K60" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="L60" s="63">
-        <v>27</v>
-      </c>
-      <c r="M60" s="83">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="16">
-        <v>43942</v>
-      </c>
-      <c r="B61" s="17">
-        <v>87</v>
-      </c>
-      <c r="K61" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L61" s="63">
-        <v>18</v>
-      </c>
-      <c r="M61" s="83">
-        <v>6922</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="16">
-        <v>43943</v>
-      </c>
-      <c r="B62" s="17">
-        <v>88</v>
-      </c>
-      <c r="K62" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L62" s="63">
-        <v>16</v>
-      </c>
-      <c r="M62" s="83">
-        <v>4528</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="16">
-        <v>43944</v>
-      </c>
-      <c r="B63" s="17">
-        <v>89</v>
-      </c>
-      <c r="K63" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" s="63">
-        <v>19</v>
-      </c>
-      <c r="M63" s="83">
-        <v>11075</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="16">
-        <v>43945</v>
-      </c>
-      <c r="B64" s="17">
-        <v>90</v>
-      </c>
-      <c r="K64" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64" s="63">
-        <v>18</v>
-      </c>
-      <c r="M64" s="83">
-        <v>3838</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65" s="16">
-        <v>43946</v>
-      </c>
-      <c r="B65" s="17">
-        <v>91</v>
-      </c>
-      <c r="K65" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" s="28">
-        <v>11</v>
-      </c>
-      <c r="M65" s="86">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66" s="16">
-        <v>43947</v>
-      </c>
-      <c r="B66" s="17">
-        <v>92</v>
-      </c>
-      <c r="K66" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L66" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="16">
-        <v>43948</v>
-      </c>
-      <c r="B67" s="17">
-        <v>93</v>
-      </c>
-      <c r="K67" s="44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
-      <c r="A68" s="16">
-        <v>43949</v>
-      </c>
-      <c r="B68" s="17">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
-      <c r="A69" s="16">
-        <v>43950</v>
-      </c>
-      <c r="B69" s="17">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" s="16">
-        <v>43951</v>
-      </c>
-      <c r="B70" s="17">
-        <v>96</v>
-      </c>
-      <c r="K70" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="52"/>
-      <c r="O70" s="52"/>
-      <c r="P70" s="53"/>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" s="16">
-        <v>43952</v>
-      </c>
-      <c r="B71" s="17">
-        <v>97</v>
-      </c>
-      <c r="K71" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="L71" s="72">
-        <v>0.17349999999999999</v>
-      </c>
-      <c r="M71" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="14"/>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="A72" s="16">
-        <v>43953</v>
-      </c>
-      <c r="B72" s="17">
-        <v>98</v>
-      </c>
-      <c r="K72" s="74">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="L72" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="M72" s="73"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="14"/>
-    </row>
-    <row r="73" spans="1:16">
-      <c r="A73" s="16">
-        <v>43954</v>
-      </c>
-      <c r="B73" s="17">
-        <v>99</v>
-      </c>
-      <c r="K73" s="85"/>
-      <c r="L73" s="75"/>
-      <c r="M73" s="73"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="14"/>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="A74" s="16">
-        <v>43955</v>
-      </c>
-      <c r="B74" s="17">
-        <v>100</v>
-      </c>
-      <c r="K74" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="O74" s="77">
-        <f ca="1">TODAY()-43855</f>
-        <v>64</v>
-      </c>
-      <c r="P74" s="87">
-        <f ca="1">TODAY()</f>
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="K75" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="L75" s="12">
-        <v>1000</v>
-      </c>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="14"/>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="K76" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="L76" s="56">
-        <f>LN($L75/$K72)/$L71</f>
-        <v>73.107253293793505</v>
-      </c>
-      <c r="M76" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N76" s="88">
-        <f ca="1">TODAY()+O76</f>
-        <v>43928.107253293791</v>
-      </c>
-      <c r="O76" s="57">
-        <f ca="1">L76-O74</f>
-        <v>9.1072532937935051</v>
-      </c>
-      <c r="P76" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="K77" s="55"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="14"/>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="K78" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="L78" s="12">
-        <v>3000</v>
-      </c>
-      <c r="M78" s="5"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="14"/>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="K79" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="L79" s="56">
-        <f>LN($L78/$K72)/$L71</f>
-        <v>79.439312594474259</v>
-      </c>
-      <c r="M79" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N79" s="88">
-        <f ca="1">TODAY()+O79</f>
-        <v>43934.439312594477</v>
-      </c>
-      <c r="O79" s="57">
-        <f ca="1">L79-O74</f>
-        <v>15.439312594474259</v>
-      </c>
-      <c r="P79" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="K80" s="58"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="60"/>
-      <c r="N80" s="81"/>
-      <c r="O80" s="61"/>
-      <c r="P80" s="62"/>
-    </row>
-    <row r="83" spans="12:15">
-      <c r="L83" s="49"/>
-      <c r="M83" s="48"/>
-      <c r="O83" s="49"/>
+    <row r="81" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M81" s="46"/>
+      <c r="N81" s="45"/>
+      <c r="P81" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="K41:O42"/>
-    <mergeCell ref="N31:R32"/>
-    <mergeCell ref="N34:R35"/>
-    <mergeCell ref="N38:R39"/>
+  <mergeCells count="4">
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="O31:S32"/>
+    <mergeCell ref="O34:S35"/>
+    <mergeCell ref="O38:S39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K39" r:id="rId1" location="countries"/>
-    <hyperlink ref="K38" r:id="rId2" location="section-0"/>
-    <hyperlink ref="K44" r:id="rId3" location="countries"/>
+    <hyperlink ref="L39" r:id="rId1" location="countries" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L41" r:id="rId2" location="countries" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L40" r:id="rId3" xr:uid="{B261FDD8-1C06-4EDF-AC78-9A93F433AF98}"/>
+    <hyperlink ref="L38" r:id="rId4" xr:uid="{035EB86F-3DC2-4BEA-B214-CFCD8B553350}"/>
+    <hyperlink ref="Q42" r:id="rId5" xr:uid="{D6A06521-D911-4ED9-9B67-6954AE3D911D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="landscape" r:id="rId6"/>
+  <drawing r:id="rId7"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adevecseri\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF77B8E-38E5-4F3B-A1A4-B24A3796C19D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="21405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12340" yWindow="0" windowWidth="25600" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -26,15 +23,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Days Since 1st Case</t>
   </si>
@@ -213,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -548,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -713,7 +707,6 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -752,6 +745,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -779,7 +776,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -822,7 +819,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1600" baseline="0"/>
@@ -835,7 +842,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -844,7 +861,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -853,7 +880,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -862,7 +899,17 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -875,8 +922,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18250214094560699"/>
-          <c:y val="1.12987297992433E-2"/>
+          <c:x val="0.182502140945607"/>
+          <c:y val="0.0112987297992433"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -891,26 +938,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -919,10 +946,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.0731299281432699E-2"/>
-          <c:y val="0.25959423349011002"/>
-          <c:w val="0.84378313532091198"/>
-          <c:h val="0.57463911598798667"/>
+          <c:x val="0.0607312992814327"/>
+          <c:y val="0.25959423349011"/>
+          <c:w val="0.843783135320912"/>
+          <c:h val="0.574639115987987"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -975,205 +1002,205 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>71</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,118 +1212,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>170</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>132</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>207</c:v>
+                  <c:v>207.0</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="#,##0">
-                  <c:v>382</c:v>
+                  <c:v>382.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9ABE-453D-90F4-BD091619B5BE}"/>
             </c:ext>
@@ -1304,7 +1331,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Trendline Data</c:v>
           </c:tx>
@@ -1345,15 +1372,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:forward val="1"/>
-            <c:backward val="10"/>
+            <c:forward val="1.0"/>
+            <c:backward val="10.0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.5524434447643071E-2"/>
-                  <c:y val="-1.5374078296130899E-2"/>
+                  <c:x val="-0.0455244344476431"/>
+                  <c:y val="-0.0153740782961309"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1393,175 +1420,175 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>71</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,76 +1600,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>170</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>207</c:v>
+                  <c:v>207.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>382</c:v>
+                  <c:v>382.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-9ABE-453D-90F4-BD091619B5BE}"/>
             </c:ext>
@@ -1656,9 +1683,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110919400"/>
-        <c:axId val="2112135048"/>
-        <c:extLst>
+        <c:axId val="2056239592"/>
+        <c:axId val="2094721640"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -2075,136 +2102,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>71</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,46 +2243,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>2730</c:v>
+                  <c:v>2730.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2753</c:v>
+                  <c:v>2753.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2861</c:v>
+                  <c:v>2861.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3873</c:v>
+                  <c:v>3873.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3036</c:v>
+                  <c:v>3036.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2086</c:v>
+                  <c:v>2086.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3951</c:v>
+                  <c:v>3951.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3178</c:v>
+                  <c:v>3178.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2915</c:v>
+                  <c:v>2915.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2482</c:v>
+                  <c:v>2482.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2040</c:v>
+                  <c:v>2040.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6114</c:v>
+                  <c:v>6114.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F9E-4CA3-B26E-7E17F3938924}"/>
             </c:ext>
@@ -2269,15 +2296,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112122072"/>
-        <c:axId val="2112128328"/>
+        <c:axId val="2095810248"/>
+        <c:axId val="2095803688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110919400"/>
+        <c:axId val="2056239592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="68"/>
-          <c:min val="33"/>
+          <c:max val="68.0"/>
+          <c:min val="33.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2324,8 +2351,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.5652000792486107E-2"/>
-              <c:y val="0.87129629009499399"/>
+              <c:x val="0.0656520007924861"/>
+              <c:y val="0.871296290094994"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2336,26 +2363,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -2394,13 +2401,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2112135048"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="2094721640"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112135048"/>
+        <c:axId val="2094721640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500.1"/>
@@ -2468,7 +2475,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.89056312566578"/>
-              <c:y val="0.46049206087386801"/>
+              <c:y val="0.460492060873868"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2479,26 +2486,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -2537,17 +2524,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110919400"/>
-        <c:crossesAt val="10000"/>
+        <c:crossAx val="2056239592"/>
+        <c:crossesAt val="10000.0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="50"/>
+        <c:majorUnit val="50.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112128328"/>
+        <c:axId val="2095803688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30000"/>
-          <c:min val="1000"/>
+          <c:max val="30000.0"/>
+          <c:min val="1000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2586,8 +2573,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.96233252341212272"/>
-              <c:y val="0.46412003533878304"/>
+              <c:x val="0.962332523412123"/>
+              <c:y val="0.464120035338783"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2598,25 +2585,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2655,13 +2623,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2112122072"/>
+        <c:crossAx val="2095810248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2000"/>
+        <c:majorUnit val="2000.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112122072"/>
+        <c:axId val="2095810248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2639,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112128328"/>
+        <c:crossAx val="2095803688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2691,10 +2659,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28629257113961049"/>
-          <c:y val="0.95135541071720098"/>
-          <c:w val="0.59069004658806812"/>
-          <c:h val="3.5885418628891483E-2"/>
+          <c:x val="0.286292571139611"/>
+          <c:y val="0.951355410717201"/>
+          <c:w val="0.590690046588068"/>
+          <c:h val="0.0358854186288915"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2728,14 +2696,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2767,12 +2735,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2792,10 +2760,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.0731299281432699E-2"/>
-          <c:y val="0.25959423349011002"/>
-          <c:w val="0.84378313532091198"/>
-          <c:h val="0.57463911598798667"/>
+          <c:x val="0.0607312992814327"/>
+          <c:y val="0.25959423349011"/>
+          <c:w val="0.843783135320912"/>
+          <c:h val="0.574639115987987"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2803,7 +2771,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>Deaths</c:v>
           </c:tx>
@@ -2840,205 +2808,205 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>71</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3050,118 +3018,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DA02-4DE1-8CAE-C0FEDE2A2A7A}"/>
             </c:ext>
@@ -3175,9 +3143,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110919400"/>
-        <c:axId val="2112135048"/>
-        <c:extLst>
+        <c:axId val="2055312056"/>
+        <c:axId val="2055305432"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -3929,9 +3897,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2112122072"/>
-        <c:axId val="2112128328"/>
-        <c:extLst>
+        <c:axId val="2055295240"/>
+        <c:axId val="2055298568"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -4168,11 +4136,11 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110919400"/>
+        <c:axId val="2055312056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="68"/>
-          <c:min val="33"/>
+          <c:max val="68.0"/>
+          <c:min val="33.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4215,8 +4183,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.5652000792486107E-2"/>
-              <c:y val="0.87129629009499399"/>
+              <c:x val="0.0656520007924861"/>
+              <c:y val="0.871296290094994"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4227,26 +4195,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -4285,18 +4233,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2112135048"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="2055305432"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="1"/>
+        <c:majorUnit val="1.0"/>
+        <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112135048"/>
+        <c:axId val="2055305432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
-          <c:min val="0"/>
+          <c:max val="50.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4343,8 +4291,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="4.3406872625286396E-4"/>
-              <c:y val="0.45836550335514281"/>
+              <c:x val="0.000434068726252864"/>
+              <c:y val="0.458365503355143"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4355,26 +4303,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -4408,17 +4336,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110919400"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="2055312056"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112128328"/>
+        <c:axId val="2055298568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30000"/>
-          <c:min val="1000"/>
+          <c:max val="30000.0"/>
+          <c:min val="1000.0"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="r"/>
@@ -4426,13 +4354,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112122072"/>
+        <c:crossAx val="2055295240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2000"/>
+        <c:majorUnit val="2000.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112122072"/>
+        <c:axId val="2055295240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4442,7 +4370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112128328"/>
+        <c:crossAx val="2055298568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4460,10 +4388,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19917040474127951"/>
-          <c:y val="0.95135541071720098"/>
-          <c:w val="0.10128073726553052"/>
-          <c:h val="3.588541862889149E-2"/>
+          <c:x val="0.19917040474128"/>
+          <c:y val="0.951355410717201"/>
+          <c:w val="0.101280737265531"/>
+          <c:h val="0.0358854186288915"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4497,14 +4425,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -5669,7 +5597,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE214DC-0EE4-40AE-B9B8-4B3DD3AB7269}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE214DC-0EE4-40AE-B9B8-4B3DD3AB7269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5705,7 +5633,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6939A149-340F-44B0-BFAA-DCA073DFBEF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6939A149-340F-44B0-BFAA-DCA073DFBEF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5742,7 +5670,7 @@
         <cdr:cNvPr id="7" name="Group 6">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F107B8-46BB-4401-AC67-1A91B962BB66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25F107B8-46BB-4401-AC67-1A91B962BB66}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -5750,8 +5678,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="5224757"/>
-          <a:ext cx="1147551" cy="535943"/>
+          <a:off x="0" y="4916438"/>
+          <a:ext cx="1311497" cy="504317"/>
           <a:chOff x="-98425" y="0"/>
           <a:chExt cx="920752" cy="533400"/>
         </a:xfrm>
@@ -5761,7 +5689,7 @@
           <cdr:cNvPr id="8" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9AC2C2-927E-460A-8D4E-51108B1586E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D9AC2C2-927E-460A-8D4E-51108B1586E6}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -5859,7 +5787,7 @@
           <cdr:cNvPr id="9" name="Straight Connector 8">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3827D673-01B5-4B4A-BD1E-55B47915711F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3827D673-01B5-4B4A-BD1E-55B47915711F}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -5905,7 +5833,7 @@
         <cdr:cNvPr id="13" name="Group 12">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0824A2B-C99A-46CE-8BC3-444E1092098C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0824A2B-C99A-46CE-8BC3-444E1092098C}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -5913,8 +5841,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2530990" y="5181937"/>
-          <a:ext cx="1222745" cy="536003"/>
+          <a:off x="2892582" y="4876145"/>
+          <a:ext cx="1397434" cy="504372"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -5924,7 +5852,7 @@
           <cdr:cNvPr id="14" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EA23D1-4581-4012-A558-92CC0C465CD9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33EA23D1-4581-4012-A558-92CC0C465CD9}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -6022,7 +5950,7 @@
           <cdr:cNvPr id="15" name="Straight Connector 14">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D264BD3-4391-4C3D-91CE-20FA038FA4A7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D264BD3-4391-4C3D-91CE-20FA038FA4A7}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -6068,7 +5996,7 @@
         <cdr:cNvPr id="22" name="Group 21">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC43EB90-B5A7-4C7C-8658-B6AA0D39751F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC43EB90-B5A7-4C7C-8658-B6AA0D39751F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -6076,8 +6004,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5960427" y="5188446"/>
-          <a:ext cx="919878" cy="547948"/>
+          <a:off x="6811968" y="4882270"/>
+          <a:ext cx="1051297" cy="515612"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
         </a:xfrm>
@@ -6087,7 +6015,7 @@
           <cdr:cNvPr id="23" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07120820-EFB4-4B27-8139-703BA371CAB9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07120820-EFB4-4B27-8139-703BA371CAB9}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -6182,7 +6110,7 @@
           <cdr:cNvPr id="24" name="Straight Connector 23">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6850518F-1263-43CF-8C42-21A1BACE3201}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6850518F-1263-43CF-8C42-21A1BACE3201}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -6228,7 +6156,7 @@
         <cdr:cNvPr id="16" name="Group 15">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1A4C6E-3C6F-4025-B829-0C68F16F5033}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC1A4C6E-3C6F-4025-B829-0C68F16F5033}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -6236,8 +6164,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3792340" y="5181459"/>
-          <a:ext cx="1222746" cy="536003"/>
+          <a:off x="4334136" y="4875695"/>
+          <a:ext cx="1397434" cy="504373"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -6247,7 +6175,7 @@
           <cdr:cNvPr id="17" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4CC128-501F-4C41-8146-7E7DDCFCE59F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA4CC128-501F-4C41-8146-7E7DDCFCE59F}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -6345,7 +6273,7 @@
           <cdr:cNvPr id="18" name="Straight Connector 17">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1089D6-9659-4320-8079-62E08D3CA16D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E1089D6-9659-4320-8079-62E08D3CA16D}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -6423,7 +6351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6475,7 +6403,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6669,47 +6597,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44:N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="87" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="29" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="17"/>
-    <col min="7" max="7" width="8.7109375" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="26" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="87" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="29" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="17"/>
+    <col min="7" max="7" width="8.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="26" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+    <col min="13" max="13" width="23.5" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="76" t="s">
         <v>34</v>
       </c>
@@ -6728,7 +6656,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="72"/>
       <c r="B2" s="74"/>
       <c r="C2" s="86"/>
@@ -6740,17 +6668,17 @@
       <c r="I2" s="4"/>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:21" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="35.25" customHeight="1" thickBot="1">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="96" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="68" t="s">
@@ -6773,7 +6701,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="15">
         <v>43885</v>
       </c>
@@ -6791,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15" thickBot="1">
       <c r="A5" s="15">
         <v>43886</v>
       </c>
@@ -6809,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15" thickBot="1">
       <c r="A6" s="15">
         <v>43887</v>
       </c>
@@ -6830,7 +6758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" s="15">
         <v>43888</v>
       </c>
@@ -6848,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" s="15">
         <v>43889</v>
       </c>
@@ -6866,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="15">
         <v>43890</v>
       </c>
@@ -6884,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" s="15">
         <v>43891</v>
       </c>
@@ -6904,7 +6832,7 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="15">
         <v>43892</v>
       </c>
@@ -6922,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="15">
         <v>43893</v>
       </c>
@@ -6940,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="15">
         <v>43894</v>
       </c>
@@ -6958,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="15">
         <v>43895</v>
       </c>
@@ -6976,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="15">
         <v>43896</v>
       </c>
@@ -6994,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="15">
         <v>43897</v>
       </c>
@@ -7012,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" s="15">
         <v>43898</v>
       </c>
@@ -7030,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" s="15">
         <v>43899</v>
       </c>
@@ -7048,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" s="15">
         <v>43900</v>
       </c>
@@ -7066,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="A20" s="15">
         <v>43901</v>
       </c>
@@ -7084,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" s="15">
         <v>43902</v>
       </c>
@@ -7102,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="15">
         <v>43903</v>
       </c>
@@ -7120,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" s="15">
         <v>43904</v>
       </c>
@@ -7140,7 +7068,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="A24" s="15">
         <v>43905</v>
       </c>
@@ -7154,13 +7082,13 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="F24" s="96">
+      <c r="F24" s="95">
         <v>0</v>
       </c>
       <c r="T24" s="5"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="A25" s="15">
         <v>43906</v>
       </c>
@@ -7178,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21">
       <c r="A26" s="15">
         <v>43907</v>
       </c>
@@ -7195,7 +7123,7 @@
         <v>11167</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="A27" s="15">
         <v>43908</v>
       </c>
@@ -7226,7 +7154,7 @@
       </c>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" s="15">
         <v>43909</v>
       </c>
@@ -7259,7 +7187,7 @@
         <v>1.5982564475118054E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" s="15">
         <v>43910</v>
       </c>
@@ -7292,7 +7220,7 @@
         <v>2.0971688220901782E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" s="15">
         <v>43911</v>
       </c>
@@ -7325,7 +7253,7 @@
         <v>1.5233668990446682E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15" customHeight="1">
       <c r="A31" s="15">
         <v>43912</v>
       </c>
@@ -7359,15 +7287,15 @@
         <v>Tests as of 03-30-2020</v>
       </c>
       <c r="N31" s="7"/>
-      <c r="O31" s="105" t="s">
+      <c r="O31" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="106"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="106"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" s="15">
         <v>43913</v>
       </c>
@@ -7399,20 +7327,20 @@
         <f t="shared" si="1"/>
         <v>3.7392138063279005E-2</v>
       </c>
-      <c r="L32" s="91" t="s">
+      <c r="L32" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="92" t="s">
+      <c r="M32" s="91" t="s">
         <v>53</v>
       </c>
       <c r="N32" s="7"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
     </row>
-    <row r="33" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19 16383:16383" ht="15" customHeight="1">
       <c r="A33" s="15">
         <v>43914</v>
       </c>
@@ -7444,11 +7372,11 @@
         <f t="shared" si="1"/>
         <v>2.1513540875727665E-2</v>
       </c>
-      <c r="L33" s="90" t="s">
+      <c r="L33" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="92" t="s">
-        <v>53</v>
+      <c r="M33" s="109">
+        <v>5654</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="33" t="s">
@@ -7463,10 +7391,10 @@
       <c r="S33" s="35"/>
       <c r="XFC33">
         <f>SUM(B33:XFB33)</f>
-        <v>38504.161636316996</v>
+        <v>44158.161636316996</v>
       </c>
     </row>
-    <row r="34" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19 16383:16383">
       <c r="A34" s="15">
         <v>43915</v>
       </c>
@@ -7505,16 +7433,16 @@
         <v>1706</v>
       </c>
       <c r="N34" s="7"/>
-      <c r="O34" s="105" t="str">
+      <c r="O34" s="104" t="str">
         <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;M37&amp;" total tests, finding "&amp;(M34+M35+M36)&amp;" positive:"</f>
         <v>As of March 30, Ontario reported 48461 total tests, finding 2160 positive:</v>
       </c>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="106"/>
-      <c r="S34" s="106"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="105"/>
     </row>
-    <row r="35" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19 16383:16383">
       <c r="A35" s="15">
         <v>43916</v>
       </c>
@@ -7553,13 +7481,13 @@
         <v>431</v>
       </c>
       <c r="N35" s="7"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="106"/>
-      <c r="S35" s="106"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
     </row>
-    <row r="36" spans="1:19 16383:16383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19 16383:16383" ht="14.25" customHeight="1">
       <c r="A36" s="15">
         <v>43917</v>
       </c>
@@ -7607,7 +7535,7 @@
       <c r="R36" s="38"/>
       <c r="S36" s="38"/>
     </row>
-    <row r="37" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19 16383:16383">
       <c r="A37" s="15">
         <v>43918</v>
       </c>
@@ -7652,7 +7580,7 @@
       <c r="R37" s="39"/>
       <c r="S37" s="39"/>
     </row>
-    <row r="38" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19 16383:16383" ht="15" customHeight="1">
       <c r="A38" s="15">
         <v>43919</v>
       </c>
@@ -7662,7 +7590,7 @@
       <c r="C38" s="9">
         <v>1324</v>
       </c>
-      <c r="D38" s="95">
+      <c r="D38" s="94">
         <v>207</v>
       </c>
       <c r="E38" s="17">
@@ -7687,26 +7615,26 @@
         <f>D38/H38</f>
         <v>3.3856722276741906E-2</v>
       </c>
-      <c r="L38" s="102" t="s">
+      <c r="L38" s="101" t="s">
         <v>55</v>
       </c>
       <c r="N38" s="7"/>
-      <c r="O38" s="107" t="s">
+      <c r="O38" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="107"/>
     </row>
-    <row r="39" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19 16383:16383">
       <c r="A39" s="15">
         <v>43920</v>
       </c>
       <c r="B39" s="16">
         <v>65</v>
       </c>
-      <c r="C39" s="94">
+      <c r="C39" s="93">
         <v>1706</v>
       </c>
       <c r="D39" s="88">
@@ -7720,24 +7648,24 @@
       <c r="F39" s="17">
         <v>0</v>
       </c>
-      <c r="G39" s="93">
+      <c r="G39" s="92">
         <v>48461</v>
       </c>
-      <c r="H39" s="99"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="101"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="100"/>
       <c r="L39" s="44" t="s">
         <v>16</v>
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="107"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="108"/>
+      <c r="O39" s="106"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
     </row>
-    <row r="40" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19 16383:16383">
       <c r="A40" s="15">
         <v>43921</v>
       </c>
@@ -7745,20 +7673,20 @@
         <v>66</v>
       </c>
       <c r="H40" s="18"/>
-      <c r="L40" s="102" t="s">
+      <c r="L40" s="101" t="s">
         <v>54</v>
       </c>
       <c r="M40" s="42"/>
       <c r="N40" s="42"/>
-      <c r="O40" s="104" t="s">
+      <c r="O40" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="P40" s="104"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="104"/>
-      <c r="S40" s="104"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
     </row>
-    <row r="41" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19 16383:16383" ht="15" customHeight="1">
       <c r="A41" s="15">
         <v>43922</v>
       </c>
@@ -7769,14 +7697,14 @@
       <c r="L41" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="103" t="s">
+      <c r="O41" s="102" t="s">
         <v>56</v>
       </c>
       <c r="P41" s="67">
         <v>43920</v>
       </c>
     </row>
-    <row r="42" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19 16383:16383">
       <c r="A42" s="15">
         <v>43923</v>
       </c>
@@ -7792,14 +7720,14 @@
         <f>395194/51.47</f>
         <v>7678.1426073440844</v>
       </c>
-      <c r="P42" s="103" t="s">
+      <c r="P42" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="102" t="s">
+      <c r="Q42" s="101" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19 16383:16383">
       <c r="A43" s="15">
         <v>43924</v>
       </c>
@@ -7817,11 +7745,11 @@
         <f>48461/14.57</f>
         <v>3326.0809883321895</v>
       </c>
-      <c r="P43" s="103" t="s">
+      <c r="P43" s="102" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19 16383:16383">
       <c r="A44" s="15">
         <v>43925</v>
       </c>
@@ -7835,7 +7763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19 16383:16383">
       <c r="A45" s="15">
         <v>43926</v>
       </c>
@@ -7849,7 +7777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19 16383:16383">
       <c r="A46" s="15">
         <v>43927</v>
       </c>
@@ -7863,7 +7791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19 16383:16383">
       <c r="A47" s="15">
         <v>43928</v>
       </c>
@@ -7877,7 +7805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19 16383:16383">
       <c r="A48" s="15">
         <v>43929</v>
       </c>
@@ -7891,7 +7819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" s="15">
         <v>43930</v>
       </c>
@@ -7905,7 +7833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" s="15">
         <v>43931</v>
       </c>
@@ -7919,7 +7847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" s="15">
         <v>43932</v>
       </c>
@@ -7936,7 +7864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15">
       <c r="A52" s="15">
         <v>43933</v>
       </c>
@@ -7947,7 +7875,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" s="15">
         <v>43934</v>
       </c>
@@ -7955,7 +7883,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15">
       <c r="A54" s="15">
         <v>43935</v>
       </c>
@@ -7967,7 +7895,7 @@
       </c>
       <c r="M54" s="32"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15">
       <c r="A55" s="15">
         <v>43936</v>
       </c>
@@ -7984,7 +7912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="A56" s="15">
         <v>43937</v>
       </c>
@@ -8002,7 +7930,7 @@
       </c>
       <c r="O56" s="79"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" s="15">
         <v>43938</v>
       </c>
@@ -8019,7 +7947,7 @@
         <v>6577</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" s="15">
         <v>43939</v>
       </c>
@@ -8036,7 +7964,7 @@
         <v>6933</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="A59" s="15">
         <v>43940</v>
       </c>
@@ -8053,7 +7981,7 @@
         <v>19452</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" s="15">
         <v>43941</v>
       </c>
@@ -8070,7 +7998,7 @@
         <v>4611</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" s="15">
         <v>43942</v>
       </c>
@@ -8087,7 +8015,7 @@
         <v>8271</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15">
       <c r="A62" s="15">
         <v>43943</v>
       </c>
@@ -8104,7 +8032,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15">
       <c r="A63" s="15">
         <v>43944</v>
       </c>
@@ -8121,7 +8049,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" s="15">
         <v>43945</v>
       </c>
@@ -8135,7 +8063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65" s="15">
         <v>43946</v>
       </c>
@@ -8146,7 +8074,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17">
       <c r="A66" s="15">
         <v>43947</v>
       </c>
@@ -8154,7 +8082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="A67" s="15">
         <v>43948</v>
       </c>
@@ -8162,7 +8090,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17">
       <c r="A68" s="15">
         <v>43949</v>
       </c>
@@ -8178,7 +8106,7 @@
       <c r="P68" s="49"/>
       <c r="Q68" s="50"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17">
       <c r="A69" s="15">
         <v>43950</v>
       </c>
@@ -8198,7 +8126,7 @@
       <c r="P69" s="4"/>
       <c r="Q69" s="13"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17">
       <c r="A70" s="15">
         <v>43951</v>
       </c>
@@ -8216,7 +8144,7 @@
       <c r="P70" s="4"/>
       <c r="Q70" s="13"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17">
       <c r="A71" s="15">
         <v>43952</v>
       </c>
@@ -8230,7 +8158,7 @@
       <c r="P71" s="4"/>
       <c r="Q71" s="13"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72" s="15">
         <v>43953</v>
       </c>
@@ -8254,7 +8182,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17">
       <c r="A73" s="15">
         <v>43954</v>
       </c>
@@ -8272,7 +8200,7 @@
       <c r="P73" s="4"/>
       <c r="Q73" s="13"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74" s="15">
         <v>43955</v>
       </c>
@@ -8301,7 +8229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="L75" s="52"/>
       <c r="M75" s="11"/>
       <c r="N75" s="4"/>
@@ -8311,7 +8239,7 @@
       <c r="P75" s="4"/>
       <c r="Q75" s="13"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="L76" s="52" t="s">
         <v>31</v>
       </c>
@@ -8323,7 +8251,7 @@
       <c r="P76" s="4"/>
       <c r="Q76" s="13"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="L77" s="52" t="s">
         <v>30</v>
       </c>
@@ -8346,7 +8274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17">
       <c r="L78" s="55"/>
       <c r="M78" s="56"/>
       <c r="N78" s="57"/>
@@ -8354,7 +8282,7 @@
       <c r="P78" s="58"/>
       <c r="Q78" s="59"/>
     </row>
-    <row r="81" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="13:16">
       <c r="M81" s="46"/>
       <c r="N81" s="45"/>
       <c r="P81" s="46"/>
@@ -8368,15 +8296,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L39" r:id="rId1" location="countries" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L41" r:id="rId2" location="countries" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L40" r:id="rId3" xr:uid="{B261FDD8-1C06-4EDF-AC78-9A93F433AF98}"/>
-    <hyperlink ref="L38" r:id="rId4" xr:uid="{035EB86F-3DC2-4BEA-B214-CFCD8B553350}"/>
-    <hyperlink ref="Q42" r:id="rId5" xr:uid="{D6A06521-D911-4ED9-9B67-6954AE3D911D}"/>
+    <hyperlink ref="L39" r:id="rId1" location="countries"/>
+    <hyperlink ref="L41" r:id="rId2" location="countries"/>
+    <hyperlink ref="L40" r:id="rId3"/>
+    <hyperlink ref="L38" r:id="rId4"/>
+    <hyperlink ref="Q42" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId6"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="21405"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adevecseri\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F92CFDC-D4CE-4C97-A92C-6EFA93A49675}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="0" windowWidth="25600" windowHeight="14900"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -23,12 +26,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>Days Since 1st Case</t>
   </si>
@@ -189,9 +195,6 @@
     <t>Peak: 3076</t>
   </si>
   <si>
-    <t>no longer reported</t>
-  </si>
-  <si>
     <t>https://files.ontario.ca/moh-covid-19-report-en-2020-03-29.pdf</t>
   </si>
   <si>
@@ -207,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -542,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -619,7 +622,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -653,7 +655,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,10 +708,6 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -726,8 +723,11 @@
     <xf numFmtId="3" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -745,10 +745,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -776,7 +780,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -819,21 +823,11 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1600" baseline="0"/>
-              <a:t>03/30/2020</a:t>
+              <a:t>03/31/2020</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" sz="2000" baseline="0"/>
@@ -842,17 +836,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -861,17 +845,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -880,17 +854,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -899,17 +863,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -922,8 +876,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.182502140945607"/>
-          <c:y val="0.0112987297992433"/>
+          <c:x val="0.18250214094560699"/>
+          <c:y val="1.12987297992433E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -938,6 +892,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -946,9 +920,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0607312992814327"/>
-          <c:y val="0.25959423349011"/>
-          <c:w val="0.843783135320912"/>
+          <c:x val="6.0731299281432699E-2"/>
+          <c:y val="0.25959423349011002"/>
+          <c:w val="0.84378313532091198"/>
           <c:h val="0.574639115987987"/>
         </c:manualLayout>
       </c:layout>
@@ -1002,205 +976,205 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>67.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>73.0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>83.0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>87.0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>92.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>94.0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,118 +1186,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>170.0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>132.0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>207.0</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="#,##0">
-                  <c:v>382.0</c:v>
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="#,##0">
+                  <c:v>260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9ABE-453D-90F4-BD091619B5BE}"/>
             </c:ext>
@@ -1331,7 +1308,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>Trendline Data</c:v>
           </c:tx>
@@ -1372,15 +1349,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:forward val="1.0"/>
-            <c:backward val="10.0"/>
+            <c:forward val="1"/>
+            <c:backward val="10"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0455244344476431"/>
-                  <c:y val="-0.0153740782961309"/>
+                  <c:x val="-4.5524434447643099E-2"/>
+                  <c:y val="-1.53740782961309E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1420,175 +1397,175 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>67.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>73.0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>83.0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>87.0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>92.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>94.0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,76 +1577,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>170.0</c:v>
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>207.0</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>382.0</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-9ABE-453D-90F4-BD091619B5BE}"/>
             </c:ext>
@@ -1685,7 +1674,7 @@
         </c:dLbls>
         <c:axId val="2056239592"/>
         <c:axId val="2094721640"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -2047,6 +2036,9 @@
                       </c:pt>
                       <c:pt idx="35">
                         <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>10</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2102,136 +2094,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>73.0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>83.0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>87.0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>92.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>94.0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2243,46 +2235,49 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>2730.0</c:v>
+                  <c:v>2730</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2753.0</c:v>
+                  <c:v>2753</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2861.0</c:v>
+                  <c:v>2861</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3873.0</c:v>
+                  <c:v>3873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3036.0</c:v>
+                  <c:v>3036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2086.0</c:v>
+                  <c:v>2086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3951.0</c:v>
+                  <c:v>3951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3178.0</c:v>
+                  <c:v>3178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2915.0</c:v>
+                  <c:v>2915</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2482.0</c:v>
+                  <c:v>2482</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2040.0</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6114.0</c:v>
+                  <c:v>6114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0F9E-4CA3-B26E-7E17F3938924}"/>
             </c:ext>
@@ -2303,8 +2298,8 @@
         <c:axId val="2056239592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="68.0"/>
-          <c:min val="33.0"/>
+          <c:max val="68"/>
+          <c:min val="33"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2351,8 +2346,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0656520007924861"/>
-              <c:y val="0.871296290094994"/>
+              <c:x val="6.5652000792486107E-2"/>
+              <c:y val="0.87129629009499399"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2363,6 +2358,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -2402,9 +2417,9 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2094721640"/>
-        <c:crossesAt val="0.0"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2094721640"/>
@@ -2475,7 +2490,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.89056312566578"/>
-              <c:y val="0.460492060873868"/>
+              <c:y val="0.46049206087386801"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2486,6 +2501,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -2525,16 +2560,16 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2056239592"/>
-        <c:crossesAt val="10000.0"/>
+        <c:crossesAt val="10000"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="50.0"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2095803688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30000.0"/>
-          <c:min val="1000.0"/>
+          <c:max val="30000"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2573,8 +2608,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.962332523412123"/>
-              <c:y val="0.464120035338783"/>
+              <c:x val="0.96233252341212305"/>
+              <c:y val="0.46412003533878299"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2585,6 +2620,25 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -2626,7 +2680,7 @@
         <c:crossAx val="2095810248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2000.0"/>
+        <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2095810248"/>
@@ -2659,10 +2713,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.286292571139611"/>
-          <c:y val="0.951355410717201"/>
-          <c:w val="0.590690046588068"/>
-          <c:h val="0.0358854186288915"/>
+          <c:x val="0.28629257113961099"/>
+          <c:y val="0.95135541071720098"/>
+          <c:w val="0.59069004658806801"/>
+          <c:h val="3.5885418628891497E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2696,14 +2750,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2735,12 +2789,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2760,9 +2814,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0607312992814327"/>
-          <c:y val="0.25959423349011"/>
-          <c:w val="0.843783135320912"/>
+          <c:x val="6.0731299281432699E-2"/>
+          <c:y val="0.25959423349011002"/>
+          <c:w val="0.84378313532091198"/>
           <c:h val="0.574639115987987"/>
         </c:manualLayout>
       </c:layout>
@@ -2771,7 +2825,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Deaths</c:v>
           </c:tx>
@@ -2808,205 +2862,205 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53.0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.0</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57.0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61.0</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>67.0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69.0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>71.0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>73.0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>75.0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>79.0</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>83.0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>85.0</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>87.0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>91.0</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>92.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>93.0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>94.0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>95.0</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3018,118 +3072,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DA02-4DE1-8CAE-C0FEDE2A2A7A}"/>
             </c:ext>
@@ -3145,7 +3202,7 @@
         </c:dLbls>
         <c:axId val="2055312056"/>
         <c:axId val="2055305432"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -3521,6 +3578,9 @@
                       </c:pt>
                       <c:pt idx="35" formatCode="#,##0">
                         <c:v>382</c:v>
+                      </c:pt>
+                      <c:pt idx="36" formatCode="#,##0">
+                        <c:v>260</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3610,7 +3670,7 @@
                 </c:trendline>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$14:$B$70</c15:sqref>
@@ -3796,7 +3856,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$14:$E$39</c15:sqref>
@@ -3842,6 +3902,9 @@
                       <c:pt idx="11">
                         <c:v>32</c:v>
                       </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
                       <c:pt idx="13">
                         <c:v>25</c:v>
                       </c:pt>
@@ -3854,6 +3917,9 @@
                       <c:pt idx="16">
                         <c:v>59</c:v>
                       </c:pt>
+                      <c:pt idx="17">
+                        <c:v>48</c:v>
+                      </c:pt>
                       <c:pt idx="18">
                         <c:v>78</c:v>
                       </c:pt>
@@ -3865,6 +3931,12 @@
                       </c:pt>
                       <c:pt idx="21">
                         <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>150</c:v>
                       </c:pt>
                       <c:pt idx="24">
                         <c:v>207</c:v>
@@ -3876,7 +3948,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-9ABE-453D-90F4-BD091619B5BE}"/>
                   </c:ext>
@@ -3899,7 +3971,7 @@
         </c:dLbls>
         <c:axId val="2055295240"/>
         <c:axId val="2055298568"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -4121,6 +4193,9 @@
                       <c:pt idx="11">
                         <c:v>6114</c:v>
                       </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3168</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -4139,8 +4214,8 @@
         <c:axId val="2055312056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="68.0"/>
-          <c:min val="33.0"/>
+          <c:max val="68"/>
+          <c:min val="33"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4183,8 +4258,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0656520007924861"/>
-              <c:y val="0.871296290094994"/>
+              <c:x val="6.5652000792486107E-2"/>
+              <c:y val="0.87129629009499399"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4195,6 +4270,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -4234,17 +4329,17 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2055305432"/>
-        <c:crossesAt val="0.0"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1.0"/>
-        <c:minorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2055305432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50.0"/>
-          <c:min val="0.0"/>
+          <c:max val="50"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4291,8 +4386,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.000434068726252864"/>
-              <c:y val="0.458365503355143"/>
+              <c:x val="4.3406872625286402E-4"/>
+              <c:y val="0.45836550335514298"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4303,6 +4398,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
@@ -4337,16 +4452,16 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2055312056"/>
-        <c:crossesAt val="0.0"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5.0"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2055298568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30000.0"/>
-          <c:min val="1000.0"/>
+          <c:max val="30000"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="r"/>
@@ -4357,7 +4472,7 @@
         <c:crossAx val="2055295240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2000.0"/>
+        <c:majorUnit val="2000"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2055295240"/>
@@ -4389,9 +4504,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.19917040474128"/>
-          <c:y val="0.951355410717201"/>
+          <c:y val="0.95135541071720098"/>
           <c:w val="0.101280737265531"/>
-          <c:h val="0.0358854186288915"/>
+          <c:h val="3.5885418628891497E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4425,14 +4540,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -5597,7 +5712,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE214DC-0EE4-40AE-B9B8-4B3DD3AB7269}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE214DC-0EE4-40AE-B9B8-4B3DD3AB7269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5633,7 +5748,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6939A149-340F-44B0-BFAA-DCA073DFBEF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6939A149-340F-44B0-BFAA-DCA073DFBEF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5670,7 +5785,7 @@
         <cdr:cNvPr id="7" name="Group 6">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25F107B8-46BB-4401-AC67-1A91B962BB66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F107B8-46BB-4401-AC67-1A91B962BB66}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -5678,8 +5793,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="4916438"/>
-          <a:ext cx="1311497" cy="504317"/>
+          <a:off x="0" y="5224757"/>
+          <a:ext cx="1147551" cy="535943"/>
           <a:chOff x="-98425" y="0"/>
           <a:chExt cx="920752" cy="533400"/>
         </a:xfrm>
@@ -5689,7 +5804,7 @@
           <cdr:cNvPr id="8" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D9AC2C2-927E-460A-8D4E-51108B1586E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9AC2C2-927E-460A-8D4E-51108B1586E6}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -5787,7 +5902,7 @@
           <cdr:cNvPr id="9" name="Straight Connector 8">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3827D673-01B5-4B4A-BD1E-55B47915711F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3827D673-01B5-4B4A-BD1E-55B47915711F}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -5833,7 +5948,7 @@
         <cdr:cNvPr id="13" name="Group 12">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0824A2B-C99A-46CE-8BC3-444E1092098C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0824A2B-C99A-46CE-8BC3-444E1092098C}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -5841,8 +5956,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2892582" y="4876145"/>
-          <a:ext cx="1397434" cy="504372"/>
+          <a:off x="2530990" y="5181937"/>
+          <a:ext cx="1222745" cy="536003"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -5852,7 +5967,7 @@
           <cdr:cNvPr id="14" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33EA23D1-4581-4012-A558-92CC0C465CD9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EA23D1-4581-4012-A558-92CC0C465CD9}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -5950,7 +6065,7 @@
           <cdr:cNvPr id="15" name="Straight Connector 14">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D264BD3-4391-4C3D-91CE-20FA038FA4A7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D264BD3-4391-4C3D-91CE-20FA038FA4A7}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -5996,7 +6111,7 @@
         <cdr:cNvPr id="22" name="Group 21">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC43EB90-B5A7-4C7C-8658-B6AA0D39751F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC43EB90-B5A7-4C7C-8658-B6AA0D39751F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -6004,8 +6119,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6811968" y="4882270"/>
-          <a:ext cx="1051297" cy="515612"/>
+          <a:off x="5960427" y="5188446"/>
+          <a:ext cx="919878" cy="547948"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
         </a:xfrm>
@@ -6015,7 +6130,7 @@
           <cdr:cNvPr id="23" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07120820-EFB4-4B27-8139-703BA371CAB9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07120820-EFB4-4B27-8139-703BA371CAB9}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -6110,7 +6225,7 @@
           <cdr:cNvPr id="24" name="Straight Connector 23">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6850518F-1263-43CF-8C42-21A1BACE3201}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6850518F-1263-43CF-8C42-21A1BACE3201}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -6156,7 +6271,7 @@
         <cdr:cNvPr id="16" name="Group 15">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC1A4C6E-3C6F-4025-B829-0C68F16F5033}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1A4C6E-3C6F-4025-B829-0C68F16F5033}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -6164,8 +6279,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4334136" y="4875695"/>
-          <a:ext cx="1397434" cy="504373"/>
+          <a:off x="3792340" y="5181459"/>
+          <a:ext cx="1222746" cy="536003"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -6175,7 +6290,7 @@
           <cdr:cNvPr id="17" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA4CC128-501F-4C41-8146-7E7DDCFCE59F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4CC128-501F-4C41-8146-7E7DDCFCE59F}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -6273,7 +6388,7 @@
           <cdr:cNvPr id="18" name="Straight Connector 17">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E1089D6-9659-4320-8079-62E08D3CA16D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1089D6-9659-4320-8079-62E08D3CA16D}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -6597,57 +6712,57 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44:N45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="87" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="29" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="17"/>
-    <col min="7" max="7" width="8.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="26" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="85" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="29" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="17"/>
+    <col min="7" max="7" width="8.7109375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="23.5" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
     <col min="21" max="21" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="77">
+      <c r="B1" s="75">
         <f ca="1">TODAY()-43855</f>
-        <v>65</v>
-      </c>
-      <c r="C1" s="75">
+        <v>66</v>
+      </c>
+      <c r="C1" s="73">
         <f ca="1">TODAY()</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -6656,11 +6771,11 @@
       <c r="I1" s="4"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="73"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="70"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="12"/>
@@ -6668,26 +6783,26 @@
       <c r="I2" s="4"/>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:21" ht="35.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:21" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="63" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -6701,7 +6816,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>43885</v>
       </c>
@@ -6719,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>43886</v>
       </c>
@@ -6737,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>43887</v>
       </c>
@@ -6754,11 +6869,11 @@
       <c r="F6" s="17">
         <v>0</v>
       </c>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43888</v>
       </c>
@@ -6776,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>43889</v>
       </c>
@@ -6794,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>43890</v>
       </c>
@@ -6812,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>43891</v>
       </c>
@@ -6832,7 +6947,7 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>43892</v>
       </c>
@@ -6850,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>43893</v>
       </c>
@@ -6868,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>43894</v>
       </c>
@@ -6886,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>43895</v>
       </c>
@@ -6904,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>43896</v>
       </c>
@@ -6922,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>43897</v>
       </c>
@@ -6940,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>43898</v>
       </c>
@@ -6958,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>43899</v>
       </c>
@@ -6976,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>43900</v>
       </c>
@@ -6994,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>43901</v>
       </c>
@@ -7012,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>43902</v>
       </c>
@@ -7030,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>43903</v>
       </c>
@@ -7048,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>43904</v>
       </c>
@@ -7068,7 +7183,7 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>43905</v>
       </c>
@@ -7082,13 +7197,13 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="F24" s="95">
+      <c r="F24" s="91">
         <v>0</v>
       </c>
       <c r="T24" s="5"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>43906</v>
       </c>
@@ -7106,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>43907</v>
       </c>
@@ -7116,6 +7231,10 @@
       <c r="D26" s="29">
         <v>12</v>
       </c>
+      <c r="E26" s="17">
+        <f t="shared" ref="E26:E37" si="1">D26</f>
+        <v>12</v>
+      </c>
       <c r="F26" s="17">
         <v>1</v>
       </c>
@@ -7123,7 +7242,7 @@
         <v>11167</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>43908</v>
       </c>
@@ -7134,7 +7253,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="F27" s="17">
@@ -7149,12 +7268,12 @@
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="26">
-        <f t="shared" ref="J27:J35" si="1">D27/H27</f>
+        <f t="shared" ref="J27:J35" si="2">D27/H27</f>
         <v>9.1575091575091579E-3</v>
       </c>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>43909</v>
       </c>
@@ -7165,7 +7284,7 @@
         <v>44</v>
       </c>
       <c r="E28" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="F28" s="17">
@@ -7183,11 +7302,11 @@
         <v>23</v>
       </c>
       <c r="J28" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5982564475118054E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>43910</v>
       </c>
@@ -7198,7 +7317,7 @@
         <v>60</v>
       </c>
       <c r="E29" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="F29" s="17">
@@ -7216,11 +7335,11 @@
         <v>108</v>
       </c>
       <c r="J29" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0971688220901782E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>43911</v>
       </c>
@@ -7231,7 +7350,7 @@
         <v>59</v>
       </c>
       <c r="E30" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="F30" s="17">
@@ -7241,19 +7360,19 @@
         <v>23384</v>
       </c>
       <c r="H30" s="18">
-        <f t="shared" ref="H30:I38" si="2">G30-G29</f>
+        <f t="shared" ref="H30:I38" si="3">G30-G29</f>
         <v>3873</v>
       </c>
       <c r="I30" s="14">
+        <f t="shared" si="3"/>
+        <v>1012</v>
+      </c>
+      <c r="J30" s="26">
         <f t="shared" si="2"/>
-        <v>1012</v>
-      </c>
-      <c r="J30" s="26">
-        <f t="shared" si="1"/>
         <v>1.5233668990446682E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>43912</v>
       </c>
@@ -7263,6 +7382,10 @@
       <c r="D31" s="29">
         <v>48</v>
       </c>
+      <c r="E31" s="17">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
       <c r="F31" s="17">
         <v>2</v>
       </c>
@@ -7270,32 +7393,32 @@
         <v>26420</v>
       </c>
       <c r="H31" s="18">
+        <f t="shared" si="3"/>
+        <v>3036</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="3"/>
+        <v>-837</v>
+      </c>
+      <c r="J31" s="26">
         <f t="shared" si="2"/>
-        <v>3036</v>
-      </c>
-      <c r="I31" s="14">
-        <f t="shared" si="2"/>
-        <v>-837</v>
-      </c>
-      <c r="J31" s="26">
-        <f t="shared" si="1"/>
         <v>1.5810276679841896E-2</v>
       </c>
       <c r="L31" s="8"/>
       <c r="M31" s="23" t="str">
         <f ca="1">"Tests as of" &amp;  TEXT(TODAY()," mm-dd-yyyy")</f>
-        <v>Tests as of 03-30-2020</v>
+        <v>Tests as of 03-31-2020</v>
       </c>
       <c r="N31" s="7"/>
-      <c r="O31" s="104" t="s">
+      <c r="O31" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="105"/>
-      <c r="S31" s="105"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>43913</v>
       </c>
@@ -7306,7 +7429,7 @@
         <v>78</v>
       </c>
       <c r="E32" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="F32" s="17">
@@ -7316,31 +7439,32 @@
         <v>28506</v>
       </c>
       <c r="H32" s="18">
+        <f t="shared" si="3"/>
+        <v>2086</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="3"/>
+        <v>-950</v>
+      </c>
+      <c r="J32" s="26">
         <f t="shared" si="2"/>
-        <v>2086</v>
-      </c>
-      <c r="I32" s="14">
-        <f t="shared" si="2"/>
-        <v>-950</v>
-      </c>
-      <c r="J32" s="26">
-        <f t="shared" si="1"/>
         <v>3.7392138063279005E-2</v>
       </c>
-      <c r="L32" s="90" t="s">
+      <c r="L32" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="91" t="s">
-        <v>53</v>
+      <c r="M32" s="107">
+        <f>M37-M36-M35-M34-M33</f>
+        <v>44816</v>
       </c>
       <c r="N32" s="7"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="105"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
     </row>
-    <row r="33" spans="1:19 16383:16383" ht="15" customHeight="1">
+    <row r="33" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>43914</v>
       </c>
@@ -7351,7 +7475,7 @@
         <v>85</v>
       </c>
       <c r="E33" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="F33" s="17">
@@ -7361,22 +7485,22 @@
         <v>32457</v>
       </c>
       <c r="H33" s="18">
+        <f t="shared" si="3"/>
+        <v>3951</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="3"/>
+        <v>1865</v>
+      </c>
+      <c r="J33" s="26">
         <f t="shared" si="2"/>
-        <v>3951</v>
-      </c>
-      <c r="I33" s="14">
-        <f t="shared" si="2"/>
-        <v>1865</v>
-      </c>
-      <c r="J33" s="26">
-        <f t="shared" si="1"/>
         <v>2.1513540875727665E-2</v>
       </c>
-      <c r="L33" s="108" t="s">
+      <c r="L33" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="109">
-        <v>5654</v>
+      <c r="M33" s="99">
+        <v>4280</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="33" t="s">
@@ -7391,10 +7515,10 @@
       <c r="S33" s="35"/>
       <c r="XFC33">
         <f>SUM(B33:XFB33)</f>
-        <v>44158.161636316996</v>
+        <v>42784.161636316996</v>
       </c>
     </row>
-    <row r="34" spans="1:19 16383:16383">
+    <row r="34" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>43915</v>
       </c>
@@ -7405,7 +7529,7 @@
         <v>100</v>
       </c>
       <c r="E34" s="17">
-        <f t="shared" ref="E34:E39" si="3">D34</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F34" s="17">
@@ -7415,34 +7539,35 @@
         <v>35635</v>
       </c>
       <c r="H34" s="18">
+        <f t="shared" si="3"/>
+        <v>3178</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="3"/>
+        <v>-773</v>
+      </c>
+      <c r="J34" s="26">
         <f t="shared" si="2"/>
-        <v>3178</v>
-      </c>
-      <c r="I34" s="14">
-        <f t="shared" si="2"/>
-        <v>-773</v>
-      </c>
-      <c r="J34" s="26">
-        <f t="shared" si="1"/>
         <v>3.1466331025802388E-2</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M34" s="62">
-        <v>1706</v>
+      <c r="M34" s="105">
+        <f>MAX(C38:C74)</f>
+        <v>1966</v>
       </c>
       <c r="N34" s="7"/>
-      <c r="O34" s="104" t="str">
+      <c r="O34" s="101" t="str">
         <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;M37&amp;" total tests, finding "&amp;(M34+M35+M36)&amp;" positive:"</f>
-        <v>As of March 30, Ontario reported 48461 total tests, finding 2160 positive:</v>
-      </c>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="105"/>
+        <v>As of March 31, Ontario reported 51629 total tests, finding 2533 positive:</v>
+      </c>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="102"/>
+      <c r="S34" s="102"/>
     </row>
-    <row r="35" spans="1:19 16383:16383">
+    <row r="35" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>43916</v>
       </c>
@@ -7453,7 +7578,7 @@
         <v>170</v>
       </c>
       <c r="E35" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="F35" s="17">
@@ -7463,31 +7588,31 @@
         <v>38550</v>
       </c>
       <c r="H35" s="18">
+        <f t="shared" si="3"/>
+        <v>2915</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="3"/>
+        <v>-263</v>
+      </c>
+      <c r="J35" s="26">
         <f t="shared" si="2"/>
-        <v>2915</v>
-      </c>
-      <c r="I35" s="14">
-        <f t="shared" si="2"/>
-        <v>-263</v>
-      </c>
-      <c r="J35" s="26">
-        <f t="shared" si="1"/>
         <v>5.8319039451114926E-2</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M35" s="61">
-        <v>431</v>
+      <c r="M35" s="60">
+        <v>534</v>
       </c>
       <c r="N35" s="7"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="102"/>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="102"/>
+      <c r="S35" s="102"/>
     </row>
-    <row r="36" spans="1:19 16383:16383" ht="14.25" customHeight="1">
+    <row r="36" spans="1:19 16383:16383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>43917</v>
       </c>
@@ -7497,6 +7622,10 @@
       <c r="D36" s="29">
         <v>132</v>
       </c>
+      <c r="E36" s="17">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
       <c r="F36" s="17">
         <v>3</v>
       </c>
@@ -7504,11 +7633,11 @@
         <v>41032</v>
       </c>
       <c r="H36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2482</v>
       </c>
       <c r="I36" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-433</v>
       </c>
       <c r="J36" s="26">
@@ -7520,22 +7649,22 @@
       </c>
       <c r="M36" s="2">
         <f>SUM(F4:F424)</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="36" t="str">
         <f>(M34+M35+M36)&amp;" / "&amp;M37&amp;" ="</f>
-        <v>2160 / 48461 =</v>
+        <v>2533 / 51629 =</v>
       </c>
       <c r="P36" s="37">
         <f>($M34+$M35+$M36)/(M37)</f>
-        <v>4.4571923815026518E-2</v>
+        <v>4.9061573921633191E-2</v>
       </c>
       <c r="Q36" s="38"/>
       <c r="R36" s="38"/>
       <c r="S36" s="38"/>
     </row>
-    <row r="37" spans="1:19 16383:16383">
+    <row r="37" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>43918</v>
       </c>
@@ -7546,6 +7675,10 @@
       <c r="D37" s="29">
         <v>150</v>
       </c>
+      <c r="E37" s="17">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
       <c r="F37" s="17">
         <v>1</v>
       </c>
@@ -7553,11 +7686,11 @@
         <v>43072</v>
       </c>
       <c r="H37" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2040</v>
       </c>
       <c r="I37" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-442</v>
       </c>
       <c r="J37" s="26">
@@ -7569,7 +7702,7 @@
       </c>
       <c r="M37" s="2">
         <f>MAX(G4:G37,G39:G70)</f>
-        <v>48461</v>
+        <v>51629</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="40" t="s">
@@ -7580,7 +7713,7 @@
       <c r="R37" s="39"/>
       <c r="S37" s="39"/>
     </row>
-    <row r="38" spans="1:19 16383:16383" ht="15" customHeight="1">
+    <row r="38" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>43919</v>
       </c>
@@ -7590,103 +7723,128 @@
       <c r="C38" s="9">
         <v>1324</v>
       </c>
-      <c r="D38" s="94">
+      <c r="D38" s="90">
         <v>207</v>
       </c>
       <c r="E38" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E34:E40" si="4">D38</f>
         <v>207</v>
       </c>
       <c r="F38" s="17">
         <v>4</v>
       </c>
-      <c r="G38" s="89">
+      <c r="G38" s="87">
         <v>49186</v>
       </c>
       <c r="H38" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6114</v>
       </c>
       <c r="I38" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4074</v>
       </c>
       <c r="J38" s="26">
         <f>D38/H38</f>
         <v>3.3856722276741906E-2</v>
       </c>
-      <c r="L38" s="101" t="s">
-        <v>55</v>
-      </c>
-      <c r="N38" s="7"/>
-      <c r="O38" s="106" t="s">
+      <c r="L38" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="109"/>
+      <c r="O38" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="P38" s="107"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="107"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
     </row>
-    <row r="39" spans="1:19 16383:16383">
+    <row r="39" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>43920</v>
       </c>
       <c r="B39" s="16">
         <v>65</v>
       </c>
-      <c r="C39" s="93">
+      <c r="C39" s="89">
         <v>1706</v>
       </c>
-      <c r="D39" s="88">
+      <c r="D39" s="86">
         <f>C39-C38</f>
         <v>382</v>
       </c>
       <c r="E39" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>382</v>
       </c>
       <c r="F39" s="17">
         <v>0</v>
       </c>
-      <c r="G39" s="92">
+      <c r="G39" s="88">
         <v>48461</v>
       </c>
-      <c r="H39" s="98"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="100"/>
-      <c r="L39" s="44" t="s">
+      <c r="H39" s="94"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="96"/>
+      <c r="L39" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="106"/>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="107"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="104"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
     </row>
-    <row r="40" spans="1:19 16383:16383">
+    <row r="40" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>43921</v>
       </c>
       <c r="B40" s="16">
         <v>66</v>
       </c>
-      <c r="H40" s="18"/>
-      <c r="L40" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="103" t="s">
+      <c r="C40" s="89">
+        <v>1966</v>
+      </c>
+      <c r="D40" s="86">
+        <f>C40-C39</f>
+        <v>260</v>
+      </c>
+      <c r="E40" s="17">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="F40" s="17">
+        <v>10</v>
+      </c>
+      <c r="G40" s="88">
+        <v>51629</v>
+      </c>
+      <c r="H40" s="18">
+        <f>G40-G39</f>
+        <v>3168</v>
+      </c>
+      <c r="J40" s="26">
+        <f>D40/H40</f>
+        <v>8.2070707070707072E-2</v>
+      </c>
+      <c r="L40" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" s="110"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="103"/>
-      <c r="R40" s="103"/>
-      <c r="S40" s="103"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="100"/>
     </row>
-    <row r="41" spans="1:19 16383:16383" ht="15" customHeight="1">
+    <row r="41" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>43922</v>
       </c>
@@ -7694,17 +7852,19 @@
         <v>67</v>
       </c>
       <c r="H41" s="18"/>
-      <c r="L41" s="44" t="s">
+      <c r="L41" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="O41" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="P41" s="67">
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="65">
         <v>43920</v>
       </c>
     </row>
-    <row r="42" spans="1:19 16383:16383">
+    <row r="42" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>43923</v>
       </c>
@@ -7716,18 +7876,18 @@
         <v>17</v>
       </c>
       <c r="M42" s="32"/>
-      <c r="O42" s="66">
+      <c r="O42" s="64">
         <f>395194/51.47</f>
         <v>7678.1426073440844</v>
       </c>
-      <c r="P42" s="102" t="s">
+      <c r="P42" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="101" t="s">
-        <v>57</v>
+      <c r="Q42" s="108" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:19 16383:16383">
+    <row r="43" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>43924</v>
       </c>
@@ -7741,15 +7901,15 @@
       <c r="M43" s="13">
         <v>13</v>
       </c>
-      <c r="O43" s="66">
+      <c r="O43" s="64">
         <f>48461/14.57</f>
         <v>3326.0809883321895</v>
       </c>
-      <c r="P43" s="102" t="s">
+      <c r="P43" s="97" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:19 16383:16383">
+    <row r="44" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43925</v>
       </c>
@@ -7763,7 +7923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:19 16383:16383">
+    <row r="45" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>43926</v>
       </c>
@@ -7777,7 +7937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:19 16383:16383">
+    <row r="46" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>43927</v>
       </c>
@@ -7791,7 +7951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:19 16383:16383">
+    <row r="47" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>43928</v>
       </c>
@@ -7805,7 +7965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:19 16383:16383">
+    <row r="48" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>43929</v>
       </c>
@@ -7819,7 +7979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>43930</v>
       </c>
@@ -7833,7 +7993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>43931</v>
       </c>
@@ -7847,7 +8007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>43932</v>
       </c>
@@ -7864,18 +8024,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>43933</v>
       </c>
       <c r="B52" s="16">
         <v>78</v>
       </c>
-      <c r="L52" s="43" t="s">
+      <c r="L52" s="42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>43934</v>
       </c>
@@ -7883,7 +8043,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>43935</v>
       </c>
@@ -7895,7 +8055,7 @@
       </c>
       <c r="M54" s="32"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>43936</v>
       </c>
@@ -7905,14 +8065,14 @@
       <c r="L55" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M55" s="47" t="s">
+      <c r="M55" s="46" t="s">
         <v>27</v>
       </c>
       <c r="N55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>43937</v>
       </c>
@@ -7922,15 +8082,15 @@
       <c r="L56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M56" s="60">
+      <c r="M56" s="59">
         <v>31</v>
       </c>
-      <c r="N56" s="80" t="s">
+      <c r="N56" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="O56" s="79"/>
+      <c r="O56" s="77"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>43938</v>
       </c>
@@ -7940,14 +8100,14 @@
       <c r="L57" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M57" s="60">
+      <c r="M57" s="59">
         <v>27</v>
       </c>
-      <c r="N57" s="80">
+      <c r="N57" s="78">
         <v>6577</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>43939</v>
       </c>
@@ -7957,14 +8117,14 @@
       <c r="L58" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M58" s="60">
+      <c r="M58" s="59">
         <v>23</v>
       </c>
-      <c r="N58" s="80">
+      <c r="N58" s="78">
         <v>6933</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>43940</v>
       </c>
@@ -7974,14 +8134,14 @@
       <c r="L59" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M59" s="60">
+      <c r="M59" s="59">
         <v>23</v>
       </c>
-      <c r="N59" s="80">
+      <c r="N59" s="78">
         <v>19452</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>43941</v>
       </c>
@@ -7991,14 +8151,14 @@
       <c r="L60" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M60" s="60">
+      <c r="M60" s="59">
         <v>23</v>
       </c>
-      <c r="N60" s="80">
+      <c r="N60" s="78">
         <v>4611</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>43942</v>
       </c>
@@ -8008,14 +8168,14 @@
       <c r="L61" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="60">
+      <c r="M61" s="59">
         <v>20</v>
       </c>
-      <c r="N61" s="80">
+      <c r="N61" s="78">
         <v>8271</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>43943</v>
       </c>
@@ -8025,14 +8185,14 @@
       <c r="L62" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M62" s="60">
+      <c r="M62" s="59">
         <v>17</v>
       </c>
-      <c r="N62" s="80">
+      <c r="N62" s="78">
         <v>2885</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>43944</v>
       </c>
@@ -8045,11 +8205,11 @@
       <c r="M63" s="27">
         <v>11</v>
       </c>
-      <c r="N63" s="83">
+      <c r="N63" s="81">
         <v>851</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>43945</v>
       </c>
@@ -8063,18 +8223,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>43946</v>
       </c>
       <c r="B65" s="16">
         <v>91</v>
       </c>
-      <c r="L65" s="43" t="s">
+      <c r="L65" s="42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>43947</v>
       </c>
@@ -8082,7 +8242,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>43948</v>
       </c>
@@ -8090,106 +8250,106 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>43949</v>
       </c>
       <c r="B68" s="16">
         <v>94</v>
       </c>
-      <c r="L68" s="48" t="s">
+      <c r="L68" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="50"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="49"/>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>43950</v>
       </c>
       <c r="B69" s="16">
         <v>95</v>
       </c>
-      <c r="L69" s="81" t="s">
+      <c r="L69" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="M69" s="69">
-        <v>0.2049</v>
-      </c>
-      <c r="N69" s="70" t="s">
+      <c r="M69" s="67">
+        <v>0.19769999999999999</v>
+      </c>
+      <c r="N69" s="68" t="s">
         <v>29</v>
       </c>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="13"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>43951</v>
       </c>
       <c r="B70" s="16">
         <v>96</v>
       </c>
-      <c r="L70" s="71">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="M70" s="72" t="s">
+      <c r="L70" s="69">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M70" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="N70" s="70"/>
+      <c r="N70" s="68"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="13"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>43952</v>
       </c>
       <c r="B71" s="16">
         <v>97</v>
       </c>
-      <c r="L71" s="82"/>
-      <c r="M71" s="72"/>
-      <c r="N71" s="70"/>
+      <c r="L71" s="80"/>
+      <c r="M71" s="70"/>
+      <c r="N71" s="68"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="13"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>43953</v>
       </c>
       <c r="B72" s="16">
         <v>98</v>
       </c>
-      <c r="L72" s="51" t="s">
+      <c r="L72" s="50" t="s">
         <v>44</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
-      <c r="O72" s="72" t="s">
+      <c r="O72" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="P72" s="74">
+      <c r="P72" s="72">
         <f ca="1">TODAY()-43855</f>
-        <v>65</v>
-      </c>
-      <c r="Q72" s="84">
+        <v>66</v>
+      </c>
+      <c r="Q72" s="82">
         <f ca="1">TODAY()</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>43954</v>
       </c>
       <c r="B73" s="16">
         <v>99</v>
       </c>
-      <c r="L73" s="52" t="s">
+      <c r="L73" s="51" t="s">
         <v>31</v>
       </c>
       <c r="M73" s="11">
@@ -8200,37 +8360,37 @@
       <c r="P73" s="4"/>
       <c r="Q73" s="13"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>43955</v>
       </c>
       <c r="B74" s="16">
         <v>100</v>
       </c>
-      <c r="L74" s="52" t="s">
+      <c r="L74" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="M74" s="53">
+      <c r="M74" s="52">
         <f>LN($M73/$L70)/$M69</f>
-        <v>69.918673410103779</v>
+        <v>71.009884214863348</v>
       </c>
       <c r="N74" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O74" s="85">
+      <c r="O74" s="83">
         <f ca="1">TODAY()+P74</f>
-        <v>43924.918673410102</v>
-      </c>
-      <c r="P74" s="54">
+        <v>43926.009884214865</v>
+      </c>
+      <c r="P74" s="53">
         <f ca="1">M74-P72</f>
-        <v>4.9186734101037786</v>
+        <v>5.009884214863348</v>
       </c>
       <c r="Q74" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
-      <c r="L75" s="52"/>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L75" s="51"/>
       <c r="M75" s="11"/>
       <c r="N75" s="4"/>
       <c r="O75" t="s">
@@ -8239,8 +8399,8 @@
       <c r="P75" s="4"/>
       <c r="Q75" s="13"/>
     </row>
-    <row r="76" spans="1:17">
-      <c r="L76" s="52" t="s">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L76" s="51" t="s">
         <v>31</v>
       </c>
       <c r="M76" s="11">
@@ -8251,41 +8411,41 @@
       <c r="P76" s="4"/>
       <c r="Q76" s="13"/>
     </row>
-    <row r="77" spans="1:17">
-      <c r="L77" s="52" t="s">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L77" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="M77" s="53">
+      <c r="M77" s="52">
         <f>LN($M76/$L70)/$M69</f>
-        <v>75.280373208386408</v>
+        <v>76.56685077362971</v>
       </c>
       <c r="N77" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O77" s="85">
+      <c r="O77" s="83">
         <f ca="1">TODAY()+P77</f>
-        <v>43930.280373208385</v>
-      </c>
-      <c r="P77" s="54">
+        <v>43931.566850773626</v>
+      </c>
+      <c r="P77" s="53">
         <f ca="1">M77-P72</f>
-        <v>10.280373208386408</v>
+        <v>10.56685077362971</v>
       </c>
       <c r="Q77" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
-      <c r="L78" s="55"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="78"/>
-      <c r="P78" s="58"/>
-      <c r="Q78" s="59"/>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L78" s="54"/>
+      <c r="M78" s="55"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="76"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="58"/>
     </row>
-    <row r="81" spans="13:16">
-      <c r="M81" s="46"/>
-      <c r="N81" s="45"/>
-      <c r="P81" s="46"/>
+    <row r="81" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M81" s="45"/>
+      <c r="N81" s="44"/>
+      <c r="P81" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8296,15 +8456,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L39" r:id="rId1" location="countries"/>
-    <hyperlink ref="L41" r:id="rId2" location="countries"/>
-    <hyperlink ref="L40" r:id="rId3"/>
-    <hyperlink ref="L38" r:id="rId4"/>
-    <hyperlink ref="Q42" r:id="rId5"/>
+    <hyperlink ref="L39" r:id="rId1" location="countries" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L41" r:id="rId2" location="countries" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L40" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L38" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q42" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="landscape" r:id="rId6"/>
+  <drawing r:id="rId7"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adevecseri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F92CFDC-D4CE-4C97-A92C-6EFA93A49675}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A53B93-5359-41FE-AAEE-110AAA24BF50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,6 +730,14 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -745,14 +753,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2568,7 +2568,7 @@
         <c:axId val="2095803688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30000"/>
+          <c:max val="28000"/>
           <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2826,15 +2826,10 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>Deaths</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="48000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2857,209 +2852,146 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$70</c:f>
+              <c:f>Sheet1!$B$25:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>57</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>61</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>63</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>66</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>67</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>68</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>71</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>72</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>73</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="66">
                   <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
@@ -3067,119 +2999,56 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$70</c:f>
+              <c:f>Sheet1!$F$25:$F$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="67"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -5697,13 +5566,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>35089</xdr:colOff>
+      <xdr:colOff>44614</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>8504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>34637</xdr:colOff>
+      <xdr:colOff>44162</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>179954</xdr:rowOff>
     </xdr:to>
@@ -6099,12 +5968,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.79822</cdr:x>
-      <cdr:y>0.86877</cdr:y>
+      <cdr:x>0.82373</cdr:x>
+      <cdr:y>0.86718</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.92141</cdr:x>
-      <cdr:y>0.96052</cdr:y>
+      <cdr:x>0.94692</cdr:x>
+      <cdr:y>0.95893</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
@@ -6119,7 +5988,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5960427" y="5188446"/>
+          <a:off x="6150927" y="5178921"/>
           <a:ext cx="919878" cy="547948"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
@@ -6420,6 +6289,169 @@
       </cdr:cxnSp>
     </cdr:grpSp>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67625</cdr:x>
+      <cdr:y>0.86601</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84</cdr:x>
+      <cdr:y>0.95576</cdr:y>
+    </cdr:to>
+    <cdr:grpSp>
+      <cdr:nvGrpSpPr>
+        <cdr:cNvPr id="19" name="Group 18">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFD5293-7691-46A3-A6B5-B9FF06EC9DAA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvGrpSpPr/>
+      </cdr:nvGrpSpPr>
+      <cdr:grpSpPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5049640" y="5171934"/>
+          <a:ext cx="1222746" cy="536003"/>
+          <a:chOff x="-98426" y="0"/>
+          <a:chExt cx="981077" cy="533400"/>
+        </a:xfrm>
+      </cdr:grpSpPr>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="20" name="TextBox 2">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDA6CAB-FE14-4479-8437-4196BF52879D}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="-98426" y="171450"/>
+            <a:ext cx="981077" cy="361950"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-CA" sz="1100"/>
+              <a:t>26-Mar-2020</a:t>
+            </a:r>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-CA" sz="1100"/>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+      <cdr:cxnSp macro="">
+        <cdr:nvCxnSpPr>
+          <cdr:cNvPr id="21" name="Straight Connector 20">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B232124F-9441-4E1B-B6E2-F3ABFE2620CD}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvCxnSpPr/>
+        </cdr:nvCxnSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="257174" y="0"/>
+            <a:ext cx="0" cy="219075"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </cdr:style>
+      </cdr:cxnSp>
+    </cdr:grpSp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -6466,7 +6498,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6518,7 +6550,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6725,8 +6757,8 @@
   </sheetPr>
   <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6845,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5:E33" si="0">D5</f>
+        <f t="shared" ref="E5:E24" si="0">D5</f>
         <v>1</v>
       </c>
       <c r="F5" s="17">
@@ -7410,13 +7442,13 @@
         <v>Tests as of 03-31-2020</v>
       </c>
       <c r="N31" s="7"/>
-      <c r="O31" s="101" t="s">
+      <c r="O31" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="108"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
@@ -7450,19 +7482,19 @@
         <f t="shared" si="2"/>
         <v>3.7392138063279005E-2</v>
       </c>
-      <c r="L32" s="106" t="s">
+      <c r="L32" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="107">
+      <c r="M32" s="102">
         <f>M37-M36-M35-M34-M33</f>
         <v>44816</v>
       </c>
       <c r="N32" s="7"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="102"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
     </row>
     <row r="33" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
@@ -7553,19 +7585,19 @@
       <c r="L34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M34" s="105">
+      <c r="M34" s="100">
         <f>MAX(C38:C74)</f>
         <v>1966</v>
       </c>
       <c r="N34" s="7"/>
-      <c r="O34" s="101" t="str">
+      <c r="O34" s="107" t="str">
         <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;M37&amp;" total tests, finding "&amp;(M34+M35+M36)&amp;" positive:"</f>
         <v>As of March 31, Ontario reported 51629 total tests, finding 2533 positive:</v>
       </c>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="102"/>
-      <c r="S34" s="102"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="108"/>
     </row>
     <row r="35" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
@@ -7606,11 +7638,11 @@
         <v>534</v>
       </c>
       <c r="N35" s="7"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="102"/>
-      <c r="Q35" s="102"/>
-      <c r="R35" s="102"/>
-      <c r="S35" s="102"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="108"/>
     </row>
     <row r="36" spans="1:19 16383:16383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
@@ -7727,7 +7759,7 @@
         <v>207</v>
       </c>
       <c r="E38" s="17">
-        <f t="shared" ref="E34:E40" si="4">D38</f>
+        <f t="shared" ref="E38:E40" si="4">D38</f>
         <v>207</v>
       </c>
       <c r="F38" s="17">
@@ -7748,18 +7780,18 @@
         <f>D38/H38</f>
         <v>3.3856722276741906E-2</v>
       </c>
-      <c r="L38" s="108" t="s">
+      <c r="L38" s="103" t="s">
         <v>54</v>
       </c>
       <c r="M38" s="6"/>
-      <c r="N38" s="109"/>
-      <c r="O38" s="103" t="s">
+      <c r="N38" s="104"/>
+      <c r="O38" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="104"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="110"/>
+      <c r="R38" s="110"/>
+      <c r="S38" s="110"/>
     </row>
     <row r="39" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
@@ -7791,13 +7823,13 @@
       <c r="L39" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="103"/>
-      <c r="P39" s="104"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="104"/>
-      <c r="S39" s="104"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="109"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="110"/>
+      <c r="S39" s="110"/>
     </row>
     <row r="40" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
@@ -7831,18 +7863,18 @@
         <f>D40/H40</f>
         <v>8.2070707070707072E-2</v>
       </c>
-      <c r="L40" s="108" t="s">
+      <c r="L40" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="100" t="s">
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="100"/>
-      <c r="R40" s="100"/>
-      <c r="S40" s="100"/>
+      <c r="P40" s="106"/>
+      <c r="Q40" s="106"/>
+      <c r="R40" s="106"/>
+      <c r="S40" s="106"/>
     </row>
     <row r="41" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
@@ -7883,7 +7915,7 @@
       <c r="P42" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="108" t="s">
+      <c r="Q42" s="103" t="s">
         <v>56</v>
       </c>
     </row>

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adevecseri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A53B93-5359-41FE-AAEE-110AAA24BF50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF9FAE8-A3FC-4F3B-A16E-B1FD9CB6AC92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,7 +867,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>Ontario Gov updates numbers daily @ 10:30am &amp; 5:30pm EST</a:t>
+              <a:t>Ontario Gov updates numbers daily @ 10:30am EST</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5988,8 +5988,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6150927" y="5178921"/>
-          <a:ext cx="919878" cy="547948"/>
+          <a:off x="6150914" y="5178951"/>
+          <a:ext cx="919878" cy="547947"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
         </a:xfrm>
@@ -6311,8 +6311,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5049640" y="5171934"/>
-          <a:ext cx="1222746" cy="536003"/>
+          <a:off x="5049659" y="5171963"/>
+          <a:ext cx="1222745" cy="536003"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -6757,8 +6757,8 @@
   </sheetPr>
   <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adevecseri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF9FAE8-A3FC-4F3B-A16E-B1FD9CB6AC92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FD3545-CD4F-4231-98B4-97D97A492128}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>Days Since 1st Case</t>
   </si>
@@ -168,16 +168,7 @@
     <t>Daily New Tests</t>
   </si>
   <si>
-    <t>Trying to predict when Ontario will peak:</t>
-  </si>
-  <si>
     <t>y =</t>
-  </si>
-  <si>
-    <t>Ontario was at ~50 cases/day on Mar 19, + 27 days = Apr 15</t>
-  </si>
-  <si>
-    <t>Ontario was at ~50 cases/day on Mar 19, + 9 to 14 days = Mar 28 - Apr 2</t>
   </si>
   <si>
     <t>New Cases</t>
@@ -186,13 +177,7 @@
     <t>Total Cases</t>
   </si>
   <si>
-    <t>(test results take 5-7 days)</t>
-  </si>
-  <si>
     <t>UK</t>
-  </si>
-  <si>
-    <t>Peak: 3076</t>
   </si>
   <si>
     <t>https://files.ontario.ca/moh-covid-19-report-en-2020-03-29.pdf</t>
@@ -205,6 +190,30 @@
   </si>
   <si>
     <t>https://www.cdc.go.kr/board/board.es?mid=a20501000000&amp;bid=0015</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Ontario was at ~50 cases/day on Mar 19, + 25 days = Apr 13</t>
+  </si>
+  <si>
+    <t>1000/day:</t>
+  </si>
+  <si>
+    <t>3000/day:</t>
+  </si>
+  <si>
+    <t>Trying to predict when Ontario's reported tests will peak:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontario was at ~50 cases/day on Mar 19, + 9 to 14 days = so 1000/day @ Mar 28 - Apr 2 </t>
+  </si>
+  <si>
+    <t>reporting changed</t>
+  </si>
+  <si>
+    <t>Test results take 5+ days so reality of spread is closer to:</t>
   </si>
 </sst>
 </file>
@@ -545,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -638,10 +647,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -753,6 +758,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -827,20 +845,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1600" baseline="0"/>
-              <a:t>03/31/2020</a:t>
+              <a:t>04/01/2020</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" sz="2000" baseline="0"/>
               <a:t> </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>https://news.ontario.ca/mohltc</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1295,6 +1304,9 @@
                 </c:pt>
                 <c:pt idx="36" formatCode="#,##0">
                   <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="#,##0">
+                  <c:v>426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,10 +1584,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$14:$E$39</c:f>
+              <c:f>Sheet1!$E$14:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1653,6 +1665,12 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2040,6 +2058,9 @@
                       <c:pt idx="36">
                         <c:v>10</c:v>
                       </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2273,6 +2294,9 @@
                 <c:pt idx="13">
                   <c:v>3168</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>6245</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2298,7 +2322,7 @@
         <c:axId val="2056239592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="68"/>
+          <c:max val="72"/>
           <c:min val="33"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2425,7 +2449,7 @@
         <c:axId val="2094721640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="500.1"/>
+          <c:max val="600.1"/>
           <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2529,12 +2553,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -2546,10 +2565,7 @@
             <a:pPr>
               <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2568,7 +2584,7 @@
         <c:axId val="2095803688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="28000"/>
+          <c:max val="25000"/>
           <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2700,9 +2716,7 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2826,6 +2840,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Deaths</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3050,6 +3067,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3450,6 +3470,9 @@
                       </c:pt>
                       <c:pt idx="36" formatCode="#,##0">
                         <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="37" formatCode="#,##0">
+                        <c:v>426</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4065,6 +4088,9 @@
                       <c:pt idx="13">
                         <c:v>3168</c:v>
                       </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6245</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -4083,7 +4109,7 @@
         <c:axId val="2055312056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="68"/>
+          <c:max val="72"/>
           <c:min val="33"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4097,69 +4123,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000"/>
-                  <a:t>Days Since 1st Case (Jan 25)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="6.5652000792486107E-2"/>
-              <c:y val="0.87129629009499399"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4183,12 +4146,7 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -4372,8 +4330,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19917040474128"/>
-          <c:y val="0.95135541071720098"/>
+          <c:x val="0.19104440443556792"/>
+          <c:y val="0.9513554675092365"/>
           <c:w val="0.101280737265531"/>
           <c:h val="3.5885418628891497E-2"/>
         </c:manualLayout>
@@ -5566,15 +5524,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>44614</xdr:colOff>
+      <xdr:colOff>43067</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>8504</xdr:rowOff>
+      <xdr:rowOff>1337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44162</xdr:colOff>
+      <xdr:colOff>35092</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>179954</xdr:rowOff>
+      <xdr:rowOff>172787</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5602,15 +5560,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>42883</xdr:colOff>
+      <xdr:colOff>42884</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>4512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>37235</xdr:colOff>
+      <xdr:colOff>37236</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>175962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5662,8 +5620,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="5224757"/>
-          <a:ext cx="1147551" cy="535943"/>
+          <a:off x="0" y="5233090"/>
+          <a:ext cx="1199092" cy="536798"/>
           <a:chOff x="-98425" y="0"/>
           <a:chExt cx="920752" cy="533400"/>
         </a:xfrm>
@@ -5805,12 +5763,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33895</cdr:x>
-      <cdr:y>0.86768</cdr:y>
+      <cdr:x>0.30196</cdr:x>
+      <cdr:y>0.86609</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.5027</cdr:x>
-      <cdr:y>0.95743</cdr:y>
+      <cdr:x>0.46571</cdr:x>
+      <cdr:y>0.95584</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
@@ -5825,8 +5783,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2530990" y="5181937"/>
-          <a:ext cx="1222745" cy="536003"/>
+          <a:off x="2356035" y="5180661"/>
+          <a:ext cx="1277663" cy="536858"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -5968,12 +5926,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.82373</cdr:x>
-      <cdr:y>0.86718</cdr:y>
+      <cdr:x>0.76378</cdr:x>
+      <cdr:y>0.86559</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.94692</cdr:x>
-      <cdr:y>0.95893</cdr:y>
+      <cdr:x>0.88697</cdr:x>
+      <cdr:y>0.95734</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
@@ -5988,8 +5946,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6150914" y="5178951"/>
-          <a:ext cx="919878" cy="547947"/>
+          <a:off x="5959392" y="5177671"/>
+          <a:ext cx="961193" cy="548821"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
         </a:xfrm>
@@ -6128,12 +6086,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.50787</cdr:x>
-      <cdr:y>0.8676</cdr:y>
+      <cdr:x>0.45557</cdr:x>
+      <cdr:y>0.86601</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.67162</cdr:x>
-      <cdr:y>0.95735</cdr:y>
+      <cdr:x>0.61932</cdr:x>
+      <cdr:y>0.95576</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
@@ -6148,8 +6106,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3792340" y="5181459"/>
-          <a:ext cx="1222746" cy="536003"/>
+          <a:off x="3554603" y="5180183"/>
+          <a:ext cx="1277664" cy="536858"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -6291,11 +6249,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.67625</cdr:x>
+      <cdr:x>0.60737</cdr:x>
       <cdr:y>0.86601</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.84</cdr:x>
+      <cdr:x>0.77112</cdr:x>
       <cdr:y>0.95576</cdr:y>
     </cdr:to>
     <cdr:grpSp>
@@ -6311,8 +6269,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5049659" y="5171963"/>
-          <a:ext cx="1222745" cy="536003"/>
+          <a:off x="4739006" y="5180212"/>
+          <a:ext cx="1277663" cy="536858"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -6757,15 +6715,15 @@
   </sheetPr>
   <dimension ref="A1:XFC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="85" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="83" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="29" customWidth="1"/>
     <col min="5" max="6" width="8.85546875" style="17"/>
     <col min="7" max="7" width="8.7109375" style="18" customWidth="1"/>
@@ -6774,9 +6732,9 @@
     <col min="10" max="10" width="9.42578125" style="26" customWidth="1"/>
     <col min="11" max="11" width="5.85546875" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
     <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="19" max="19" width="13.140625" customWidth="1"/>
@@ -6785,16 +6743,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="75">
+      <c r="B1" s="73">
         <f ca="1">TODAY()-43855</f>
-        <v>66</v>
-      </c>
-      <c r="C1" s="73">
+        <v>67</v>
+      </c>
+      <c r="C1" s="71">
         <f ca="1">TODAY()</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -6804,10 +6762,10 @@
       <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="12"/>
@@ -6822,19 +6780,19 @@
       <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="66" t="s">
+      <c r="C3" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="61" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -6901,11 +6859,11 @@
       <c r="F6" s="17">
         <v>0</v>
       </c>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>43888</v>
       </c>
@@ -6921,6 +6879,9 @@
       </c>
       <c r="F7" s="17">
         <v>0</v>
+      </c>
+      <c r="U7" s="115" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -7094,6 +7055,7 @@
       <c r="B17" s="16">
         <v>43</v>
       </c>
+      <c r="C17" s="87"/>
       <c r="D17" s="29">
         <v>4</v>
       </c>
@@ -7112,6 +7074,7 @@
       <c r="B18" s="16">
         <v>44</v>
       </c>
+      <c r="C18" s="87"/>
       <c r="D18" s="29">
         <v>4</v>
       </c>
@@ -7130,6 +7093,7 @@
       <c r="B19" s="16">
         <v>45</v>
       </c>
+      <c r="C19" s="87"/>
       <c r="D19" s="29">
         <v>2</v>
       </c>
@@ -7148,6 +7112,7 @@
       <c r="B20" s="16">
         <v>46</v>
       </c>
+      <c r="C20" s="87"/>
       <c r="D20" s="29">
         <v>5</v>
       </c>
@@ -7166,6 +7131,7 @@
       <c r="B21" s="16">
         <v>47</v>
       </c>
+      <c r="C21" s="87"/>
       <c r="D21" s="29">
         <v>18</v>
       </c>
@@ -7184,6 +7150,7 @@
       <c r="B22" s="16">
         <v>48</v>
       </c>
+      <c r="C22" s="87"/>
       <c r="D22" s="29">
         <v>19</v>
       </c>
@@ -7202,6 +7169,7 @@
       <c r="B23" s="16">
         <v>49</v>
       </c>
+      <c r="C23" s="87"/>
       <c r="D23" s="29">
         <v>24</v>
       </c>
@@ -7222,6 +7190,7 @@
       <c r="B24" s="16">
         <v>50</v>
       </c>
+      <c r="C24" s="87"/>
       <c r="D24" s="29">
         <v>43</v>
       </c>
@@ -7229,7 +7198,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="F24" s="91">
+      <c r="F24" s="89">
         <v>0</v>
       </c>
       <c r="T24" s="5"/>
@@ -7242,6 +7211,7 @@
       <c r="B25" s="16">
         <v>51</v>
       </c>
+      <c r="C25" s="87"/>
       <c r="D25" s="29">
         <v>32</v>
       </c>
@@ -7260,6 +7230,7 @@
       <c r="B26" s="16">
         <v>52</v>
       </c>
+      <c r="C26" s="87"/>
       <c r="D26" s="29">
         <v>12</v>
       </c>
@@ -7281,6 +7252,7 @@
       <c r="B27" s="16">
         <v>53</v>
       </c>
+      <c r="C27" s="87"/>
       <c r="D27" s="29">
         <v>25</v>
       </c>
@@ -7312,6 +7284,7 @@
       <c r="B28" s="16">
         <v>54</v>
       </c>
+      <c r="C28" s="87"/>
       <c r="D28" s="29">
         <v>44</v>
       </c>
@@ -7345,6 +7318,7 @@
       <c r="B29" s="16">
         <v>55</v>
       </c>
+      <c r="C29" s="87"/>
       <c r="D29" s="29">
         <v>60</v>
       </c>
@@ -7378,6 +7352,7 @@
       <c r="B30" s="16">
         <v>56</v>
       </c>
+      <c r="C30" s="87"/>
       <c r="D30" s="29">
         <v>59</v>
       </c>
@@ -7411,6 +7386,7 @@
       <c r="B31" s="16">
         <v>57</v>
       </c>
+      <c r="C31" s="87"/>
       <c r="D31" s="29">
         <v>48</v>
       </c>
@@ -7439,16 +7415,16 @@
       <c r="L31" s="8"/>
       <c r="M31" s="23" t="str">
         <f ca="1">"Tests as of" &amp;  TEXT(TODAY()," mm-dd-yyyy")</f>
-        <v>Tests as of 03-31-2020</v>
+        <v>Tests as of 04-01-2020</v>
       </c>
       <c r="N31" s="7"/>
-      <c r="O31" s="107" t="s">
+      <c r="O31" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="108"/>
-      <c r="S31" s="108"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="106"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
@@ -7457,6 +7433,7 @@
       <c r="B32" s="16">
         <v>58</v>
       </c>
+      <c r="C32" s="87"/>
       <c r="D32" s="29">
         <v>78</v>
       </c>
@@ -7482,19 +7459,19 @@
         <f t="shared" si="2"/>
         <v>3.7392138063279005E-2</v>
       </c>
-      <c r="L32" s="101" t="s">
+      <c r="L32" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="102">
+      <c r="M32" s="100">
         <f>M37-M36-M35-M34-M33</f>
-        <v>44816</v>
+        <v>51621</v>
       </c>
       <c r="N32" s="7"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="106"/>
+      <c r="R32" s="106"/>
+      <c r="S32" s="106"/>
     </row>
     <row r="33" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
@@ -7503,6 +7480,7 @@
       <c r="B33" s="16">
         <v>59</v>
       </c>
+      <c r="C33" s="87"/>
       <c r="D33" s="29">
         <v>85</v>
       </c>
@@ -7528,11 +7506,11 @@
         <f t="shared" si="2"/>
         <v>2.1513540875727665E-2</v>
       </c>
-      <c r="L33" s="98" t="s">
+      <c r="L33" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="99">
-        <v>4280</v>
+      <c r="M33" s="97">
+        <v>3135</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="33" t="s">
@@ -7547,7 +7525,7 @@
       <c r="S33" s="35"/>
       <c r="XFC33">
         <f>SUM(B33:XFB33)</f>
-        <v>42784.161636316996</v>
+        <v>41639.161636316996</v>
       </c>
     </row>
     <row r="34" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
@@ -7557,6 +7535,7 @@
       <c r="B34" s="16">
         <v>60</v>
       </c>
+      <c r="C34" s="87"/>
       <c r="D34" s="29">
         <v>100</v>
       </c>
@@ -7585,19 +7564,19 @@
       <c r="L34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M34" s="100">
+      <c r="M34" s="98">
         <f>MAX(C38:C74)</f>
-        <v>1966</v>
+        <v>2392</v>
       </c>
       <c r="N34" s="7"/>
-      <c r="O34" s="107" t="str">
+      <c r="O34" s="105" t="str">
         <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;M37&amp;" total tests, finding "&amp;(M34+M35+M36)&amp;" positive:"</f>
-        <v>As of March 31, Ontario reported 51629 total tests, finding 2533 positive:</v>
-      </c>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="108"/>
-      <c r="R34" s="108"/>
-      <c r="S34" s="108"/>
+        <v>As of April 01, Ontario reported 57874 total tests, finding 3118 positive:</v>
+      </c>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="106"/>
+      <c r="S34" s="106"/>
     </row>
     <row r="35" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
@@ -7606,6 +7585,7 @@
       <c r="B35" s="16">
         <v>61</v>
       </c>
+      <c r="C35" s="87"/>
       <c r="D35" s="29">
         <v>170</v>
       </c>
@@ -7634,15 +7614,15 @@
       <c r="L35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M35" s="60">
-        <v>534</v>
+      <c r="M35" s="58">
+        <v>689</v>
       </c>
       <c r="N35" s="7"/>
-      <c r="O35" s="107"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="108"/>
-      <c r="S35" s="108"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="106"/>
+      <c r="R35" s="106"/>
+      <c r="S35" s="106"/>
     </row>
     <row r="36" spans="1:19 16383:16383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
@@ -7651,6 +7631,7 @@
       <c r="B36" s="16">
         <v>62</v>
       </c>
+      <c r="C36" s="87"/>
       <c r="D36" s="29">
         <v>132</v>
       </c>
@@ -7681,16 +7662,16 @@
       </c>
       <c r="M36" s="2">
         <f>SUM(F4:F424)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="36" t="str">
         <f>(M34+M35+M36)&amp;" / "&amp;M37&amp;" ="</f>
-        <v>2533 / 51629 =</v>
+        <v>3118 / 57874 =</v>
       </c>
       <c r="P36" s="37">
         <f>($M34+$M35+$M36)/(M37)</f>
-        <v>4.9061573921633191E-2</v>
+        <v>5.3875660918547189E-2</v>
       </c>
       <c r="Q36" s="38"/>
       <c r="R36" s="38"/>
@@ -7703,7 +7684,7 @@
       <c r="B37" s="16">
         <v>63</v>
       </c>
-      <c r="C37"/>
+      <c r="C37" s="95"/>
       <c r="D37" s="29">
         <v>150</v>
       </c>
@@ -7734,7 +7715,7 @@
       </c>
       <c r="M37" s="2">
         <f>MAX(G4:G37,G39:G70)</f>
-        <v>51629</v>
+        <v>57874</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="40" t="s">
@@ -7752,20 +7733,20 @@
       <c r="B38" s="16">
         <v>64</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="109">
         <v>1324</v>
       </c>
-      <c r="D38" s="90">
+      <c r="D38" s="88">
         <v>207</v>
       </c>
       <c r="E38" s="17">
-        <f t="shared" ref="E38:E40" si="4">D38</f>
+        <f t="shared" ref="E38:E41" si="4">D38</f>
         <v>207</v>
       </c>
       <c r="F38" s="17">
         <v>4</v>
       </c>
-      <c r="G38" s="87">
+      <c r="G38" s="85">
         <v>49186</v>
       </c>
       <c r="H38" s="18">
@@ -7780,18 +7761,18 @@
         <f>D38/H38</f>
         <v>3.3856722276741906E-2</v>
       </c>
-      <c r="L38" s="103" t="s">
-        <v>54</v>
+      <c r="L38" s="101" t="s">
+        <v>49</v>
       </c>
       <c r="M38" s="6"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="109" t="s">
+      <c r="N38" s="102"/>
+      <c r="O38" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="110"/>
-      <c r="R38" s="110"/>
-      <c r="S38" s="110"/>
+      <c r="P38" s="108"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="108"/>
     </row>
     <row r="39" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
@@ -7800,10 +7781,10 @@
       <c r="B39" s="16">
         <v>65</v>
       </c>
-      <c r="C39" s="89">
+      <c r="C39" s="87">
         <v>1706</v>
       </c>
-      <c r="D39" s="86">
+      <c r="D39" s="84">
         <f>C39-C38</f>
         <v>382</v>
       </c>
@@ -7814,22 +7795,22 @@
       <c r="F39" s="17">
         <v>0</v>
       </c>
-      <c r="G39" s="88">
+      <c r="G39" s="86">
         <v>48461</v>
       </c>
-      <c r="H39" s="94"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="96"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="94"/>
       <c r="L39" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="110"/>
-      <c r="R39" s="110"/>
-      <c r="S39" s="110"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="108"/>
     </row>
     <row r="40" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
@@ -7838,10 +7819,10 @@
       <c r="B40" s="16">
         <v>66</v>
       </c>
-      <c r="C40" s="89">
+      <c r="C40" s="87">
         <v>1966</v>
       </c>
-      <c r="D40" s="86">
+      <c r="D40" s="84">
         <f>C40-C39</f>
         <v>260</v>
       </c>
@@ -7852,7 +7833,7 @@
       <c r="F40" s="17">
         <v>10</v>
       </c>
-      <c r="G40" s="88">
+      <c r="G40" s="86">
         <v>51629</v>
       </c>
       <c r="H40" s="18">
@@ -7863,18 +7844,18 @@
         <f>D40/H40</f>
         <v>8.2070707070707072E-2</v>
       </c>
-      <c r="L40" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="106" t="s">
+      <c r="L40" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="106"/>
-      <c r="S40" s="106"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="104"/>
     </row>
     <row r="41" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
@@ -7883,16 +7864,44 @@
       <c r="B41" s="16">
         <v>67</v>
       </c>
-      <c r="H41" s="18"/>
+      <c r="C41" s="87">
+        <v>2392</v>
+      </c>
+      <c r="D41" s="84">
+        <f>C41-C40</f>
+        <v>426</v>
+      </c>
+      <c r="E41" s="17">
+        <f t="shared" si="4"/>
+        <v>426</v>
+      </c>
+      <c r="F41" s="17">
+        <v>4</v>
+      </c>
+      <c r="G41" s="86">
+        <v>57874</v>
+      </c>
+      <c r="H41" s="18">
+        <f>G41-G40</f>
+        <v>6245</v>
+      </c>
+      <c r="I41" s="14">
+        <f>H41-H40</f>
+        <v>3077</v>
+      </c>
+      <c r="J41" s="26">
+        <f>D41/H41</f>
+        <v>6.8214571657325862E-2</v>
+      </c>
       <c r="L41" s="43" t="s">
         <v>16</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="P41" s="65">
+      <c r="O41" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="P41" s="63">
         <v>43920</v>
       </c>
     </row>
@@ -7903,20 +7912,21 @@
       <c r="B42" s="16">
         <v>68</v>
       </c>
+      <c r="C42" s="87"/>
       <c r="H42" s="18"/>
       <c r="L42" s="31" t="s">
         <v>17</v>
       </c>
       <c r="M42" s="32"/>
-      <c r="O42" s="64">
+      <c r="O42" s="62">
         <f>395194/51.47</f>
         <v>7678.1426073440844</v>
       </c>
-      <c r="P42" s="97" t="s">
+      <c r="P42" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="103" t="s">
-        <v>56</v>
+      <c r="Q42" s="101" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
@@ -7926,6 +7936,7 @@
       <c r="B43" s="16">
         <v>69</v>
       </c>
+      <c r="C43" s="87"/>
       <c r="H43" s="18"/>
       <c r="L43" s="17" t="s">
         <v>11</v>
@@ -7933,11 +7944,11 @@
       <c r="M43" s="13">
         <v>13</v>
       </c>
-      <c r="O43" s="64">
+      <c r="O43" s="62">
         <f>48461/14.57</f>
         <v>3326.0809883321895</v>
       </c>
-      <c r="P43" s="97" t="s">
+      <c r="P43" s="95" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7948,6 +7959,7 @@
       <c r="B44" s="16">
         <v>70</v>
       </c>
+      <c r="C44" s="87"/>
       <c r="L44" s="17" t="s">
         <v>12</v>
       </c>
@@ -7962,6 +7974,7 @@
       <c r="B45" s="16">
         <v>71</v>
       </c>
+      <c r="C45" s="87"/>
       <c r="L45" s="17" t="s">
         <v>13</v>
       </c>
@@ -7976,6 +7989,7 @@
       <c r="B46" s="16">
         <v>72</v>
       </c>
+      <c r="C46" s="87"/>
       <c r="L46" s="17" t="s">
         <v>14</v>
       </c>
@@ -7990,6 +8004,7 @@
       <c r="B47" s="16">
         <v>73</v>
       </c>
+      <c r="C47" s="87"/>
       <c r="L47" s="17" t="s">
         <v>15</v>
       </c>
@@ -8004,6 +8019,7 @@
       <c r="B48" s="16">
         <v>74</v>
       </c>
+      <c r="C48" s="87"/>
       <c r="L48" s="17" t="s">
         <v>18</v>
       </c>
@@ -8018,6 +8034,7 @@
       <c r="B49" s="16">
         <v>75</v>
       </c>
+      <c r="C49" s="87"/>
       <c r="L49" s="17" t="s">
         <v>19</v>
       </c>
@@ -8032,6 +8049,7 @@
       <c r="B50" s="16">
         <v>76</v>
       </c>
+      <c r="C50" s="87"/>
       <c r="L50" s="29" t="s">
         <v>20</v>
       </c>
@@ -8046,6 +8064,7 @@
       <c r="B51" s="16">
         <v>77</v>
       </c>
+      <c r="C51" s="87"/>
       <c r="L51" s="30" t="s">
         <v>20</v>
       </c>
@@ -8063,8 +8082,9 @@
       <c r="B52" s="16">
         <v>78</v>
       </c>
+      <c r="C52" s="87"/>
       <c r="L52" s="42" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -8074,6 +8094,7 @@
       <c r="B53" s="16">
         <v>79</v>
       </c>
+      <c r="C53" s="87"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
@@ -8082,6 +8103,7 @@
       <c r="B54" s="16">
         <v>80</v>
       </c>
+      <c r="C54" s="87"/>
       <c r="L54" s="31" t="s">
         <v>24</v>
       </c>
@@ -8094,6 +8116,7 @@
       <c r="B55" s="16">
         <v>81</v>
       </c>
+      <c r="C55" s="87"/>
       <c r="L55" s="41" t="s">
         <v>11</v>
       </c>
@@ -8111,16 +8134,17 @@
       <c r="B56" s="16">
         <v>82</v>
       </c>
+      <c r="C56" s="87"/>
       <c r="L56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M56" s="59">
-        <v>31</v>
-      </c>
-      <c r="N56" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="O56" s="77"/>
+      <c r="M56" s="57">
+        <v>33</v>
+      </c>
+      <c r="N56" s="76">
+        <v>3186</v>
+      </c>
+      <c r="O56" s="75"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
@@ -8129,13 +8153,14 @@
       <c r="B57" s="16">
         <v>83</v>
       </c>
+      <c r="C57" s="87"/>
       <c r="L57" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M57" s="59">
+      <c r="M57" s="57">
         <v>27</v>
       </c>
-      <c r="N57" s="78">
+      <c r="N57" s="76">
         <v>6577</v>
       </c>
     </row>
@@ -8146,13 +8171,14 @@
       <c r="B58" s="16">
         <v>84</v>
       </c>
+      <c r="C58" s="87"/>
       <c r="L58" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M58" s="59">
+      <c r="M58" s="57">
         <v>23</v>
       </c>
-      <c r="N58" s="78">
+      <c r="N58" s="76">
         <v>6933</v>
       </c>
     </row>
@@ -8163,14 +8189,15 @@
       <c r="B59" s="16">
         <v>85</v>
       </c>
+      <c r="C59" s="87"/>
       <c r="L59" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M59" s="59">
-        <v>23</v>
-      </c>
-      <c r="N59" s="78">
-        <v>19452</v>
+      <c r="M59" s="57">
+        <v>26</v>
+      </c>
+      <c r="N59" s="76">
+        <v>24742</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -8180,14 +8207,15 @@
       <c r="B60" s="16">
         <v>86</v>
       </c>
+      <c r="C60" s="87"/>
       <c r="L60" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M60" s="59">
-        <v>23</v>
-      </c>
-      <c r="N60" s="78">
-        <v>4611</v>
+      <c r="M60" s="57">
+        <v>26</v>
+      </c>
+      <c r="N60" s="76">
+        <v>7578</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -8197,13 +8225,14 @@
       <c r="B61" s="16">
         <v>87</v>
       </c>
+      <c r="C61" s="87"/>
       <c r="L61" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="59">
+      <c r="M61" s="57">
         <v>20</v>
       </c>
-      <c r="N61" s="78">
+      <c r="N61" s="76">
         <v>8271</v>
       </c>
     </row>
@@ -8214,13 +8243,14 @@
       <c r="B62" s="16">
         <v>88</v>
       </c>
+      <c r="C62" s="87"/>
       <c r="L62" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M62" s="59">
-        <v>17</v>
-      </c>
-      <c r="N62" s="78">
+        <v>47</v>
+      </c>
+      <c r="M62" s="57">
+        <v>21</v>
+      </c>
+      <c r="N62" s="76">
         <v>2885</v>
       </c>
     </row>
@@ -8231,13 +8261,14 @@
       <c r="B63" s="16">
         <v>89</v>
       </c>
+      <c r="C63" s="87"/>
       <c r="L63" s="29" t="s">
         <v>20</v>
       </c>
       <c r="M63" s="27">
         <v>11</v>
       </c>
-      <c r="N63" s="81">
+      <c r="N63" s="79">
         <v>851</v>
       </c>
     </row>
@@ -8248,11 +8279,13 @@
       <c r="B64" s="16">
         <v>90</v>
       </c>
+      <c r="C64" s="87"/>
       <c r="L64" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M64" s="28" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="M64" s="110">
+        <f>AVERAGE(M56:M62)</f>
+        <v>25.142857142857142</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -8262,8 +8295,9 @@
       <c r="B65" s="16">
         <v>91</v>
       </c>
+      <c r="C65" s="87"/>
       <c r="L65" s="42" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -8273,6 +8307,7 @@
       <c r="B66" s="16">
         <v>92</v>
       </c>
+      <c r="C66" s="87"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
@@ -8281,6 +8316,7 @@
       <c r="B67" s="16">
         <v>93</v>
       </c>
+      <c r="C67" s="87"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
@@ -8289,6 +8325,7 @@
       <c r="B68" s="16">
         <v>94</v>
       </c>
+      <c r="C68" s="87"/>
       <c r="L68" s="47" t="s">
         <v>36</v>
       </c>
@@ -8305,13 +8342,14 @@
       <c r="B69" s="16">
         <v>95</v>
       </c>
-      <c r="L69" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="M69" s="67">
-        <v>0.19769999999999999</v>
-      </c>
-      <c r="N69" s="68" t="s">
+      <c r="C69" s="87"/>
+      <c r="L69" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="M69" s="65">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="N69" s="66" t="s">
         <v>29</v>
       </c>
       <c r="O69" s="4"/>
@@ -8325,13 +8363,14 @@
       <c r="B70" s="16">
         <v>96</v>
       </c>
-      <c r="L70" s="69">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="M70" s="70" t="s">
+      <c r="C70" s="87"/>
+      <c r="L70" s="67">
+        <v>1E-3</v>
+      </c>
+      <c r="M70" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="N70" s="68"/>
+      <c r="N70" s="66"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="13"/>
@@ -8343,9 +8382,10 @@
       <c r="B71" s="16">
         <v>97</v>
       </c>
-      <c r="L71" s="80"/>
-      <c r="M71" s="70"/>
-      <c r="N71" s="68"/>
+      <c r="C71" s="87"/>
+      <c r="L71" s="78"/>
+      <c r="M71" s="68"/>
+      <c r="N71" s="66"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="13"/>
@@ -8357,21 +8397,22 @@
       <c r="B72" s="16">
         <v>98</v>
       </c>
+      <c r="C72" s="87"/>
       <c r="L72" s="50" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
-      <c r="O72" s="70" t="s">
+      <c r="O72" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="P72" s="72">
+      <c r="P72" s="70">
         <f ca="1">TODAY()-43855</f>
-        <v>66</v>
-      </c>
-      <c r="Q72" s="82">
+        <v>67</v>
+      </c>
+      <c r="Q72" s="80">
         <f ca="1">TODAY()</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -8381,6 +8422,7 @@
       <c r="B73" s="16">
         <v>99</v>
       </c>
+      <c r="C73" s="87"/>
       <c r="L73" s="51" t="s">
         <v>31</v>
       </c>
@@ -8399,23 +8441,24 @@
       <c r="B74" s="16">
         <v>100</v>
       </c>
+      <c r="C74" s="87"/>
       <c r="L74" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="M74" s="52">
+      <c r="M74" s="111">
         <f>LN($M73/$L70)/$M69</f>
-        <v>71.009884214863348</v>
+        <v>71.030902611641508</v>
       </c>
       <c r="N74" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O74" s="83">
+      <c r="O74" s="81">
         <f ca="1">TODAY()+P74</f>
-        <v>43926.009884214865</v>
-      </c>
-      <c r="P74" s="53">
+        <v>43926.030902611645</v>
+      </c>
+      <c r="P74" s="112">
         <f ca="1">M74-P72</f>
-        <v>5.009884214863348</v>
+        <v>4.0309026116415083</v>
       </c>
       <c r="Q74" s="13" t="s">
         <v>33</v>
@@ -8423,11 +8466,6 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L75" s="51"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="4"/>
-      <c r="O75" t="s">
-        <v>50</v>
-      </c>
       <c r="P75" s="4"/>
       <c r="Q75" s="13"/>
     </row>
@@ -8447,44 +8485,72 @@
       <c r="L77" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="M77" s="52">
+      <c r="M77" s="111">
         <f>LN($M76/$L70)/$M69</f>
-        <v>76.56685077362971</v>
+        <v>76.679294841297605</v>
       </c>
       <c r="N77" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O77" s="83">
+      <c r="O77" s="81">
         <f ca="1">TODAY()+P77</f>
-        <v>43931.566850773626</v>
-      </c>
-      <c r="P77" s="53">
+        <v>43931.679294841299</v>
+      </c>
+      <c r="P77" s="112">
         <f ca="1">M77-P72</f>
-        <v>10.56685077362971</v>
+        <v>9.6792948412976045</v>
       </c>
       <c r="Q77" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L78" s="54"/>
-      <c r="M78" s="55"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="76"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="58"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="53"/>
+      <c r="N78" s="54"/>
+      <c r="O78" s="74"/>
+      <c r="P78" s="55"/>
+      <c r="Q78" s="56"/>
     </row>
-    <row r="81" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M81" s="45"/>
-      <c r="N81" s="44"/>
-      <c r="P81" s="45"/>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L80" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="M80" s="113"/>
+      <c r="N80" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="O80" s="114">
+        <f ca="1">O74-5</f>
+        <v>43921.030902611645</v>
+      </c>
+      <c r="P80" s="45">
+        <f ca="1">P74-5+67</f>
+        <v>66.030902611641508</v>
+      </c>
+    </row>
+    <row r="81" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L81" s="113"/>
+      <c r="M81" s="113"/>
+      <c r="N81" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="O81" s="114">
+        <f ca="1">O77-5</f>
+        <v>43926.679294841299</v>
+      </c>
+      <c r="P81" s="45">
+        <f ca="1">P77-5+67</f>
+        <v>71.679294841297605</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="O40:S40"/>
     <mergeCell ref="O31:S32"/>
     <mergeCell ref="O34:S35"/>
     <mergeCell ref="O38:S39"/>
+    <mergeCell ref="L80:M81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/OntarioCovidCases.xlsx
+++ b/OntarioCovidCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adevecseri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FD3545-CD4F-4231-98B4-97D97A492128}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F62B19C-F745-4B77-82E8-F319C364EDDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>Days Since 1st Case</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Avg</t>
   </si>
   <si>
-    <t>Ontario was at ~50 cases/day on Mar 19, + 25 days = Apr 13</t>
-  </si>
-  <si>
     <t>1000/day:</t>
   </si>
   <si>
@@ -214,6 +211,18 @@
   </si>
   <si>
     <t>Test results take 5+ days so reality of spread is closer to:</t>
+  </si>
+  <si>
+    <t>Ontario was at ~50 cases/day on Mar 19, + 27 days = Apr 15</t>
+  </si>
+  <si>
+    <t>curve is not close enough to exp as of Apr 6</t>
+  </si>
+  <si>
+    <t>but Ontario had 50 cases/day on Mar 19</t>
+  </si>
+  <si>
+    <t>the worst hit countries went from 50 to peak btwn 20-33 days, SK being the exception</t>
   </si>
 </sst>
 </file>
@@ -554,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -642,7 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -743,6 +751,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -758,19 +776,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -845,7 +857,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1600" baseline="0"/>
-              <a:t>04/01/2020</a:t>
+              <a:t>04/06/2020</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" sz="2000" baseline="0"/>
@@ -1308,6 +1320,21 @@
                 <c:pt idx="37" formatCode="#,##0">
                   <c:v>426</c:v>
                 </c:pt>
+                <c:pt idx="38" formatCode="#,##0">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="#,##0">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="#,##0">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="#,##0">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="#,##0">
+                  <c:v>309</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1315,370 +1342,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9ABE-453D-90F4-BD091619B5BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Trendline Data</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:forward val="1"/>
-            <c:backward val="10"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.5524434447643099E-2"/>
-                  <c:y val="-1.53740782961309E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$14:$B$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$14:$E$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>426</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9ABE-453D-90F4-BD091619B5BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2061,6 +1724,21 @@
                       <c:pt idx="37">
                         <c:v>4</c:v>
                       </c:pt>
+                      <c:pt idx="38">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>13</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2068,6 +1746,396 @@
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-DA02-4DE1-8CAE-C0FEDE2A2A7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="exp"/>
+                  <c:forward val="1"/>
+                  <c:backward val="10"/>
+                  <c:dispRSqr val="0"/>
+                  <c:dispEq val="1"/>
+                  <c:trendlineLbl>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="-4.5524434447643099E-2"/>
+                        <c:y val="-1.53740782961309E-2"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:numFmt formatCode="General" sourceLinked="0"/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="65000"/>
+                                <a:lumOff val="35000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                        <a:endParaRPr lang="en-US"/>
+                      </a:p>
+                    </c:txPr>
+                  </c:trendlineLbl>
+                </c:trendline>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$14:$B$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="57"/>
+                      <c:pt idx="0">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>96</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$14:$E$46</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>207</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>382</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>426</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>401</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>462</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>375</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>408</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>309</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-9ABE-453D-90F4-BD091619B5BE}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2297,6 +2365,21 @@
                 <c:pt idx="14">
                   <c:v>6245</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>4859</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4585</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3708</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3750</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2322,8 +2405,8 @@
         <c:axId val="2056239592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="72"/>
-          <c:min val="33"/>
+          <c:max val="76"/>
+          <c:min val="39"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2449,7 +2532,7 @@
         <c:axId val="2094721640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="600.1"/>
+          <c:max val="500.1"/>
           <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2584,7 +2667,7 @@
         <c:axId val="2095803688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25000"/>
+          <c:max val="11000"/>
           <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2696,7 +2779,7 @@
         <c:crossAx val="2095810248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2000"/>
+        <c:majorUnit val="1000"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2095810248"/>
@@ -3071,6 +3154,21 @@
                 <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3473,6 +3571,21 @@
                       </c:pt>
                       <c:pt idx="37" formatCode="#,##0">
                         <c:v>426</c:v>
+                      </c:pt>
+                      <c:pt idx="38" formatCode="#,##0">
+                        <c:v>401</c:v>
+                      </c:pt>
+                      <c:pt idx="39" formatCode="#,##0">
+                        <c:v>462</c:v>
+                      </c:pt>
+                      <c:pt idx="40" formatCode="#,##0">
+                        <c:v>375</c:v>
+                      </c:pt>
+                      <c:pt idx="41" formatCode="#,##0">
+                        <c:v>408</c:v>
+                      </c:pt>
+                      <c:pt idx="42" formatCode="#,##0">
+                        <c:v>309</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4091,6 +4204,21 @@
                       <c:pt idx="14">
                         <c:v>6245</c:v>
                       </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4859</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4020</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4585</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3708</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3750</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -4109,8 +4237,8 @@
         <c:axId val="2055312056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="72"/>
-          <c:min val="33"/>
+          <c:max val="76"/>
+          <c:min val="39"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4165,7 +4293,7 @@
         <c:axId val="2055305432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
+          <c:max val="80"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5601,11 +5729,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0</cdr:x>
-      <cdr:y>0.87485</cdr:y>
+      <cdr:y>0.86761</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.15368</cdr:x>
-      <cdr:y>0.96459</cdr:y>
+      <cdr:y>0.95735</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
@@ -5620,7 +5748,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="5233090"/>
+          <a:off x="0" y="5189795"/>
           <a:ext cx="1199092" cy="536798"/>
           <a:chOff x="-98425" y="0"/>
           <a:chExt cx="920752" cy="533400"/>
@@ -5763,11 +5891,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.30196</cdr:x>
+      <cdr:x>0.27311</cdr:x>
       <cdr:y>0.86609</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.46571</cdr:x>
+      <cdr:x>0.43686</cdr:x>
       <cdr:y>0.95584</cdr:y>
     </cdr:to>
     <cdr:grpSp>
@@ -5783,8 +5911,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2356035" y="5180661"/>
-          <a:ext cx="1277663" cy="536858"/>
+          <a:off x="2130914" y="5180692"/>
+          <a:ext cx="1277664" cy="536857"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
@@ -5879,7 +6007,7 @@
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
               <a:rPr lang="en-CA" sz="1100"/>
-              <a:t>12-Mar-2020</a:t>
+              <a:t>16-Mar-2020</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -5926,12 +6054,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.76378</cdr:x>
-      <cdr:y>0.86559</cdr:y>
+      <cdr:x>0.78043</cdr:x>
+      <cdr:y>0.86704</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.88697</cdr:x>
-      <cdr:y>0.95734</cdr:y>
+      <cdr:x>0.90362</cdr:x>
+      <cdr:y>0.95879</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
@@ -5946,7 +6074,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5959392" y="5177671"/>
+          <a:off x="6089300" y="5186359"/>
           <a:ext cx="961193" cy="548821"/>
           <a:chOff x="49163" y="0"/>
           <a:chExt cx="738012" cy="545390"/>
@@ -6086,19 +6214,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.45557</cdr:x>
-      <cdr:y>0.86601</cdr:y>
+      <cdr:x>0.43402</cdr:x>
+      <cdr:y>0.86609</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.61932</cdr:x>
-      <cdr:y>0.95576</cdr:y>
+      <cdr:x>0.59777</cdr:x>
+      <cdr:y>0.95584</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
-        <cdr:cNvPr id="16" name="Group 15">
+        <cdr:cNvPr id="25" name="Group 24">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1A4C6E-3C6F-4025-B829-0C68F16F5033}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A0A7BA-FB18-464A-A12D-01AB38A52942}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -6106,18 +6234,18 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3554603" y="5180183"/>
-          <a:ext cx="1277664" cy="536858"/>
+          <a:off x="3386482" y="5180692"/>
+          <a:ext cx="1277664" cy="536857"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
       </cdr:grpSpPr>
       <cdr:sp macro="" textlink="">
         <cdr:nvSpPr>
-          <cdr:cNvPr id="17" name="TextBox 2">
+          <cdr:cNvPr id="26" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4CC128-501F-4C41-8146-7E7DDCFCE59F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DCA4FC-D0AE-4A7E-8717-3B4A903368AA}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -6202,7 +6330,7 @@
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
               <a:rPr lang="en-CA" sz="1100"/>
-              <a:t>19-Mar-2020</a:t>
+              <a:t>23-Mar-2020</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -6212,10 +6340,10 @@
       </cdr:sp>
       <cdr:cxnSp macro="">
         <cdr:nvCxnSpPr>
-          <cdr:cNvPr id="18" name="Straight Connector 17">
+          <cdr:cNvPr id="27" name="Straight Connector 26">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1089D6-9659-4320-8079-62E08D3CA16D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7F2CA0-4542-4151-B47C-963C6E93E3FD}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -6249,19 +6377,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.60737</cdr:x>
-      <cdr:y>0.86601</cdr:y>
+      <cdr:x>0.59272</cdr:x>
+      <cdr:y>0.86609</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.77112</cdr:x>
-      <cdr:y>0.95576</cdr:y>
+      <cdr:x>0.75647</cdr:x>
+      <cdr:y>0.95584</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
-        <cdr:cNvPr id="19" name="Group 18">
+        <cdr:cNvPr id="28" name="Group 27">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFD5293-7691-46A3-A6B5-B9FF06EC9DAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836AA83B-FCB8-4C3B-A119-25AAA34B5844}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -6269,18 +6397,18 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4739006" y="5180212"/>
-          <a:ext cx="1277663" cy="536858"/>
+          <a:off x="4624732" y="5180692"/>
+          <a:ext cx="1277664" cy="536857"/>
           <a:chOff x="-98426" y="0"/>
           <a:chExt cx="981077" cy="533400"/>
         </a:xfrm>
       </cdr:grpSpPr>
       <cdr:sp macro="" textlink="">
         <cdr:nvSpPr>
-          <cdr:cNvPr id="20" name="TextBox 2">
+          <cdr:cNvPr id="29" name="TextBox 2">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDA6CAB-FE14-4479-8437-4196BF52879D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D590557F-1776-4205-AF18-9BB607339210}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -6365,7 +6493,7 @@
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
               <a:rPr lang="en-CA" sz="1100"/>
-              <a:t>26-Mar-2020</a:t>
+              <a:t>30-Mar-2020</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -6375,10 +6503,10 @@
       </cdr:sp>
       <cdr:cxnSp macro="">
         <cdr:nvCxnSpPr>
-          <cdr:cNvPr id="21" name="Straight Connector 20">
+          <cdr:cNvPr id="30" name="Straight Connector 29">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B232124F-9441-4E1B-B6E2-F3ABFE2620CD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AB7D81-6222-4939-9196-10D14A708D98}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -6716,20 +6844,20 @@
   <dimension ref="A1:XFC81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="83" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="82" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="29" customWidth="1"/>
     <col min="5" max="6" width="8.85546875" style="17"/>
     <col min="7" max="7" width="8.7109375" style="18" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="17" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="26" customWidth="1"/>
     <col min="11" max="11" width="5.85546875" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
@@ -6743,16 +6871,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="73">
+      <c r="B1" s="72">
         <f ca="1">TODAY()-43855</f>
-        <v>67</v>
-      </c>
-      <c r="C1" s="71">
+        <v>72</v>
+      </c>
+      <c r="C1" s="70">
         <f ca="1">TODAY()</f>
-        <v>43922</v>
+        <v>43927</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -6762,10 +6890,10 @@
       <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="69"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="12"/>
@@ -6780,19 +6908,19 @@
       <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="60" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -6859,7 +6987,7 @@
       <c r="F6" s="17">
         <v>0</v>
       </c>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="58" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6880,8 +7008,8 @@
       <c r="F7" s="17">
         <v>0</v>
       </c>
-      <c r="U7" s="115" t="s">
-        <v>58</v>
+      <c r="U7" s="108" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -7055,7 +7183,7 @@
       <c r="B17" s="16">
         <v>43</v>
       </c>
-      <c r="C17" s="87"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="29">
         <v>4</v>
       </c>
@@ -7074,7 +7202,7 @@
       <c r="B18" s="16">
         <v>44</v>
       </c>
-      <c r="C18" s="87"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="29">
         <v>4</v>
       </c>
@@ -7093,7 +7221,7 @@
       <c r="B19" s="16">
         <v>45</v>
       </c>
-      <c r="C19" s="87"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="29">
         <v>2</v>
       </c>
@@ -7112,7 +7240,7 @@
       <c r="B20" s="16">
         <v>46</v>
       </c>
-      <c r="C20" s="87"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="29">
         <v>5</v>
       </c>
@@ -7131,7 +7259,7 @@
       <c r="B21" s="16">
         <v>47</v>
       </c>
-      <c r="C21" s="87"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="29">
         <v>18</v>
       </c>
@@ -7150,7 +7278,7 @@
       <c r="B22" s="16">
         <v>48</v>
       </c>
-      <c r="C22" s="87"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="29">
         <v>19</v>
       </c>
@@ -7169,7 +7297,7 @@
       <c r="B23" s="16">
         <v>49</v>
       </c>
-      <c r="C23" s="87"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="29">
         <v>24</v>
       </c>
@@ -7190,7 +7318,7 @@
       <c r="B24" s="16">
         <v>50</v>
       </c>
-      <c r="C24" s="87"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="29">
         <v>43</v>
       </c>
@@ -7198,7 +7326,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="88">
         <v>0</v>
       </c>
       <c r="T24" s="5"/>
@@ -7211,7 +7339,7 @@
       <c r="B25" s="16">
         <v>51</v>
       </c>
-      <c r="C25" s="87"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="29">
         <v>32</v>
       </c>
@@ -7230,7 +7358,7 @@
       <c r="B26" s="16">
         <v>52</v>
       </c>
-      <c r="C26" s="87"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="29">
         <v>12</v>
       </c>
@@ -7252,7 +7380,7 @@
       <c r="B27" s="16">
         <v>53</v>
       </c>
-      <c r="C27" s="87"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="29">
         <v>25</v>
       </c>
@@ -7284,7 +7412,7 @@
       <c r="B28" s="16">
         <v>54</v>
       </c>
-      <c r="C28" s="87"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="29">
         <v>44</v>
       </c>
@@ -7318,7 +7446,7 @@
       <c r="B29" s="16">
         <v>55</v>
       </c>
-      <c r="C29" s="87"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="29">
         <v>60</v>
       </c>
@@ -7352,7 +7480,7 @@
       <c r="B30" s="16">
         <v>56</v>
       </c>
-      <c r="C30" s="87"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="29">
         <v>59</v>
       </c>
@@ -7386,7 +7514,7 @@
       <c r="B31" s="16">
         <v>57</v>
       </c>
-      <c r="C31" s="87"/>
+      <c r="C31" s="86"/>
       <c r="D31" s="29">
         <v>48</v>
       </c>
@@ -7415,16 +7543,16 @@
       <c r="L31" s="8"/>
       <c r="M31" s="23" t="str">
         <f ca="1">"Tests as of" &amp;  TEXT(TODAY()," mm-dd-yyyy")</f>
-        <v>Tests as of 04-01-2020</v>
+        <v>Tests as of 04-06-2020</v>
       </c>
       <c r="N31" s="7"/>
-      <c r="O31" s="105" t="s">
+      <c r="O31" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="106"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="106"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
@@ -7433,7 +7561,7 @@
       <c r="B32" s="16">
         <v>58</v>
       </c>
-      <c r="C32" s="87"/>
+      <c r="C32" s="86"/>
       <c r="D32" s="29">
         <v>78</v>
       </c>
@@ -7459,19 +7587,19 @@
         <f t="shared" si="2"/>
         <v>3.7392138063279005E-2</v>
       </c>
-      <c r="L32" s="99" t="s">
+      <c r="L32" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="100">
+      <c r="M32" s="99">
         <f>M37-M36-M35-M34-M33</f>
-        <v>51621</v>
+        <v>72364</v>
       </c>
       <c r="N32" s="7"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
     </row>
     <row r="33" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
@@ -7480,7 +7608,7 @@
       <c r="B33" s="16">
         <v>59</v>
       </c>
-      <c r="C33" s="87"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="29">
         <v>85</v>
       </c>
@@ -7506,11 +7634,11 @@
         <f t="shared" si="2"/>
         <v>2.1513540875727665E-2</v>
       </c>
-      <c r="L33" s="96" t="s">
+      <c r="L33" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="97">
-        <v>3135</v>
+      <c r="M33" s="96">
+        <v>329</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="33" t="s">
@@ -7525,7 +7653,7 @@
       <c r="S33" s="35"/>
       <c r="XFC33">
         <f>SUM(B33:XFB33)</f>
-        <v>41639.161636316996</v>
+        <v>38833.161636316996</v>
       </c>
     </row>
     <row r="34" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
@@ -7535,7 +7663,7 @@
       <c r="B34" s="16">
         <v>60</v>
       </c>
-      <c r="C34" s="87"/>
+      <c r="C34" s="86"/>
       <c r="D34" s="29">
         <v>100</v>
       </c>
@@ -7564,19 +7692,19 @@
       <c r="L34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M34" s="98">
+      <c r="M34" s="97">
         <f>MAX(C38:C74)</f>
-        <v>2392</v>
+        <v>4347</v>
       </c>
       <c r="N34" s="7"/>
-      <c r="O34" s="105" t="str">
+      <c r="O34" s="110" t="str">
         <f ca="1">"As of" &amp;  TEXT(TODAY()," mmmm dd")&amp;", Ontario reported "&amp;M37&amp;" total tests, finding "&amp;(M34+M35+M36)&amp;" positive:"</f>
-        <v>As of April 01, Ontario reported 57874 total tests, finding 3118 positive:</v>
-      </c>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="106"/>
-      <c r="R34" s="106"/>
-      <c r="S34" s="106"/>
+        <v>As of April 06, Ontario reported 78796 total tests, finding 6103 positive:</v>
+      </c>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
     </row>
     <row r="35" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
@@ -7585,7 +7713,7 @@
       <c r="B35" s="16">
         <v>61</v>
       </c>
-      <c r="C35" s="87"/>
+      <c r="C35" s="86"/>
       <c r="D35" s="29">
         <v>170</v>
       </c>
@@ -7614,15 +7742,15 @@
       <c r="L35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M35" s="58">
-        <v>689</v>
+      <c r="M35" s="57">
+        <v>1624</v>
       </c>
       <c r="N35" s="7"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="106"/>
-      <c r="R35" s="106"/>
-      <c r="S35" s="106"/>
+      <c r="O35" s="110"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
     </row>
     <row r="36" spans="1:19 16383:16383" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
@@ -7631,7 +7759,7 @@
       <c r="B36" s="16">
         <v>62</v>
       </c>
-      <c r="C36" s="87"/>
+      <c r="C36" s="86"/>
       <c r="D36" s="29">
         <v>132</v>
       </c>
@@ -7662,16 +7790,16 @@
       </c>
       <c r="M36" s="2">
         <f>SUM(F4:F424)</f>
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="36" t="str">
         <f>(M34+M35+M36)&amp;" / "&amp;M37&amp;" ="</f>
-        <v>3118 / 57874 =</v>
+        <v>6103 / 78796 =</v>
       </c>
       <c r="P36" s="37">
         <f>($M34+$M35+$M36)/(M37)</f>
-        <v>5.3875660918547189E-2</v>
+        <v>7.7453170211685879E-2</v>
       </c>
       <c r="Q36" s="38"/>
       <c r="R36" s="38"/>
@@ -7684,7 +7812,7 @@
       <c r="B37" s="16">
         <v>63</v>
       </c>
-      <c r="C37" s="95"/>
+      <c r="C37" s="94"/>
       <c r="D37" s="29">
         <v>150</v>
       </c>
@@ -7715,7 +7843,7 @@
       </c>
       <c r="M37" s="2">
         <f>MAX(G4:G37,G39:G70)</f>
-        <v>57874</v>
+        <v>78796</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="40" t="s">
@@ -7733,20 +7861,20 @@
       <c r="B38" s="16">
         <v>64</v>
       </c>
-      <c r="C38" s="109">
+      <c r="C38" s="103">
         <v>1324</v>
       </c>
-      <c r="D38" s="88">
+      <c r="D38" s="87">
         <v>207</v>
       </c>
       <c r="E38" s="17">
-        <f t="shared" ref="E38:E41" si="4">D38</f>
+        <f t="shared" ref="E38:E42" si="4">D38</f>
         <v>207</v>
       </c>
       <c r="F38" s="17">
         <v>4</v>
       </c>
-      <c r="G38" s="85">
+      <c r="G38" s="84">
         <v>49186</v>
       </c>
       <c r="H38" s="18">
@@ -7761,18 +7889,18 @@
         <f>D38/H38</f>
         <v>3.3856722276741906E-2</v>
       </c>
-      <c r="L38" s="101" t="s">
+      <c r="L38" s="100" t="s">
         <v>49</v>
       </c>
       <c r="M38" s="6"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="107" t="s">
+      <c r="N38" s="101"/>
+      <c r="O38" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="108"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="113"/>
+      <c r="S38" s="113"/>
     </row>
     <row r="39" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
@@ -7781,10 +7909,10 @@
       <c r="B39" s="16">
         <v>65</v>
       </c>
-      <c r="C39" s="87">
+      <c r="C39" s="86">
         <v>1706</v>
       </c>
-      <c r="D39" s="84">
+      <c r="D39" s="83">
         <f>C39-C38</f>
         <v>382</v>
       </c>
@@ -7795,22 +7923,22 @@
       <c r="F39" s="17">
         <v>0</v>
       </c>
-      <c r="G39" s="86">
+      <c r="G39" s="85">
         <v>48461</v>
       </c>
-      <c r="H39" s="92"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="94"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="93"/>
       <c r="L39" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="102"/>
-      <c r="N39" s="102"/>
-      <c r="O39" s="107"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="108"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
+      <c r="S39" s="113"/>
     </row>
     <row r="40" spans="1:19 16383:16383" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
@@ -7819,10 +7947,10 @@
       <c r="B40" s="16">
         <v>66</v>
       </c>
-      <c r="C40" s="87">
+      <c r="C40" s="86">
         <v>1966</v>
       </c>
-      <c r="D40" s="84">
+      <c r="D40" s="83">
         <f>C40-C39</f>
         <v>260</v>
       </c>
@@ -7833,7 +7961,7 @@
       <c r="F40" s="17">
         <v>10</v>
       </c>
-      <c r="G40" s="86">
+      <c r="G40" s="85">
         <v>51629</v>
       </c>
       <c r="H40" s="18">
@@ -7844,18 +7972,18 @@
         <f>D40/H40</f>
         <v>8.2070707070707072E-2</v>
       </c>
-      <c r="L40" s="101" t="s">
+      <c r="L40" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="M40" s="103"/>
-      <c r="N40" s="103"/>
-      <c r="O40" s="104" t="s">
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="P40" s="104"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="104"/>
-      <c r="S40" s="104"/>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="109"/>
+      <c r="S40" s="109"/>
     </row>
     <row r="41" spans="1:19 16383:16383" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
@@ -7864,10 +7992,10 @@
       <c r="B41" s="16">
         <v>67</v>
       </c>
-      <c r="C41" s="87">
+      <c r="C41" s="86">
         <v>2392</v>
       </c>
-      <c r="D41" s="84">
+      <c r="D41" s="83">
         <f>C41-C40</f>
         <v>426</v>
       </c>
@@ -7878,7 +8006,7 @@
       <c r="F41" s="17">
         <v>4</v>
       </c>
-      <c r="G41" s="86">
+      <c r="G41" s="85">
         <v>57874</v>
       </c>
       <c r="H41" s="18">
@@ -7898,10 +8026,10 @@
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="95" t="s">
+      <c r="O41" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="P41" s="63">
+      <c r="P41" s="62">
         <v>43920</v>
       </c>
     </row>
@@ -7912,20 +8040,47 @@
       <c r="B42" s="16">
         <v>68</v>
       </c>
-      <c r="C42" s="87"/>
-      <c r="H42" s="18"/>
+      <c r="C42" s="86">
+        <v>2793</v>
+      </c>
+      <c r="D42" s="83">
+        <f>C42-C41</f>
+        <v>401</v>
+      </c>
+      <c r="E42" s="17">
+        <f t="shared" si="4"/>
+        <v>401</v>
+      </c>
+      <c r="F42" s="17">
+        <v>16</v>
+      </c>
+      <c r="G42" s="18">
+        <v>62733</v>
+      </c>
+      <c r="H42" s="18">
+        <f>G42-G41</f>
+        <v>4859</v>
+      </c>
+      <c r="I42" s="14">
+        <f>H42-H41</f>
+        <v>-1386</v>
+      </c>
+      <c r="J42" s="26">
+        <f>D42/H42</f>
+        <v>8.2527268985387939E-2</v>
+      </c>
       <c r="L42" s="31" t="s">
         <v>17</v>
       </c>
       <c r="M42" s="32"/>
-      <c r="O42" s="62">
+      <c r="O42" s="61">
         <f>395194/51.47</f>
         <v>7678.1426073440844</v>
       </c>
-      <c r="P42" s="95" t="s">
+      <c r="P42" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="101" t="s">
+      <c r="Q42" s="100" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7936,19 +8091,46 @@
       <c r="B43" s="16">
         <v>69</v>
       </c>
-      <c r="C43" s="87"/>
-      <c r="H43" s="18"/>
+      <c r="C43" s="86">
+        <v>3255</v>
+      </c>
+      <c r="D43" s="83">
+        <f>C43-C42</f>
+        <v>462</v>
+      </c>
+      <c r="E43" s="17">
+        <f t="shared" ref="E43:E44" si="5">D43</f>
+        <v>462</v>
+      </c>
+      <c r="F43" s="17">
+        <v>14</v>
+      </c>
+      <c r="G43" s="18">
+        <v>66753</v>
+      </c>
+      <c r="H43" s="18">
+        <f>G43-G42</f>
+        <v>4020</v>
+      </c>
+      <c r="I43" s="14">
+        <f>H43-H42</f>
+        <v>-839</v>
+      </c>
+      <c r="J43" s="26">
+        <f>D43/H43</f>
+        <v>0.11492537313432835</v>
+      </c>
       <c r="L43" s="17" t="s">
         <v>11</v>
       </c>
       <c r="M43" s="13">
         <v>13</v>
       </c>
-      <c r="O43" s="62">
+      <c r="O43" s="61">
         <f>48461/14.57</f>
         <v>3326.0809883321895</v>
       </c>
-      <c r="P43" s="95" t="s">
+      <c r="P43" s="94" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7959,7 +8141,35 @@
       <c r="B44" s="16">
         <v>70</v>
       </c>
-      <c r="C44" s="87"/>
+      <c r="C44" s="86">
+        <v>3630</v>
+      </c>
+      <c r="D44" s="83">
+        <f>C44-C43</f>
+        <v>375</v>
+      </c>
+      <c r="E44" s="17">
+        <f t="shared" si="5"/>
+        <v>375</v>
+      </c>
+      <c r="F44" s="17">
+        <v>27</v>
+      </c>
+      <c r="G44" s="18">
+        <v>71338</v>
+      </c>
+      <c r="H44" s="18">
+        <f>G44-G43</f>
+        <v>4585</v>
+      </c>
+      <c r="I44" s="14">
+        <f>H44-H43</f>
+        <v>565</v>
+      </c>
+      <c r="J44" s="26">
+        <f>D44/H44</f>
+        <v>8.1788440567066523E-2</v>
+      </c>
       <c r="L44" s="17" t="s">
         <v>12</v>
       </c>
@@ -7974,7 +8184,35 @@
       <c r="B45" s="16">
         <v>71</v>
       </c>
-      <c r="C45" s="87"/>
+      <c r="C45" s="86">
+        <v>4038</v>
+      </c>
+      <c r="D45" s="83">
+        <f>C45-C44</f>
+        <v>408</v>
+      </c>
+      <c r="E45" s="17">
+        <f t="shared" ref="E45" si="6">D45</f>
+        <v>408</v>
+      </c>
+      <c r="F45" s="17">
+        <v>25</v>
+      </c>
+      <c r="G45" s="18">
+        <v>75046</v>
+      </c>
+      <c r="H45" s="18">
+        <f>G45-G44</f>
+        <v>3708</v>
+      </c>
+      <c r="I45" s="14">
+        <f>H45-H44</f>
+        <v>-877</v>
+      </c>
+      <c r="J45" s="26">
+        <f>D45/H45</f>
+        <v>0.11003236245954692</v>
+      </c>
       <c r="L45" s="17" t="s">
         <v>13</v>
       </c>
@@ -7989,7 +8227,35 @@
       <c r="B46" s="16">
         <v>72</v>
       </c>
-      <c r="C46" s="87"/>
+      <c r="C46" s="86">
+        <v>4347</v>
+      </c>
+      <c r="D46" s="83">
+        <f>C46-C45</f>
+        <v>309</v>
+      </c>
+      <c r="E46" s="17">
+        <f t="shared" ref="E46" si="7">D46</f>
+        <v>309</v>
+      </c>
+      <c r="F46" s="17">
+        <v>13</v>
+      </c>
+      <c r="G46" s="18">
+        <v>78796</v>
+      </c>
+      <c r="H46" s="18">
+        <f>G46-G45</f>
+        <v>3750</v>
+      </c>
+      <c r="I46" s="14">
+        <f>H46-H45</f>
+        <v>42</v>
+      </c>
+      <c r="J46" s="26">
+        <f>D46/H46</f>
+        <v>8.2400000000000001E-2</v>
+      </c>
       <c r="L46" s="17" t="s">
         <v>14</v>
       </c>
@@ -8004,7 +8270,7 @@
       <c r="B47" s="16">
         <v>73</v>
       </c>
-      <c r="C47" s="87"/>
+      <c r="C47" s="86"/>
       <c r="L47" s="17" t="s">
         <v>15</v>
       </c>
@@ -8019,7 +8285,7 @@
       <c r="B48" s="16">
         <v>74</v>
       </c>
-      <c r="C48" s="87"/>
+      <c r="C48" s="86"/>
       <c r="L48" s="17" t="s">
         <v>18</v>
       </c>
@@ -8034,7 +8300,7 @@
       <c r="B49" s="16">
         <v>75</v>
       </c>
-      <c r="C49" s="87"/>
+      <c r="C49" s="86"/>
       <c r="L49" s="17" t="s">
         <v>19</v>
       </c>
@@ -8049,7 +8315,7 @@
       <c r="B50" s="16">
         <v>76</v>
       </c>
-      <c r="C50" s="87"/>
+      <c r="C50" s="86"/>
       <c r="L50" s="29" t="s">
         <v>20</v>
       </c>
@@ -8064,7 +8330,7 @@
       <c r="B51" s="16">
         <v>77</v>
       </c>
-      <c r="C51" s="87"/>
+      <c r="C51" s="86"/>
       <c r="L51" s="30" t="s">
         <v>20</v>
       </c>
@@ -8082,9 +8348,9 @@
       <c r="B52" s="16">
         <v>78</v>
       </c>
-      <c r="C52" s="87"/>
+      <c r="C52" s="86"/>
       <c r="L52" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -8094,7 +8360,7 @@
       <c r="B53" s="16">
         <v>79</v>
       </c>
-      <c r="C53" s="87"/>
+      <c r="C53" s="86"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
@@ -8103,7 +8369,7 @@
       <c r="B54" s="16">
         <v>80</v>
       </c>
-      <c r="C54" s="87"/>
+      <c r="C54" s="86"/>
       <c r="L54" s="31" t="s">
         <v>24</v>
       </c>
@@ -8116,7 +8382,7 @@
       <c r="B55" s="16">
         <v>81</v>
       </c>
-      <c r="C55" s="87"/>
+      <c r="C55" s="86"/>
       <c r="L55" s="41" t="s">
         <v>11</v>
       </c>
@@ -8134,17 +8400,17 @@
       <c r="B56" s="16">
         <v>82</v>
       </c>
-      <c r="C56" s="87"/>
+      <c r="C56" s="86"/>
       <c r="L56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M56" s="57">
+      <c r="M56" s="56">
         <v>33</v>
       </c>
-      <c r="N56" s="76">
+      <c r="N56" s="75">
         <v>3186</v>
       </c>
-      <c r="O56" s="75"/>
+      <c r="O56" s="74"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
@@ -8153,14 +8419,14 @@
       <c r="B57" s="16">
         <v>83</v>
       </c>
-      <c r="C57" s="87"/>
+      <c r="C57" s="86"/>
       <c r="L57" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M57" s="57">
+      <c r="M57" s="56">
         <v>27</v>
       </c>
-      <c r="N57" s="76">
+      <c r="N57" s="75">
         <v>6577</v>
       </c>
     </row>
@@ -8171,14 +8437,14 @@
       <c r="B58" s="16">
         <v>84</v>
       </c>
-      <c r="C58" s="87"/>
+      <c r="C58" s="86"/>
       <c r="L58" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M58" s="57">
+      <c r="M58" s="56">
         <v>23</v>
       </c>
-      <c r="N58" s="76">
+      <c r="N58" s="75">
         <v>6933</v>
       </c>
     </row>
@@ -8189,14 +8455,14 @@
       <c r="B59" s="16">
         <v>85</v>
       </c>
-      <c r="C59" s="87"/>
+      <c r="C59" s="86"/>
       <c r="L59" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M59" s="57">
+      <c r="M59" s="56">
         <v>26</v>
       </c>
-      <c r="N59" s="76">
+      <c r="N59" s="75">
         <v>24742</v>
       </c>
     </row>
@@ -8207,15 +8473,15 @@
       <c r="B60" s="16">
         <v>86</v>
       </c>
-      <c r="C60" s="87"/>
+      <c r="C60" s="86"/>
       <c r="L60" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M60" s="57">
-        <v>26</v>
-      </c>
-      <c r="N60" s="76">
-        <v>7578</v>
+      <c r="M60" s="56">
+        <v>29</v>
+      </c>
+      <c r="N60" s="75">
+        <v>23060</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -8225,14 +8491,14 @@
       <c r="B61" s="16">
         <v>87</v>
       </c>
-      <c r="C61" s="87"/>
+      <c r="C61" s="86"/>
       <c r="L61" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="57">
+      <c r="M61" s="56">
         <v>20</v>
       </c>
-      <c r="N61" s="76">
+      <c r="N61" s="75">
         <v>8271</v>
       </c>
     </row>
@@ -8243,15 +8509,15 @@
       <c r="B62" s="16">
         <v>88</v>
       </c>
-      <c r="C62" s="87"/>
+      <c r="C62" s="86"/>
       <c r="L62" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="M62" s="57">
-        <v>21</v>
-      </c>
-      <c r="N62" s="76">
-        <v>2885</v>
+      <c r="M62" s="56">
+        <v>30</v>
+      </c>
+      <c r="N62" s="75">
+        <v>5903</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -8261,14 +8527,14 @@
       <c r="B63" s="16">
         <v>89</v>
       </c>
-      <c r="C63" s="87"/>
+      <c r="C63" s="86"/>
       <c r="L63" s="29" t="s">
         <v>20</v>
       </c>
       <c r="M63" s="27">
         <v>11</v>
       </c>
-      <c r="N63" s="79">
+      <c r="N63" s="78">
         <v>851</v>
       </c>
     </row>
@@ -8279,151 +8545,161 @@
       <c r="B64" s="16">
         <v>90</v>
       </c>
-      <c r="C64" s="87"/>
+      <c r="C64" s="86"/>
       <c r="L64" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="M64" s="110">
+      <c r="M64" s="104">
         <f>AVERAGE(M56:M62)</f>
-        <v>25.142857142857142</v>
+        <v>26.857142857142858</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>43946</v>
       </c>
       <c r="B65" s="16">
         <v>91</v>
       </c>
-      <c r="C65" s="87"/>
+      <c r="C65" s="86"/>
       <c r="L65" s="42" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>43947</v>
       </c>
       <c r="B66" s="16">
         <v>92</v>
       </c>
-      <c r="C66" s="87"/>
+      <c r="C66" s="86"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>43948</v>
       </c>
       <c r="B67" s="16">
         <v>93</v>
       </c>
-      <c r="C67" s="87"/>
+      <c r="C67" s="86"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>43949</v>
       </c>
       <c r="B68" s="16">
         <v>94</v>
       </c>
-      <c r="C68" s="87"/>
+      <c r="C68" s="86"/>
       <c r="L68" s="47" t="s">
         <v>36</v>
       </c>
       <c r="M68" s="48"/>
       <c r="N68" s="48"/>
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
-      <c r="Q68" s="49"/>
+      <c r="O68" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" s="115"/>
+      <c r="Q68" s="116"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>43950</v>
       </c>
       <c r="B69" s="16">
         <v>95</v>
       </c>
-      <c r="C69" s="87"/>
-      <c r="L69" s="77" t="s">
+      <c r="C69" s="86"/>
+      <c r="L69" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="M69" s="65">
+      <c r="M69" s="64">
         <v>0.19450000000000001</v>
       </c>
-      <c r="N69" s="66" t="s">
+      <c r="N69" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="13"/>
+      <c r="O69" s="117" t="s">
+        <v>61</v>
+      </c>
+      <c r="P69" s="117"/>
+      <c r="Q69" s="92"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>43951</v>
       </c>
       <c r="B70" s="16">
         <v>96</v>
       </c>
-      <c r="C70" s="87"/>
-      <c r="L70" s="67">
+      <c r="C70" s="86"/>
+      <c r="L70" s="66">
         <v>1E-3</v>
       </c>
-      <c r="M70" s="68" t="s">
+      <c r="M70" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="N70" s="66"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="13"/>
+      <c r="N70" s="65"/>
+      <c r="O70" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" s="117"/>
+      <c r="Q70" s="92"/>
+      <c r="R70" s="118"/>
+      <c r="S70" s="118"/>
+      <c r="T70" s="118"/>
+      <c r="U70" s="118"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>43952</v>
       </c>
       <c r="B71" s="16">
         <v>97</v>
       </c>
-      <c r="C71" s="87"/>
-      <c r="L71" s="78"/>
-      <c r="M71" s="68"/>
-      <c r="N71" s="66"/>
+      <c r="C71" s="86"/>
+      <c r="L71" s="77"/>
+      <c r="M71" s="67"/>
+      <c r="N71" s="65"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="13"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>43953</v>
       </c>
       <c r="B72" s="16">
         <v>98</v>
       </c>
-      <c r="C72" s="87"/>
-      <c r="L72" s="50" t="s">
-        <v>56</v>
+      <c r="C72" s="86"/>
+      <c r="L72" s="49" t="s">
+        <v>55</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
-      <c r="O72" s="68" t="s">
+      <c r="O72" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="P72" s="70">
+      <c r="P72" s="69">
         <f ca="1">TODAY()-43855</f>
-        <v>67</v>
-      </c>
-      <c r="Q72" s="80">
+        <v>72</v>
+      </c>
+      <c r="Q72" s="79">
         <f ca="1">TODAY()</f>
-        <v>43922</v>
+        <v>43927</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>43954</v>
       </c>
       <c r="B73" s="16">
         <v>99</v>
       </c>
-      <c r="C73" s="87"/>
-      <c r="L73" s="51" t="s">
+      <c r="C73" s="86"/>
+      <c r="L73" s="50" t="s">
         <v>31</v>
       </c>
       <c r="M73" s="11">
@@ -8434,43 +8710,43 @@
       <c r="P73" s="4"/>
       <c r="Q73" s="13"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>43955</v>
       </c>
       <c r="B74" s="16">
         <v>100</v>
       </c>
-      <c r="C74" s="87"/>
-      <c r="L74" s="51" t="s">
+      <c r="C74" s="86"/>
+      <c r="L74" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="M74" s="111">
+      <c r="M74" s="105">
         <f>LN($M73/$L70)/$M69</f>
         <v>71.030902611641508</v>
       </c>
       <c r="N74" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O74" s="81">
+      <c r="O74" s="80">
         <f ca="1">TODAY()+P74</f>
         <v>43926.030902611645</v>
       </c>
-      <c r="P74" s="112">
+      <c r="P74" s="106">
         <f ca="1">M74-P72</f>
-        <v>4.0309026116415083</v>
+        <v>-0.96909738835849168</v>
       </c>
       <c r="Q74" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L75" s="51"/>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L75" s="50"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="13"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L76" s="51" t="s">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L76" s="50" t="s">
         <v>31</v>
       </c>
       <c r="M76" s="11">
@@ -8481,67 +8757,67 @@
       <c r="P76" s="4"/>
       <c r="Q76" s="13"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L77" s="51" t="s">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L77" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="M77" s="111">
+      <c r="M77" s="105">
         <f>LN($M76/$L70)/$M69</f>
         <v>76.679294841297605</v>
       </c>
       <c r="N77" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O77" s="81">
+      <c r="O77" s="80">
         <f ca="1">TODAY()+P77</f>
         <v>43931.679294841299</v>
       </c>
-      <c r="P77" s="112">
+      <c r="P77" s="106">
         <f ca="1">M77-P72</f>
-        <v>9.6792948412976045</v>
+        <v>4.6792948412976045</v>
       </c>
       <c r="Q77" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L78" s="52"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="54"/>
-      <c r="O78" s="74"/>
-      <c r="P78" s="55"/>
-      <c r="Q78" s="56"/>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L78" s="51"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="73"/>
+      <c r="P78" s="54"/>
+      <c r="Q78" s="55"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L80" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="M80" s="113"/>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L80" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="M80" s="114"/>
       <c r="N80" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="O80" s="114">
+        <v>53</v>
+      </c>
+      <c r="O80" s="107">
         <f ca="1">O74-5</f>
         <v>43921.030902611645</v>
       </c>
       <c r="P80" s="45">
         <f ca="1">P74-5+67</f>
-        <v>66.030902611641508</v>
+        <v>61.030902611641508</v>
       </c>
     </row>
     <row r="81" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L81" s="113"/>
-      <c r="M81" s="113"/>
+      <c r="L81" s="114"/>
+      <c r="M81" s="114"/>
       <c r="N81" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="O81" s="114">
+        <v>54</v>
+      </c>
+      <c r="O81" s="107">
         <f ca="1">O77-5</f>
         <v>43926.679294841299</v>
       </c>
       <c r="P81" s="45">
         <f ca="1">P77-5+67</f>
-        <v>71.679294841297605</v>
+        <v>66.679294841297605</v>
       </c>
     </row>
   </sheetData>
